--- a/РАБОЧИЙ СТОЛ/24,07,25 ПОКОМ КИ филиалы/дв 24,07,25 бррсч пок ки.xlsx
+++ b/РАБОЧИЙ СТОЛ/24,07,25 ПОКОМ КИ филиалы/дв 24,07,25 бррсч пок ки.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\24,07,25 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\РАБОЧИЙ СТОЛ\24,07,25 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6116707D-9889-4275-9905-507D9E322FFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B5F6FC-03FE-4627-90DB-0A498C4CFC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AG$93</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="151">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -483,6 +478,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / нет в бланке</t>
     </r>
@@ -503,6 +500,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / Мера / 25,03,25 в уценку 14 шт. / 21,01,25 в уценку 38 шт.</t>
     </r>
@@ -523,6 +522,8 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 20,03,25 в уценку 26кг</t>
     </r>
@@ -543,9 +544,17 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
       </rPr>
       <t xml:space="preserve"> / 20,03,25 в уценку 11кг</t>
     </r>
+  </si>
+  <si>
+    <t>SU002182</t>
+  </si>
+  <si>
+    <t>SU002725</t>
   </si>
 </sst>
 </file>
@@ -566,17 +575,23 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -729,6 +744,7450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Номенклатура</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Ед. изм.</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Начальный остаток</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Приход</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Расход</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>Конечный остаток</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>крат</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>сроки</v>
+          </cell>
+          <cell r="I3" t="str">
+            <v>метка</v>
+          </cell>
+          <cell r="J3" t="str">
+            <v>метка2</v>
+          </cell>
+          <cell r="K3" t="str">
+            <v>заяв</v>
+          </cell>
+          <cell r="L3" t="str">
+            <v>разн</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>без опта</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>опт</v>
+          </cell>
+          <cell r="O3" t="str">
+            <v>заказ в пути</v>
+          </cell>
+          <cell r="P3" t="str">
+            <v>заказ в пути</v>
+          </cell>
+          <cell r="Q3" t="str">
+            <v>ср нов</v>
+          </cell>
+          <cell r="R3" t="str">
+            <v>расчет</v>
+          </cell>
+          <cell r="S3" t="str">
+            <v>заказ филиала</v>
+          </cell>
+          <cell r="T3" t="str">
+            <v>Комментарии филиала</v>
+          </cell>
+          <cell r="U3" t="str">
+            <v>кон ост</v>
+          </cell>
+          <cell r="V3" t="str">
+            <v>факт</v>
+          </cell>
+          <cell r="W3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="X3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="Y3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="Z3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AA3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AB3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AC3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AD3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AE3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AF3" t="str">
+            <v>ср</v>
+          </cell>
+          <cell r="AG3" t="str">
+            <v>комментарии</v>
+          </cell>
+          <cell r="AH3" t="str">
+            <v>вес</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="O4" t="str">
+            <v>21,07,</v>
+          </cell>
+          <cell r="P4" t="str">
+            <v>26,07,</v>
+          </cell>
+          <cell r="Q4" t="str">
+            <v>24,07,</v>
+          </cell>
+          <cell r="W4" t="str">
+            <v>23,07,</v>
+          </cell>
+          <cell r="X4" t="str">
+            <v>17,07,</v>
+          </cell>
+          <cell r="Y4" t="str">
+            <v>16,07,</v>
+          </cell>
+          <cell r="Z4" t="str">
+            <v>10,07,</v>
+          </cell>
+          <cell r="AA4" t="str">
+            <v>09,07,</v>
+          </cell>
+          <cell r="AB4" t="str">
+            <v>03,07,</v>
+          </cell>
+          <cell r="AC4" t="str">
+            <v>02,07,</v>
+          </cell>
+          <cell r="AD4" t="str">
+            <v>26,06,</v>
+          </cell>
+          <cell r="AE4" t="str">
+            <v>25,06,</v>
+          </cell>
+          <cell r="AF4" t="str">
+            <v>19,06,</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>9400.4629999999997</v>
+          </cell>
+          <cell r="F5">
+            <v>7898.5569999999998</v>
+          </cell>
+          <cell r="K5">
+            <v>9753.905999999999</v>
+          </cell>
+          <cell r="L5">
+            <v>-353.44299999999998</v>
+          </cell>
+          <cell r="M5">
+            <v>0</v>
+          </cell>
+          <cell r="N5">
+            <v>0</v>
+          </cell>
+          <cell r="O5">
+            <v>2668.4449999999993</v>
+          </cell>
+          <cell r="P5">
+            <v>7234.1363799999999</v>
+          </cell>
+          <cell r="Q5">
+            <v>1880.0926000000006</v>
+          </cell>
+          <cell r="R5">
+            <v>3585.9547400000006</v>
+          </cell>
+          <cell r="S5">
+            <v>0</v>
+          </cell>
+          <cell r="W5">
+            <v>2041.7911999999999</v>
+          </cell>
+          <cell r="X5">
+            <v>1723.0700000000004</v>
+          </cell>
+          <cell r="Y5">
+            <v>1648.0494000000008</v>
+          </cell>
+          <cell r="Z5">
+            <v>1849.2570000000001</v>
+          </cell>
+          <cell r="AA5">
+            <v>1868.3964000000001</v>
+          </cell>
+          <cell r="AB5">
+            <v>1929.5018000000002</v>
+          </cell>
+          <cell r="AC5">
+            <v>1945.9845999999995</v>
+          </cell>
+          <cell r="AD5">
+            <v>2126.4912000000004</v>
+          </cell>
+          <cell r="AE5">
+            <v>2165.4621999999995</v>
+          </cell>
+          <cell r="AF5">
+            <v>2069.1629999999996</v>
+          </cell>
+          <cell r="AH5">
+            <v>2379.7217400000004</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v xml:space="preserve"> 005  Колбаса Докторская ГОСТ, Вязанка вектор,ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C6">
+            <v>46.393999999999998</v>
+          </cell>
+          <cell r="D6">
+            <v>106.79300000000001</v>
+          </cell>
+          <cell r="E6">
+            <v>88.957999999999998</v>
+          </cell>
+          <cell r="F6">
+            <v>58.837000000000003</v>
+          </cell>
+          <cell r="G6">
+            <v>1</v>
+          </cell>
+          <cell r="H6">
+            <v>50</v>
+          </cell>
+          <cell r="I6" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K6">
+            <v>90.45</v>
+          </cell>
+          <cell r="L6">
+            <v>-1.4920000000000044</v>
+          </cell>
+          <cell r="O6">
+            <v>56.266000000000027</v>
+          </cell>
+          <cell r="P6">
+            <v>42.140679999999968</v>
+          </cell>
+          <cell r="Q6">
+            <v>17.791599999999999</v>
+          </cell>
+          <cell r="U6">
+            <v>8.8380853886103559</v>
+          </cell>
+          <cell r="V6">
+            <v>8.8380853886103559</v>
+          </cell>
+          <cell r="W6">
+            <v>20.139600000000002</v>
+          </cell>
+          <cell r="X6">
+            <v>16.09</v>
+          </cell>
+          <cell r="Y6">
+            <v>14.391999999999999</v>
+          </cell>
+          <cell r="Z6">
+            <v>16.761199999999999</v>
+          </cell>
+          <cell r="AA6">
+            <v>16.944400000000002</v>
+          </cell>
+          <cell r="AB6">
+            <v>15.0992</v>
+          </cell>
+          <cell r="AC6">
+            <v>15.6206</v>
+          </cell>
+          <cell r="AD6">
+            <v>16.192</v>
+          </cell>
+          <cell r="AE6">
+            <v>16.752199999999998</v>
+          </cell>
+          <cell r="AF6">
+            <v>14.308</v>
+          </cell>
+          <cell r="AG6" t="str">
+            <v>ТМА июль</v>
+          </cell>
+          <cell r="AH6">
+            <v>0</v>
+          </cell>
+          <cell r="AJ6" t="str">
+            <v>SU000722</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v xml:space="preserve"> 016  Сосиски Вязанка Молочные, Вязанка вискофан  ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C7">
+            <v>75.248000000000005</v>
+          </cell>
+          <cell r="D7">
+            <v>204.90799999999999</v>
+          </cell>
+          <cell r="E7">
+            <v>171.422</v>
+          </cell>
+          <cell r="F7">
+            <v>75.820999999999998</v>
+          </cell>
+          <cell r="G7">
+            <v>1</v>
+          </cell>
+          <cell r="H7">
+            <v>45</v>
+          </cell>
+          <cell r="I7" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K7">
+            <v>169.05</v>
+          </cell>
+          <cell r="L7">
+            <v>2.3719999999999857</v>
+          </cell>
+          <cell r="O7">
+            <v>42.224399999999953</v>
+          </cell>
+          <cell r="P7">
+            <v>169.0439200000001</v>
+          </cell>
+          <cell r="Q7">
+            <v>34.284399999999998</v>
+          </cell>
+          <cell r="R7">
+            <v>90.039079999999956</v>
+          </cell>
+          <cell r="U7">
+            <v>11</v>
+          </cell>
+          <cell r="V7">
+            <v>8.3737594941139424</v>
+          </cell>
+          <cell r="W7">
+            <v>35.412400000000012</v>
+          </cell>
+          <cell r="X7">
+            <v>27.980399999999999</v>
+          </cell>
+          <cell r="Y7">
+            <v>25.194400000000002</v>
+          </cell>
+          <cell r="Z7">
+            <v>33.229999999999997</v>
+          </cell>
+          <cell r="AA7">
+            <v>32.690199999999997</v>
+          </cell>
+          <cell r="AB7">
+            <v>28.324000000000002</v>
+          </cell>
+          <cell r="AC7">
+            <v>28.261600000000001</v>
+          </cell>
+          <cell r="AD7">
+            <v>33.578400000000002</v>
+          </cell>
+          <cell r="AE7">
+            <v>35.998600000000003</v>
+          </cell>
+          <cell r="AF7">
+            <v>31.4084</v>
+          </cell>
+          <cell r="AG7" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH7">
+            <v>90.039079999999956</v>
+          </cell>
+          <cell r="AJ7" t="str">
+            <v>SU001523</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v xml:space="preserve"> 017  Сосиски Вязанка Сливочные, Вязанка амицел ВЕС.ПОКОМ</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C8">
+            <v>102.372</v>
+          </cell>
+          <cell r="D8">
+            <v>107.384</v>
+          </cell>
+          <cell r="E8">
+            <v>102.273</v>
+          </cell>
+          <cell r="F8">
+            <v>88.397000000000006</v>
+          </cell>
+          <cell r="G8">
+            <v>1</v>
+          </cell>
+          <cell r="H8">
+            <v>45</v>
+          </cell>
+          <cell r="I8" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K8">
+            <v>107.35</v>
+          </cell>
+          <cell r="L8">
+            <v>-5.0769999999999982</v>
+          </cell>
+          <cell r="O8">
+            <v>26.451399999999989</v>
+          </cell>
+          <cell r="P8">
+            <v>87.656720000000035</v>
+          </cell>
+          <cell r="Q8">
+            <v>20.454599999999999</v>
+          </cell>
+          <cell r="R8">
+            <v>22.495479999999958</v>
+          </cell>
+          <cell r="U8">
+            <v>11</v>
+          </cell>
+          <cell r="V8">
+            <v>9.9002239105140184</v>
+          </cell>
+          <cell r="W8">
+            <v>24.298400000000001</v>
+          </cell>
+          <cell r="X8">
+            <v>19.842199999999998</v>
+          </cell>
+          <cell r="Y8">
+            <v>16.702999999999999</v>
+          </cell>
+          <cell r="Z8">
+            <v>26.283799999999999</v>
+          </cell>
+          <cell r="AA8">
+            <v>29.791</v>
+          </cell>
+          <cell r="AB8">
+            <v>24.027999999999999</v>
+          </cell>
+          <cell r="AC8">
+            <v>24.8552</v>
+          </cell>
+          <cell r="AD8">
+            <v>38.608800000000002</v>
+          </cell>
+          <cell r="AE8">
+            <v>37.748399999999997</v>
+          </cell>
+          <cell r="AF8">
+            <v>21.311800000000002</v>
+          </cell>
+          <cell r="AH8">
+            <v>22.495479999999958</v>
+          </cell>
+          <cell r="AJ8" t="str">
+            <v>SU001721</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v xml:space="preserve"> 030  Сосиски Вязанка Молочные, Вязанка вискофан МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C9">
+            <v>164</v>
+          </cell>
+          <cell r="D9">
+            <v>240</v>
+          </cell>
+          <cell r="E9">
+            <v>239</v>
+          </cell>
+          <cell r="F9">
+            <v>147</v>
+          </cell>
+          <cell r="G9">
+            <v>0.45</v>
+          </cell>
+          <cell r="H9">
+            <v>45</v>
+          </cell>
+          <cell r="I9" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K9">
+            <v>240</v>
+          </cell>
+          <cell r="L9">
+            <v>-1</v>
+          </cell>
+          <cell r="P9">
+            <v>212.42</v>
+          </cell>
+          <cell r="Q9">
+            <v>47.8</v>
+          </cell>
+          <cell r="R9">
+            <v>166.38</v>
+          </cell>
+          <cell r="U9">
+            <v>11</v>
+          </cell>
+          <cell r="V9">
+            <v>7.5192468619246862</v>
+          </cell>
+          <cell r="W9">
+            <v>55.4</v>
+          </cell>
+          <cell r="X9">
+            <v>32</v>
+          </cell>
+          <cell r="Y9">
+            <v>25.6</v>
+          </cell>
+          <cell r="Z9">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="AA9">
+            <v>36.4</v>
+          </cell>
+          <cell r="AB9">
+            <v>45.8</v>
+          </cell>
+          <cell r="AC9">
+            <v>42.6</v>
+          </cell>
+          <cell r="AD9">
+            <v>41.8</v>
+          </cell>
+          <cell r="AE9">
+            <v>40.6</v>
+          </cell>
+          <cell r="AF9">
+            <v>45.4</v>
+          </cell>
+          <cell r="AG9" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH9">
+            <v>74.870999999999995</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v xml:space="preserve"> 032  Сосиски Вязанка Сливочные, Вязанка амицел МГС, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C10">
+            <v>173</v>
+          </cell>
+          <cell r="D10">
+            <v>198</v>
+          </cell>
+          <cell r="E10">
+            <v>270</v>
+          </cell>
+          <cell r="F10">
+            <v>85</v>
+          </cell>
+          <cell r="G10">
+            <v>0.45</v>
+          </cell>
+          <cell r="H10">
+            <v>45</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K10">
+            <v>276</v>
+          </cell>
+          <cell r="L10">
+            <v>-6</v>
+          </cell>
+          <cell r="O10">
+            <v>191.66</v>
+          </cell>
+          <cell r="P10">
+            <v>144.62000000000009</v>
+          </cell>
+          <cell r="Q10">
+            <v>54</v>
+          </cell>
+          <cell r="R10">
+            <v>10.719999999999885</v>
+          </cell>
+          <cell r="U10">
+            <v>8</v>
+          </cell>
+          <cell r="V10">
+            <v>7.801481481481483</v>
+          </cell>
+          <cell r="W10">
+            <v>57.4</v>
+          </cell>
+          <cell r="X10">
+            <v>49.4</v>
+          </cell>
+          <cell r="Y10">
+            <v>44.2</v>
+          </cell>
+          <cell r="Z10">
+            <v>51.6</v>
+          </cell>
+          <cell r="AA10">
+            <v>47</v>
+          </cell>
+          <cell r="AB10">
+            <v>45.8</v>
+          </cell>
+          <cell r="AC10">
+            <v>44.8</v>
+          </cell>
+          <cell r="AD10">
+            <v>46.2</v>
+          </cell>
+          <cell r="AE10">
+            <v>40.6</v>
+          </cell>
+          <cell r="AF10">
+            <v>34.6</v>
+          </cell>
+          <cell r="AG10" t="str">
+            <v>ТМА июль</v>
+          </cell>
+          <cell r="AH10">
+            <v>4.8239999999999483</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v xml:space="preserve"> 047  Кол Баварская, белков.обол. в термоусад. пакете 0.17 кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
+          <cell r="H11">
+            <v>180</v>
+          </cell>
+          <cell r="I11" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L11">
+            <v>0</v>
+          </cell>
+          <cell r="P11">
+            <v>0</v>
+          </cell>
+          <cell r="Q11">
+            <v>0</v>
+          </cell>
+          <cell r="U11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V11" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0</v>
+          </cell>
+          <cell r="Y11">
+            <v>0</v>
+          </cell>
+          <cell r="Z11">
+            <v>0</v>
+          </cell>
+          <cell r="AA11">
+            <v>0</v>
+          </cell>
+          <cell r="AB11">
+            <v>0</v>
+          </cell>
+          <cell r="AC11">
+            <v>0</v>
+          </cell>
+          <cell r="AD11">
+            <v>0</v>
+          </cell>
+          <cell r="AE11">
+            <v>0</v>
+          </cell>
+          <cell r="AF11">
+            <v>0</v>
+          </cell>
+          <cell r="AG11" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v xml:space="preserve"> 062  Колбаса Кракушка пряная с сальцем, 0.3кг в/у п/к, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C12">
+            <v>19</v>
+          </cell>
+          <cell r="E12">
+            <v>13</v>
+          </cell>
+          <cell r="G12">
+            <v>0.3</v>
+          </cell>
+          <cell r="H12">
+            <v>40</v>
+          </cell>
+          <cell r="I12" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K12">
+            <v>13</v>
+          </cell>
+          <cell r="L12">
+            <v>0</v>
+          </cell>
+          <cell r="O12">
+            <v>20.399999999999999</v>
+          </cell>
+          <cell r="P12">
+            <v>15.6</v>
+          </cell>
+          <cell r="Q12">
+            <v>2.6</v>
+          </cell>
+          <cell r="U12">
+            <v>13.846153846153845</v>
+          </cell>
+          <cell r="V12">
+            <v>13.846153846153845</v>
+          </cell>
+          <cell r="W12">
+            <v>4.2</v>
+          </cell>
+          <cell r="X12">
+            <v>3.4</v>
+          </cell>
+          <cell r="Y12">
+            <v>0.8</v>
+          </cell>
+          <cell r="Z12">
+            <v>1</v>
+          </cell>
+          <cell r="AA12">
+            <v>1.8</v>
+          </cell>
+          <cell r="AB12">
+            <v>3.2</v>
+          </cell>
+          <cell r="AC12">
+            <v>3</v>
+          </cell>
+          <cell r="AD12">
+            <v>0.6</v>
+          </cell>
+          <cell r="AE12">
+            <v>1.6</v>
+          </cell>
+          <cell r="AF12">
+            <v>1.6</v>
+          </cell>
+          <cell r="AH12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v xml:space="preserve"> 083  Колбаса Швейцарская 0,17 кг., ШТ., сырокопченая   ПОКОМ</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C13">
+            <v>46</v>
+          </cell>
+          <cell r="E13">
+            <v>35</v>
+          </cell>
+          <cell r="F13">
+            <v>11</v>
+          </cell>
+          <cell r="G13">
+            <v>0.17</v>
+          </cell>
+          <cell r="H13">
+            <v>180</v>
+          </cell>
+          <cell r="I13" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K13">
+            <v>35</v>
+          </cell>
+          <cell r="L13">
+            <v>0</v>
+          </cell>
+          <cell r="P13">
+            <v>52.599999999999987</v>
+          </cell>
+          <cell r="Q13">
+            <v>7</v>
+          </cell>
+          <cell r="R13">
+            <v>13.400000000000013</v>
+          </cell>
+          <cell r="U13">
+            <v>11</v>
+          </cell>
+          <cell r="V13">
+            <v>9.0857142857142836</v>
+          </cell>
+          <cell r="W13">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="X13">
+            <v>3.8</v>
+          </cell>
+          <cell r="Y13">
+            <v>5.2</v>
+          </cell>
+          <cell r="Z13">
+            <v>4.8</v>
+          </cell>
+          <cell r="AA13">
+            <v>5.2</v>
+          </cell>
+          <cell r="AB13">
+            <v>6.2</v>
+          </cell>
+          <cell r="AC13">
+            <v>6.4</v>
+          </cell>
+          <cell r="AD13">
+            <v>4</v>
+          </cell>
+          <cell r="AE13">
+            <v>1.8</v>
+          </cell>
+          <cell r="AF13">
+            <v>7.2</v>
+          </cell>
+          <cell r="AH13">
+            <v>2.2780000000000022</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v xml:space="preserve"> 117  Колбаса Сервелат Филейбургский с ароматными пряностями, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
+          <cell r="H14">
+            <v>50</v>
+          </cell>
+          <cell r="I14" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L14">
+            <v>0</v>
+          </cell>
+          <cell r="P14">
+            <v>0</v>
+          </cell>
+          <cell r="Q14">
+            <v>0</v>
+          </cell>
+          <cell r="U14" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V14" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W14">
+            <v>0</v>
+          </cell>
+          <cell r="X14">
+            <v>0</v>
+          </cell>
+          <cell r="Y14">
+            <v>0</v>
+          </cell>
+          <cell r="Z14">
+            <v>0</v>
+          </cell>
+          <cell r="AA14">
+            <v>0</v>
+          </cell>
+          <cell r="AB14">
+            <v>0</v>
+          </cell>
+          <cell r="AC14">
+            <v>0</v>
+          </cell>
+          <cell r="AD14">
+            <v>0</v>
+          </cell>
+          <cell r="AE14">
+            <v>0</v>
+          </cell>
+          <cell r="AF14">
+            <v>0</v>
+          </cell>
+          <cell r="AG14" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v xml:space="preserve"> 118  Колбаса Сервелат Филейбургский с филе сочного окорока, в/у 0,35 кг срез, БАВАРУШКА ПОКОМ</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C15">
+            <v>50</v>
+          </cell>
+          <cell r="D15">
+            <v>30</v>
+          </cell>
+          <cell r="E15">
+            <v>43</v>
+          </cell>
+          <cell r="F15">
+            <v>35</v>
+          </cell>
+          <cell r="G15">
+            <v>0.35</v>
+          </cell>
+          <cell r="H15">
+            <v>50</v>
+          </cell>
+          <cell r="I15" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K15">
+            <v>45</v>
+          </cell>
+          <cell r="L15">
+            <v>-2</v>
+          </cell>
+          <cell r="P15">
+            <v>53</v>
+          </cell>
+          <cell r="Q15">
+            <v>8.6</v>
+          </cell>
+          <cell r="R15">
+            <v>6.5999999999999943</v>
+          </cell>
+          <cell r="U15">
+            <v>11</v>
+          </cell>
+          <cell r="V15">
+            <v>10.232558139534884</v>
+          </cell>
+          <cell r="W15">
+            <v>8.4</v>
+          </cell>
+          <cell r="X15">
+            <v>4.5999999999999996</v>
+          </cell>
+          <cell r="Y15">
+            <v>7.8</v>
+          </cell>
+          <cell r="Z15">
+            <v>5.2</v>
+          </cell>
+          <cell r="AA15">
+            <v>0.6</v>
+          </cell>
+          <cell r="AB15">
+            <v>6.4</v>
+          </cell>
+          <cell r="AC15">
+            <v>6</v>
+          </cell>
+          <cell r="AD15">
+            <v>11.8</v>
+          </cell>
+          <cell r="AE15">
+            <v>13.8</v>
+          </cell>
+          <cell r="AF15">
+            <v>13.2</v>
+          </cell>
+          <cell r="AH15">
+            <v>2.3099999999999978</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v xml:space="preserve"> 200  Ветчина Дугушка ТМ Стародворье, вектор в/у    ПОКОМ</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C16">
+            <v>229.50200000000001</v>
+          </cell>
+          <cell r="D16">
+            <v>53.061</v>
+          </cell>
+          <cell r="E16">
+            <v>159.495</v>
+          </cell>
+          <cell r="F16">
+            <v>114.23699999999999</v>
+          </cell>
+          <cell r="G16">
+            <v>1</v>
+          </cell>
+          <cell r="H16">
+            <v>55</v>
+          </cell>
+          <cell r="I16" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K16">
+            <v>156.29</v>
+          </cell>
+          <cell r="L16">
+            <v>3.2050000000000125</v>
+          </cell>
+          <cell r="P16">
+            <v>181.03469999999999</v>
+          </cell>
+          <cell r="Q16">
+            <v>31.899000000000001</v>
+          </cell>
+          <cell r="R16">
+            <v>87.51630000000003</v>
+          </cell>
+          <cell r="U16">
+            <v>12</v>
+          </cell>
+          <cell r="V16">
+            <v>9.2564563152449928</v>
+          </cell>
+          <cell r="W16">
+            <v>29.998999999999999</v>
+          </cell>
+          <cell r="X16">
+            <v>21.8124</v>
+          </cell>
+          <cell r="Y16">
+            <v>20.913</v>
+          </cell>
+          <cell r="Z16">
+            <v>20.4116</v>
+          </cell>
+          <cell r="AA16">
+            <v>20.3856</v>
+          </cell>
+          <cell r="AB16">
+            <v>29.699200000000001</v>
+          </cell>
+          <cell r="AC16">
+            <v>30.230000000000011</v>
+          </cell>
+          <cell r="AD16">
+            <v>32.667399999999986</v>
+          </cell>
+          <cell r="AE16">
+            <v>34.602400000000003</v>
+          </cell>
+          <cell r="AF16">
+            <v>30.367999999999999</v>
+          </cell>
+          <cell r="AG16" t="str">
+            <v>Мера / ТМА август</v>
+          </cell>
+          <cell r="AH16">
+            <v>87.51630000000003</v>
+          </cell>
+          <cell r="AJ16" t="str">
+            <v>SU002035</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v xml:space="preserve"> 201  Ветчина Нежная ТМ Особый рецепт, (2,5кг), ПОКОМ</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C17">
+            <v>801.33799999999997</v>
+          </cell>
+          <cell r="D17">
+            <v>809.54</v>
+          </cell>
+          <cell r="E17">
+            <v>495.91699999999997</v>
+          </cell>
+          <cell r="F17">
+            <v>1018.751</v>
+          </cell>
+          <cell r="G17">
+            <v>1</v>
+          </cell>
+          <cell r="H17">
+            <v>50</v>
+          </cell>
+          <cell r="I17" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K17">
+            <v>492</v>
+          </cell>
+          <cell r="L17">
+            <v>3.9169999999999732</v>
+          </cell>
+          <cell r="P17">
+            <v>-7.4351199999999551</v>
+          </cell>
+          <cell r="Q17">
+            <v>99.183399999999992</v>
+          </cell>
+          <cell r="R17">
+            <v>178.88491999999974</v>
+          </cell>
+          <cell r="U17">
+            <v>11.999999999999996</v>
+          </cell>
+          <cell r="V17">
+            <v>10.196422788490818</v>
+          </cell>
+          <cell r="W17">
+            <v>109.0796</v>
+          </cell>
+          <cell r="X17">
+            <v>109.21380000000001</v>
+          </cell>
+          <cell r="Y17">
+            <v>111.58280000000001</v>
+          </cell>
+          <cell r="Z17">
+            <v>128.06779999999989</v>
+          </cell>
+          <cell r="AA17">
+            <v>129.94739999999999</v>
+          </cell>
+          <cell r="AB17">
+            <v>111.22799999999999</v>
+          </cell>
+          <cell r="AC17">
+            <v>113.0364</v>
+          </cell>
+          <cell r="AD17">
+            <v>129.69900000000001</v>
+          </cell>
+          <cell r="AE17">
+            <v>138.24199999999999</v>
+          </cell>
+          <cell r="AF17">
+            <v>111.95059999999999</v>
+          </cell>
+          <cell r="AG17" t="str">
+            <v>ТМА июль_август</v>
+          </cell>
+          <cell r="AH17">
+            <v>178.88491999999974</v>
+          </cell>
+          <cell r="AJ17" t="str">
+            <v>SU000126</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v xml:space="preserve"> 215  Колбаса Докторская ГОСТ Дугушка, ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C18">
+            <v>50.475000000000001</v>
+          </cell>
+          <cell r="D18">
+            <v>79.350999999999999</v>
+          </cell>
+          <cell r="E18">
+            <v>71.403000000000006</v>
+          </cell>
+          <cell r="F18">
+            <v>44.328000000000003</v>
+          </cell>
+          <cell r="G18">
+            <v>1</v>
+          </cell>
+          <cell r="H18">
+            <v>60</v>
+          </cell>
+          <cell r="I18" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K18">
+            <v>88.24</v>
+          </cell>
+          <cell r="L18">
+            <v>-16.836999999999989</v>
+          </cell>
+          <cell r="O18">
+            <v>94.614799999999988</v>
+          </cell>
+          <cell r="P18">
+            <v>52.495740000000048</v>
+          </cell>
+          <cell r="Q18">
+            <v>14.280600000000002</v>
+          </cell>
+          <cell r="U18">
+            <v>13.405496967914512</v>
+          </cell>
+          <cell r="V18">
+            <v>13.405496967914512</v>
+          </cell>
+          <cell r="W18">
+            <v>22.035799999999998</v>
+          </cell>
+          <cell r="X18">
+            <v>19.5518</v>
+          </cell>
+          <cell r="Y18">
+            <v>14.7828</v>
+          </cell>
+          <cell r="Z18">
+            <v>14.3574</v>
+          </cell>
+          <cell r="AA18">
+            <v>15.052199999999999</v>
+          </cell>
+          <cell r="AB18">
+            <v>18.238800000000001</v>
+          </cell>
+          <cell r="AC18">
+            <v>21.3782</v>
+          </cell>
+          <cell r="AD18">
+            <v>25.993600000000001</v>
+          </cell>
+          <cell r="AE18">
+            <v>24.964200000000002</v>
+          </cell>
+          <cell r="AF18">
+            <v>20.905000000000001</v>
+          </cell>
+          <cell r="AH18">
+            <v>0</v>
+          </cell>
+          <cell r="AJ18" t="str">
+            <v>SU002011</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v xml:space="preserve"> 219  Колбаса Докторская Особая ТМ Особый рецепт, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C19">
+            <v>45.677999999999997</v>
+          </cell>
+          <cell r="D19">
+            <v>673.60799999999995</v>
+          </cell>
+          <cell r="E19">
+            <v>247.15600000000001</v>
+          </cell>
+          <cell r="F19">
+            <v>379.24</v>
+          </cell>
+          <cell r="G19">
+            <v>1</v>
+          </cell>
+          <cell r="H19">
+            <v>60</v>
+          </cell>
+          <cell r="I19" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K19">
+            <v>314.44</v>
+          </cell>
+          <cell r="L19">
+            <v>-67.283999999999992</v>
+          </cell>
+          <cell r="O19">
+            <v>91.643400000000099</v>
+          </cell>
+          <cell r="P19">
+            <v>0</v>
+          </cell>
+          <cell r="Q19">
+            <v>49.431200000000004</v>
+          </cell>
+          <cell r="R19">
+            <v>122.291</v>
+          </cell>
+          <cell r="U19">
+            <v>12.000000000000002</v>
+          </cell>
+          <cell r="V19">
+            <v>9.5260361876709467</v>
+          </cell>
+          <cell r="W19">
+            <v>44.557600000000001</v>
+          </cell>
+          <cell r="X19">
+            <v>69.1768</v>
+          </cell>
+          <cell r="Y19">
+            <v>74.392600000000002</v>
+          </cell>
+          <cell r="Z19">
+            <v>70.506399999999999</v>
+          </cell>
+          <cell r="AA19">
+            <v>69.315799999999996</v>
+          </cell>
+          <cell r="AB19">
+            <v>73.740800000000007</v>
+          </cell>
+          <cell r="AC19">
+            <v>81.623400000000004</v>
+          </cell>
+          <cell r="AD19">
+            <v>99.554000000000002</v>
+          </cell>
+          <cell r="AE19">
+            <v>109.1392</v>
+          </cell>
+          <cell r="AF19">
+            <v>89.957599999999999</v>
+          </cell>
+          <cell r="AG19" t="str">
+            <v>ТМА август</v>
+          </cell>
+          <cell r="AH19">
+            <v>122.291</v>
+          </cell>
+          <cell r="AJ19" t="str">
+            <v>SU000251</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v xml:space="preserve"> 225  Колбаса Дугушка со шпиком, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G20">
+            <v>0</v>
+          </cell>
+          <cell r="H20">
+            <v>60</v>
+          </cell>
+          <cell r="I20" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L20">
+            <v>0</v>
+          </cell>
+          <cell r="P20">
+            <v>0</v>
+          </cell>
+          <cell r="Q20">
+            <v>0</v>
+          </cell>
+          <cell r="U20" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V20" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="X20">
+            <v>0</v>
+          </cell>
+          <cell r="Y20">
+            <v>0</v>
+          </cell>
+          <cell r="Z20">
+            <v>0</v>
+          </cell>
+          <cell r="AA20">
+            <v>0</v>
+          </cell>
+          <cell r="AB20">
+            <v>0</v>
+          </cell>
+          <cell r="AC20">
+            <v>0</v>
+          </cell>
+          <cell r="AD20">
+            <v>0</v>
+          </cell>
+          <cell r="AE20">
+            <v>0</v>
+          </cell>
+          <cell r="AF20">
+            <v>0</v>
+          </cell>
+          <cell r="AG20" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v xml:space="preserve"> 229  Колбаса Молочная Дугушка, в/у, ВЕС, ТМ Стародворье   ПОКОМ</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C21">
+            <v>262.77999999999997</v>
+          </cell>
+          <cell r="D21">
+            <v>216.82</v>
+          </cell>
+          <cell r="E21">
+            <v>276.49799999999999</v>
+          </cell>
+          <cell r="F21">
+            <v>167.01400000000001</v>
+          </cell>
+          <cell r="G21">
+            <v>1</v>
+          </cell>
+          <cell r="H21">
+            <v>60</v>
+          </cell>
+          <cell r="I21" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K21">
+            <v>271.30599999999998</v>
+          </cell>
+          <cell r="L21">
+            <v>5.1920000000000073</v>
+          </cell>
+          <cell r="P21">
+            <v>392.10847999999999</v>
+          </cell>
+          <cell r="Q21">
+            <v>55.299599999999998</v>
+          </cell>
+          <cell r="R21">
+            <v>104.47271999999998</v>
+          </cell>
+          <cell r="U21">
+            <v>12</v>
+          </cell>
+          <cell r="V21">
+            <v>10.110787058134237</v>
+          </cell>
+          <cell r="W21">
+            <v>59.321599999999997</v>
+          </cell>
+          <cell r="X21">
+            <v>39.107999999999997</v>
+          </cell>
+          <cell r="Y21">
+            <v>39.096400000000003</v>
+          </cell>
+          <cell r="Z21">
+            <v>46.612200000000009</v>
+          </cell>
+          <cell r="AA21">
+            <v>46.113999999999997</v>
+          </cell>
+          <cell r="AB21">
+            <v>43.773000000000003</v>
+          </cell>
+          <cell r="AC21">
+            <v>43.259999999999991</v>
+          </cell>
+          <cell r="AD21">
+            <v>55.913200000000003</v>
+          </cell>
+          <cell r="AE21">
+            <v>54.487199999999987</v>
+          </cell>
+          <cell r="AF21">
+            <v>49.5886</v>
+          </cell>
+          <cell r="AG21" t="str">
+            <v>ТМА июль_август</v>
+          </cell>
+          <cell r="AH21">
+            <v>104.47271999999998</v>
+          </cell>
+          <cell r="AJ21" t="str">
+            <v>SU002010</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v xml:space="preserve"> 236  Колбаса Рубленая ЗАПЕЧ. Дугушка ТМ Стародворье, вектор, в/к    ПОКОМ</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C22">
+            <v>15.8</v>
+          </cell>
+          <cell r="D22">
+            <v>142.22999999999999</v>
+          </cell>
+          <cell r="E22">
+            <v>71.128</v>
+          </cell>
+          <cell r="F22">
+            <v>71.08</v>
+          </cell>
+          <cell r="G22">
+            <v>1</v>
+          </cell>
+          <cell r="H22">
+            <v>60</v>
+          </cell>
+          <cell r="I22" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K22">
+            <v>72.040000000000006</v>
+          </cell>
+          <cell r="L22">
+            <v>-0.91200000000000614</v>
+          </cell>
+          <cell r="O22">
+            <v>46.212000000000003</v>
+          </cell>
+          <cell r="P22">
+            <v>30.393199999999911</v>
+          </cell>
+          <cell r="Q22">
+            <v>14.2256</v>
+          </cell>
+          <cell r="U22">
+            <v>10.381649983129002</v>
+          </cell>
+          <cell r="V22">
+            <v>10.381649983129002</v>
+          </cell>
+          <cell r="W22">
+            <v>18.267600000000002</v>
+          </cell>
+          <cell r="X22">
+            <v>16.353999999999999</v>
+          </cell>
+          <cell r="Y22">
+            <v>15.6572</v>
+          </cell>
+          <cell r="Z22">
+            <v>17.2</v>
+          </cell>
+          <cell r="AA22">
+            <v>16.1172</v>
+          </cell>
+          <cell r="AB22">
+            <v>14.9016</v>
+          </cell>
+          <cell r="AC22">
+            <v>13.3484</v>
+          </cell>
+          <cell r="AD22">
+            <v>16.1968</v>
+          </cell>
+          <cell r="AE22">
+            <v>18.641200000000001</v>
+          </cell>
+          <cell r="AF22">
+            <v>16.525200000000002</v>
+          </cell>
+          <cell r="AG22" t="str">
+            <v>ТМА июль</v>
+          </cell>
+          <cell r="AH22">
+            <v>0</v>
+          </cell>
+          <cell r="AJ22" t="str">
+            <v>SU002150</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v xml:space="preserve"> 239  Колбаса Салями запеч Дугушка, оболочка вектор, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C23">
+            <v>14.141</v>
+          </cell>
+          <cell r="D23">
+            <v>58.158999999999999</v>
+          </cell>
+          <cell r="E23">
+            <v>36.914000000000001</v>
+          </cell>
+          <cell r="F23">
+            <v>31.873999999999999</v>
+          </cell>
+          <cell r="G23">
+            <v>1</v>
+          </cell>
+          <cell r="H23">
+            <v>60</v>
+          </cell>
+          <cell r="I23" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K23">
+            <v>36.22</v>
+          </cell>
+          <cell r="L23">
+            <v>0.69400000000000261</v>
+          </cell>
+          <cell r="O23">
+            <v>46.192799999999977</v>
+          </cell>
+          <cell r="P23">
+            <v>35.526800000000023</v>
+          </cell>
+          <cell r="Q23">
+            <v>7.3828000000000005</v>
+          </cell>
+          <cell r="U23">
+            <v>15.386249119575227</v>
+          </cell>
+          <cell r="V23">
+            <v>15.386249119575227</v>
+          </cell>
+          <cell r="W23">
+            <v>10.3668</v>
+          </cell>
+          <cell r="X23">
+            <v>10.1678</v>
+          </cell>
+          <cell r="Y23">
+            <v>7.7058000000000009</v>
+          </cell>
+          <cell r="Z23">
+            <v>9.0567999999999991</v>
+          </cell>
+          <cell r="AA23">
+            <v>9.7656000000000009</v>
+          </cell>
+          <cell r="AB23">
+            <v>12.9954</v>
+          </cell>
+          <cell r="AC23">
+            <v>14.214600000000001</v>
+          </cell>
+          <cell r="AD23">
+            <v>18.970400000000001</v>
+          </cell>
+          <cell r="AE23">
+            <v>21.779399999999999</v>
+          </cell>
+          <cell r="AF23">
+            <v>18.93</v>
+          </cell>
+          <cell r="AG23" t="str">
+            <v>ТМА август</v>
+          </cell>
+          <cell r="AH23">
+            <v>0</v>
+          </cell>
+          <cell r="AJ23" t="str">
+            <v>SU002158</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v xml:space="preserve"> 242  Колбаса Сервелат ЗАПЕЧ.Дугушка ТМ Стародворье, вектор, в/к     ПОКОМ</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C24">
+            <v>5.2969999999999997</v>
+          </cell>
+          <cell r="D24">
+            <v>189.792</v>
+          </cell>
+          <cell r="E24">
+            <v>78.17</v>
+          </cell>
+          <cell r="F24">
+            <v>111.63500000000001</v>
+          </cell>
+          <cell r="G24">
+            <v>1</v>
+          </cell>
+          <cell r="H24">
+            <v>60</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K24">
+            <v>86.63</v>
+          </cell>
+          <cell r="L24">
+            <v>-8.4599999999999937</v>
+          </cell>
+          <cell r="P24">
+            <v>11.326200000000011</v>
+          </cell>
+          <cell r="Q24">
+            <v>15.634</v>
+          </cell>
+          <cell r="R24">
+            <v>64.646799999999999</v>
+          </cell>
+          <cell r="U24">
+            <v>12</v>
+          </cell>
+          <cell r="V24">
+            <v>7.8649865677369846</v>
+          </cell>
+          <cell r="W24">
+            <v>12.2972</v>
+          </cell>
+          <cell r="X24">
+            <v>13.357200000000001</v>
+          </cell>
+          <cell r="Y24">
+            <v>15.9824</v>
+          </cell>
+          <cell r="Z24">
+            <v>17.909199999999998</v>
+          </cell>
+          <cell r="AA24">
+            <v>16.693200000000001</v>
+          </cell>
+          <cell r="AB24">
+            <v>13.009399999999999</v>
+          </cell>
+          <cell r="AC24">
+            <v>11.6004</v>
+          </cell>
+          <cell r="AD24">
+            <v>15.4612</v>
+          </cell>
+          <cell r="AE24">
+            <v>19.3232</v>
+          </cell>
+          <cell r="AF24">
+            <v>19.105599999999999</v>
+          </cell>
+          <cell r="AG24" t="str">
+            <v>ТМА август</v>
+          </cell>
+          <cell r="AH24">
+            <v>64.646799999999999</v>
+          </cell>
+          <cell r="AJ24" t="str">
+            <v>SU002151</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v xml:space="preserve"> 247  Сардельки Нежные, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C25">
+            <v>30.271999999999998</v>
+          </cell>
+          <cell r="D25">
+            <v>135.37200000000001</v>
+          </cell>
+          <cell r="E25">
+            <v>30.161999999999999</v>
+          </cell>
+          <cell r="F25">
+            <v>131.30199999999999</v>
+          </cell>
+          <cell r="G25">
+            <v>1</v>
+          </cell>
+          <cell r="H25">
+            <v>30</v>
+          </cell>
+          <cell r="I25" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K25">
+            <v>33.700000000000003</v>
+          </cell>
+          <cell r="L25">
+            <v>-3.5380000000000038</v>
+          </cell>
+          <cell r="P25">
+            <v>0</v>
+          </cell>
+          <cell r="Q25">
+            <v>6.0324</v>
+          </cell>
+          <cell r="U25">
+            <v>21.766129567004839</v>
+          </cell>
+          <cell r="V25">
+            <v>21.766129567004839</v>
+          </cell>
+          <cell r="W25">
+            <v>6.4712000000000014</v>
+          </cell>
+          <cell r="X25">
+            <v>3.4843999999999999</v>
+          </cell>
+          <cell r="Y25">
+            <v>4.7704000000000004</v>
+          </cell>
+          <cell r="Z25">
+            <v>15.077199999999999</v>
+          </cell>
+          <cell r="AA25">
+            <v>14.210800000000001</v>
+          </cell>
+          <cell r="AB25">
+            <v>6.4542000000000002</v>
+          </cell>
+          <cell r="AC25">
+            <v>6.7614000000000036</v>
+          </cell>
+          <cell r="AD25">
+            <v>9.257200000000001</v>
+          </cell>
+          <cell r="AE25">
+            <v>9.9041999999999994</v>
+          </cell>
+          <cell r="AF25">
+            <v>11.377800000000001</v>
+          </cell>
+          <cell r="AH25">
+            <v>0</v>
+          </cell>
+          <cell r="AJ25" t="str">
+            <v>SU001051</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v xml:space="preserve"> 248  Сардельки Сочные ТМ Особый рецепт,   ПОКОМ</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C26">
+            <v>171.03399999999999</v>
+          </cell>
+          <cell r="D26">
+            <v>51.451999999999998</v>
+          </cell>
+          <cell r="E26">
+            <v>128.88999999999999</v>
+          </cell>
+          <cell r="F26">
+            <v>48.701000000000001</v>
+          </cell>
+          <cell r="G26">
+            <v>1</v>
+          </cell>
+          <cell r="H26">
+            <v>30</v>
+          </cell>
+          <cell r="I26" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K26">
+            <v>139.4</v>
+          </cell>
+          <cell r="L26">
+            <v>-10.510000000000019</v>
+          </cell>
+          <cell r="O26">
+            <v>71.62700000000001</v>
+          </cell>
+          <cell r="P26">
+            <v>39.536299999999997</v>
+          </cell>
+          <cell r="Q26">
+            <v>25.777999999999999</v>
+          </cell>
+          <cell r="R26">
+            <v>123.69370000000001</v>
+          </cell>
+          <cell r="U26">
+            <v>11</v>
+          </cell>
+          <cell r="V26">
+            <v>6.2015788656994344</v>
+          </cell>
+          <cell r="W26">
+            <v>27.341000000000001</v>
+          </cell>
+          <cell r="X26">
+            <v>29.885000000000002</v>
+          </cell>
+          <cell r="Y26">
+            <v>27.337</v>
+          </cell>
+          <cell r="Z26">
+            <v>20.973799999999979</v>
+          </cell>
+          <cell r="AA26">
+            <v>16.079799999999999</v>
+          </cell>
+          <cell r="AB26">
+            <v>22.974599999999999</v>
+          </cell>
+          <cell r="AC26">
+            <v>33.344799999999999</v>
+          </cell>
+          <cell r="AD26">
+            <v>45.47359999999999</v>
+          </cell>
+          <cell r="AE26">
+            <v>36.913799999999988</v>
+          </cell>
+          <cell r="AF26">
+            <v>15.2948</v>
+          </cell>
+          <cell r="AH26">
+            <v>123.69370000000001</v>
+          </cell>
+          <cell r="AJ26" t="str">
+            <v>SU002287</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v xml:space="preserve"> 250  Сардельки стародворские с говядиной в обол. NDX, ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C27">
+            <v>9.6340000000000003</v>
+          </cell>
+          <cell r="D27">
+            <v>159.84700000000001</v>
+          </cell>
+          <cell r="E27">
+            <v>41.284999999999997</v>
+          </cell>
+          <cell r="F27">
+            <v>112.755</v>
+          </cell>
+          <cell r="G27">
+            <v>1</v>
+          </cell>
+          <cell r="H27">
+            <v>30</v>
+          </cell>
+          <cell r="I27" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K27">
+            <v>46.9</v>
+          </cell>
+          <cell r="L27">
+            <v>-5.615000000000002</v>
+          </cell>
+          <cell r="P27">
+            <v>0</v>
+          </cell>
+          <cell r="Q27">
+            <v>8.2569999999999997</v>
+          </cell>
+          <cell r="U27">
+            <v>13.655686084534334</v>
+          </cell>
+          <cell r="V27">
+            <v>13.655686084534334</v>
+          </cell>
+          <cell r="W27">
+            <v>8.1365999999999996</v>
+          </cell>
+          <cell r="X27">
+            <v>6.1387999999999998</v>
+          </cell>
+          <cell r="Y27">
+            <v>6.8683999999999994</v>
+          </cell>
+          <cell r="Z27">
+            <v>18.5868</v>
+          </cell>
+          <cell r="AA27">
+            <v>18.1996</v>
+          </cell>
+          <cell r="AB27">
+            <v>11.102</v>
+          </cell>
+          <cell r="AC27">
+            <v>12.8118</v>
+          </cell>
+          <cell r="AD27">
+            <v>16.2744</v>
+          </cell>
+          <cell r="AE27">
+            <v>16.4542</v>
+          </cell>
+          <cell r="AF27">
+            <v>12.7148</v>
+          </cell>
+          <cell r="AG27" t="str">
+            <v>ТМА август</v>
+          </cell>
+          <cell r="AH27">
+            <v>0</v>
+          </cell>
+          <cell r="AJ27" t="str">
+            <v>SU000227</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v xml:space="preserve"> 251  Сосиски Баварские, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G28">
+            <v>0</v>
+          </cell>
+          <cell r="H28">
+            <v>45</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L28">
+            <v>0</v>
+          </cell>
+          <cell r="P28">
+            <v>0</v>
+          </cell>
+          <cell r="Q28">
+            <v>0</v>
+          </cell>
+          <cell r="U28" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V28" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0</v>
+          </cell>
+          <cell r="Y28">
+            <v>0</v>
+          </cell>
+          <cell r="Z28">
+            <v>0</v>
+          </cell>
+          <cell r="AA28">
+            <v>0</v>
+          </cell>
+          <cell r="AB28">
+            <v>0</v>
+          </cell>
+          <cell r="AC28">
+            <v>0</v>
+          </cell>
+          <cell r="AD28">
+            <v>0</v>
+          </cell>
+          <cell r="AE28">
+            <v>0</v>
+          </cell>
+          <cell r="AF28">
+            <v>0</v>
+          </cell>
+          <cell r="AG28" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v xml:space="preserve"> 257  Сосиски Молочные оригинальные ТМ Особый рецепт, ВЕС.   ПОКОМ</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C29">
+            <v>57.35</v>
+          </cell>
+          <cell r="D29">
+            <v>105.47499999999999</v>
+          </cell>
+          <cell r="E29">
+            <v>36.396999999999998</v>
+          </cell>
+          <cell r="F29">
+            <v>111.509</v>
+          </cell>
+          <cell r="G29">
+            <v>1</v>
+          </cell>
+          <cell r="H29">
+            <v>40</v>
+          </cell>
+          <cell r="I29" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K29">
+            <v>42.3</v>
+          </cell>
+          <cell r="L29">
+            <v>-5.9029999999999987</v>
+          </cell>
+          <cell r="P29">
+            <v>0</v>
+          </cell>
+          <cell r="Q29">
+            <v>7.2793999999999999</v>
+          </cell>
+          <cell r="U29">
+            <v>15.318432837871253</v>
+          </cell>
+          <cell r="V29">
+            <v>15.318432837871253</v>
+          </cell>
+          <cell r="W29">
+            <v>9.6072000000000006</v>
+          </cell>
+          <cell r="X29">
+            <v>9.8331999999999997</v>
+          </cell>
+          <cell r="Y29">
+            <v>9.7653999999999996</v>
+          </cell>
+          <cell r="Z29">
+            <v>18.240200000000002</v>
+          </cell>
+          <cell r="AA29">
+            <v>15.6774</v>
+          </cell>
+          <cell r="AB29">
+            <v>8.7114000000000011</v>
+          </cell>
+          <cell r="AC29">
+            <v>10.412800000000001</v>
+          </cell>
+          <cell r="AD29">
+            <v>13.6684</v>
+          </cell>
+          <cell r="AE29">
+            <v>14.8604</v>
+          </cell>
+          <cell r="AF29">
+            <v>26.568000000000001</v>
+          </cell>
+          <cell r="AH29">
+            <v>0</v>
+          </cell>
+          <cell r="AJ29" t="str">
+            <v>SU000246</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v xml:space="preserve"> 263  Шпикачки Стародворские, ВЕС.  ПОКОМ</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C30">
+            <v>30.978000000000002</v>
+          </cell>
+          <cell r="E30">
+            <v>6.3689999999999998</v>
+          </cell>
+          <cell r="F30">
+            <v>14.97</v>
+          </cell>
+          <cell r="G30">
+            <v>1</v>
+          </cell>
+          <cell r="H30">
+            <v>30</v>
+          </cell>
+          <cell r="I30" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K30">
+            <v>14</v>
+          </cell>
+          <cell r="L30">
+            <v>-7.6310000000000002</v>
+          </cell>
+          <cell r="O30">
+            <v>4</v>
+          </cell>
+          <cell r="P30">
+            <v>0</v>
+          </cell>
+          <cell r="Q30">
+            <v>1.2738</v>
+          </cell>
+          <cell r="U30">
+            <v>14.892447794002196</v>
+          </cell>
+          <cell r="V30">
+            <v>14.892447794002196</v>
+          </cell>
+          <cell r="W30">
+            <v>1.8822000000000001</v>
+          </cell>
+          <cell r="X30">
+            <v>2.9436</v>
+          </cell>
+          <cell r="Y30">
+            <v>2.3704000000000001</v>
+          </cell>
+          <cell r="Z30">
+            <v>3.9581999999999988</v>
+          </cell>
+          <cell r="AA30">
+            <v>3.9465999999999992</v>
+          </cell>
+          <cell r="AB30">
+            <v>2.145</v>
+          </cell>
+          <cell r="AC30">
+            <v>3.3561999999999999</v>
+          </cell>
+          <cell r="AD30">
+            <v>3.3881999999999999</v>
+          </cell>
+          <cell r="AE30">
+            <v>4.9526000000000003</v>
+          </cell>
+          <cell r="AF30">
+            <v>6.7048000000000014</v>
+          </cell>
+          <cell r="AH30">
+            <v>0</v>
+          </cell>
+          <cell r="AJ30" t="str">
+            <v>SU001430</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v xml:space="preserve"> 265  Колбаса Балыкбургская, ВЕС, ТМ Баварушка  ПОКОМ</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C31">
+            <v>45.66</v>
+          </cell>
+          <cell r="D31">
+            <v>43.244999999999997</v>
+          </cell>
+          <cell r="E31">
+            <v>51.460999999999999</v>
+          </cell>
+          <cell r="F31">
+            <v>18.501000000000001</v>
+          </cell>
+          <cell r="G31">
+            <v>1</v>
+          </cell>
+          <cell r="H31">
+            <v>50</v>
+          </cell>
+          <cell r="I31" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K31">
+            <v>58.1</v>
+          </cell>
+          <cell r="L31">
+            <v>-6.6390000000000029</v>
+          </cell>
+          <cell r="O31">
+            <v>32.220799999999983</v>
+          </cell>
+          <cell r="P31">
+            <v>56.268399999999993</v>
+          </cell>
+          <cell r="Q31">
+            <v>10.292199999999999</v>
+          </cell>
+          <cell r="R31">
+            <v>6.2240000000000144</v>
+          </cell>
+          <cell r="U31">
+            <v>11.000000000000002</v>
+          </cell>
+          <cell r="V31">
+            <v>10.395270204620974</v>
+          </cell>
+          <cell r="W31">
+            <v>11.0288</v>
+          </cell>
+          <cell r="X31">
+            <v>8.9068000000000005</v>
+          </cell>
+          <cell r="Y31">
+            <v>8.2116000000000007</v>
+          </cell>
+          <cell r="Z31">
+            <v>8.7286000000000001</v>
+          </cell>
+          <cell r="AA31">
+            <v>10.302</v>
+          </cell>
+          <cell r="AB31">
+            <v>11.287800000000001</v>
+          </cell>
+          <cell r="AC31">
+            <v>11.455399999999999</v>
+          </cell>
+          <cell r="AD31">
+            <v>15.814399999999999</v>
+          </cell>
+          <cell r="AE31">
+            <v>15.278600000000001</v>
+          </cell>
+          <cell r="AF31">
+            <v>14.948</v>
+          </cell>
+          <cell r="AH31">
+            <v>6.2240000000000144</v>
+          </cell>
+          <cell r="AJ31" t="str">
+            <v>SU002612</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v xml:space="preserve"> 267  Колбаса Салями Филейбургская зернистая, оболочка фиброуз, ВЕС, ТМ Баварушка  ПОКОМ</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C32">
+            <v>42.643000000000001</v>
+          </cell>
+          <cell r="D32">
+            <v>16.829000000000001</v>
+          </cell>
+          <cell r="E32">
+            <v>42.901000000000003</v>
+          </cell>
+          <cell r="F32">
+            <v>13.763</v>
+          </cell>
+          <cell r="G32">
+            <v>1</v>
+          </cell>
+          <cell r="H32">
+            <v>50</v>
+          </cell>
+          <cell r="I32" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K32">
+            <v>41</v>
+          </cell>
+          <cell r="L32">
+            <v>1.9010000000000034</v>
+          </cell>
+          <cell r="O32">
+            <v>4.9221999999999966</v>
+          </cell>
+          <cell r="P32">
+            <v>55.311399999999999</v>
+          </cell>
+          <cell r="Q32">
+            <v>8.5802000000000014</v>
+          </cell>
+          <cell r="R32">
+            <v>20.385600000000018</v>
+          </cell>
+          <cell r="U32">
+            <v>11</v>
+          </cell>
+          <cell r="V32">
+            <v>8.6241113260763136</v>
+          </cell>
+          <cell r="W32">
+            <v>8.5804000000000009</v>
+          </cell>
+          <cell r="X32">
+            <v>4.8761999999999999</v>
+          </cell>
+          <cell r="Y32">
+            <v>5.9871999999999996</v>
+          </cell>
+          <cell r="Z32">
+            <v>6.1425999999999998</v>
+          </cell>
+          <cell r="AA32">
+            <v>7.0683999999999996</v>
+          </cell>
+          <cell r="AB32">
+            <v>8.9075999999999986</v>
+          </cell>
+          <cell r="AC32">
+            <v>7.4406000000000008</v>
+          </cell>
+          <cell r="AD32">
+            <v>7.6475999999999997</v>
+          </cell>
+          <cell r="AE32">
+            <v>9.4608000000000008</v>
+          </cell>
+          <cell r="AF32">
+            <v>9.8507999999999996</v>
+          </cell>
+          <cell r="AH32">
+            <v>20.385600000000018</v>
+          </cell>
+          <cell r="AJ32" t="str">
+            <v>SU002614</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v xml:space="preserve"> 273  Сосиски Сочинки с сочной грудинкой, МГС 0.4кг,   ПОКОМ</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C33">
+            <v>126</v>
+          </cell>
+          <cell r="D33">
+            <v>414</v>
+          </cell>
+          <cell r="E33">
+            <v>389</v>
+          </cell>
+          <cell r="F33">
+            <v>114</v>
+          </cell>
+          <cell r="G33">
+            <v>0.4</v>
+          </cell>
+          <cell r="H33">
+            <v>45</v>
+          </cell>
+          <cell r="I33" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K33">
+            <v>401</v>
+          </cell>
+          <cell r="L33">
+            <v>-12</v>
+          </cell>
+          <cell r="O33">
+            <v>200.95999999999989</v>
+          </cell>
+          <cell r="P33">
+            <v>382.4000000000002</v>
+          </cell>
+          <cell r="Q33">
+            <v>77.8</v>
+          </cell>
+          <cell r="R33">
+            <v>158.43999999999983</v>
+          </cell>
+          <cell r="U33">
+            <v>11</v>
+          </cell>
+          <cell r="V33">
+            <v>8.9634961439588707</v>
+          </cell>
+          <cell r="W33">
+            <v>82</v>
+          </cell>
+          <cell r="X33">
+            <v>64.599999999999994</v>
+          </cell>
+          <cell r="Y33">
+            <v>61.2</v>
+          </cell>
+          <cell r="Z33">
+            <v>69.400000000000006</v>
+          </cell>
+          <cell r="AA33">
+            <v>68.400000000000006</v>
+          </cell>
+          <cell r="AB33">
+            <v>66.2</v>
+          </cell>
+          <cell r="AC33">
+            <v>70.400000000000006</v>
+          </cell>
+          <cell r="AD33">
+            <v>80.2</v>
+          </cell>
+          <cell r="AE33">
+            <v>76.8</v>
+          </cell>
+          <cell r="AF33">
+            <v>58.2</v>
+          </cell>
+          <cell r="AG33" t="str">
+            <v>ТМА май / Мера</v>
+          </cell>
+          <cell r="AH33">
+            <v>63.375999999999934</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v xml:space="preserve"> 276  Колбаса Сливушка ТМ Вязанка в оболочке полиамид 0,45 кг  ПОКОМ</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C34">
+            <v>144</v>
+          </cell>
+          <cell r="D34">
+            <v>340</v>
+          </cell>
+          <cell r="E34">
+            <v>243</v>
+          </cell>
+          <cell r="F34">
+            <v>224</v>
+          </cell>
+          <cell r="G34">
+            <v>0.45</v>
+          </cell>
+          <cell r="H34">
+            <v>50</v>
+          </cell>
+          <cell r="I34" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K34">
+            <v>246</v>
+          </cell>
+          <cell r="L34">
+            <v>-3</v>
+          </cell>
+          <cell r="P34">
+            <v>184.14</v>
+          </cell>
+          <cell r="Q34">
+            <v>48.6</v>
+          </cell>
+          <cell r="R34">
+            <v>126.46000000000004</v>
+          </cell>
+          <cell r="U34">
+            <v>11</v>
+          </cell>
+          <cell r="V34">
+            <v>8.397942386831275</v>
+          </cell>
+          <cell r="W34">
+            <v>49.8</v>
+          </cell>
+          <cell r="X34">
+            <v>32.799999999999997</v>
+          </cell>
+          <cell r="Y34">
+            <v>37.6</v>
+          </cell>
+          <cell r="Z34">
+            <v>52.4</v>
+          </cell>
+          <cell r="AA34">
+            <v>47.6</v>
+          </cell>
+          <cell r="AB34">
+            <v>42.2</v>
+          </cell>
+          <cell r="AC34">
+            <v>40.799999999999997</v>
+          </cell>
+          <cell r="AD34">
+            <v>51.6</v>
+          </cell>
+          <cell r="AE34">
+            <v>54.6</v>
+          </cell>
+          <cell r="AF34">
+            <v>53.2</v>
+          </cell>
+          <cell r="AG34" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH34">
+            <v>56.907000000000018</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v xml:space="preserve"> 278  Сосиски Сочинки с сочным окороком, МГС 0.4кг,   ПОКОМ</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C35">
+            <v>243</v>
+          </cell>
+          <cell r="D35">
+            <v>399</v>
+          </cell>
+          <cell r="E35">
+            <v>374</v>
+          </cell>
+          <cell r="F35">
+            <v>204</v>
+          </cell>
+          <cell r="G35">
+            <v>0.4</v>
+          </cell>
+          <cell r="H35">
+            <v>45</v>
+          </cell>
+          <cell r="I35" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K35">
+            <v>382</v>
+          </cell>
+          <cell r="L35">
+            <v>-8</v>
+          </cell>
+          <cell r="O35">
+            <v>183.79999999999981</v>
+          </cell>
+          <cell r="P35">
+            <v>213.5000000000002</v>
+          </cell>
+          <cell r="Q35">
+            <v>74.8</v>
+          </cell>
+          <cell r="U35">
+            <v>8.0387700534759379</v>
+          </cell>
+          <cell r="V35">
+            <v>8.0387700534759379</v>
+          </cell>
+          <cell r="W35">
+            <v>81</v>
+          </cell>
+          <cell r="X35">
+            <v>73.599999999999994</v>
+          </cell>
+          <cell r="Y35">
+            <v>72.8</v>
+          </cell>
+          <cell r="Z35">
+            <v>87.2</v>
+          </cell>
+          <cell r="AA35">
+            <v>90.8</v>
+          </cell>
+          <cell r="AB35">
+            <v>82.2</v>
+          </cell>
+          <cell r="AC35">
+            <v>76</v>
+          </cell>
+          <cell r="AD35">
+            <v>73.2</v>
+          </cell>
+          <cell r="AE35">
+            <v>68.599999999999994</v>
+          </cell>
+          <cell r="AF35">
+            <v>68.2</v>
+          </cell>
+          <cell r="AG35" t="str">
+            <v>ТМА июль</v>
+          </cell>
+          <cell r="AH35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v xml:space="preserve"> 283  Сосиски Сочинки, ВЕС, ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G36">
+            <v>0</v>
+          </cell>
+          <cell r="H36">
+            <v>45</v>
+          </cell>
+          <cell r="I36" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L36">
+            <v>0</v>
+          </cell>
+          <cell r="P36">
+            <v>0</v>
+          </cell>
+          <cell r="Q36">
+            <v>0</v>
+          </cell>
+          <cell r="U36" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V36" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W36">
+            <v>0</v>
+          </cell>
+          <cell r="X36">
+            <v>0</v>
+          </cell>
+          <cell r="Y36">
+            <v>0</v>
+          </cell>
+          <cell r="Z36">
+            <v>0</v>
+          </cell>
+          <cell r="AA36">
+            <v>0</v>
+          </cell>
+          <cell r="AB36">
+            <v>0</v>
+          </cell>
+          <cell r="AC36">
+            <v>0</v>
+          </cell>
+          <cell r="AD36">
+            <v>0</v>
+          </cell>
+          <cell r="AE36">
+            <v>0</v>
+          </cell>
+          <cell r="AF36">
+            <v>0</v>
+          </cell>
+          <cell r="AG36" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v xml:space="preserve"> 284  Сосиски Молокуши миникушай ТМ Вязанка, 0.45кг, ПОКОМ</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G37">
+            <v>0</v>
+          </cell>
+          <cell r="H37">
+            <v>45</v>
+          </cell>
+          <cell r="I37" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L37">
+            <v>0</v>
+          </cell>
+          <cell r="P37">
+            <v>0</v>
+          </cell>
+          <cell r="Q37">
+            <v>0</v>
+          </cell>
+          <cell r="U37" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V37" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W37">
+            <v>0</v>
+          </cell>
+          <cell r="X37">
+            <v>0</v>
+          </cell>
+          <cell r="Y37">
+            <v>0</v>
+          </cell>
+          <cell r="Z37">
+            <v>0</v>
+          </cell>
+          <cell r="AA37">
+            <v>0</v>
+          </cell>
+          <cell r="AB37">
+            <v>0</v>
+          </cell>
+          <cell r="AC37">
+            <v>0</v>
+          </cell>
+          <cell r="AD37">
+            <v>0</v>
+          </cell>
+          <cell r="AE37">
+            <v>0</v>
+          </cell>
+          <cell r="AF37">
+            <v>0</v>
+          </cell>
+          <cell r="AG37" t="str">
+            <v>нет потребности / нет в бланке</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v xml:space="preserve"> 296  Колбаса Мясорубская с рубленой грудинкой 0,35кг срез ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C38">
+            <v>214</v>
+          </cell>
+          <cell r="D38">
+            <v>1</v>
+          </cell>
+          <cell r="E38">
+            <v>194</v>
+          </cell>
+          <cell r="F38">
+            <v>1</v>
+          </cell>
+          <cell r="G38">
+            <v>0.35</v>
+          </cell>
+          <cell r="H38">
+            <v>40</v>
+          </cell>
+          <cell r="I38" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K38">
+            <v>196</v>
+          </cell>
+          <cell r="L38">
+            <v>-2</v>
+          </cell>
+          <cell r="P38">
+            <v>229.9</v>
+          </cell>
+          <cell r="Q38">
+            <v>38.799999999999997</v>
+          </cell>
+          <cell r="R38">
+            <v>195.89999999999995</v>
+          </cell>
+          <cell r="U38">
+            <v>11</v>
+          </cell>
+          <cell r="V38">
+            <v>5.9510309278350517</v>
+          </cell>
+          <cell r="W38">
+            <v>43</v>
+          </cell>
+          <cell r="X38">
+            <v>17.600000000000001</v>
+          </cell>
+          <cell r="Y38">
+            <v>15</v>
+          </cell>
+          <cell r="Z38">
+            <v>21</v>
+          </cell>
+          <cell r="AA38">
+            <v>14.6</v>
+          </cell>
+          <cell r="AB38">
+            <v>23.6</v>
+          </cell>
+          <cell r="AC38">
+            <v>27.2</v>
+          </cell>
+          <cell r="AD38">
+            <v>31.6</v>
+          </cell>
+          <cell r="AE38">
+            <v>30.2</v>
+          </cell>
+          <cell r="AF38">
+            <v>23.4</v>
+          </cell>
+          <cell r="AG38" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH38">
+            <v>68.564999999999984</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v xml:space="preserve"> 297  Колбаса Мясорубская с рубленой грудинкой ВЕС ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C39">
+            <v>65.671999999999997</v>
+          </cell>
+          <cell r="D39">
+            <v>81.866</v>
+          </cell>
+          <cell r="E39">
+            <v>114.379</v>
+          </cell>
+          <cell r="F39">
+            <v>17.210999999999999</v>
+          </cell>
+          <cell r="G39">
+            <v>1</v>
+          </cell>
+          <cell r="H39">
+            <v>40</v>
+          </cell>
+          <cell r="I39" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K39">
+            <v>139</v>
+          </cell>
+          <cell r="L39">
+            <v>-24.620999999999995</v>
+          </cell>
+          <cell r="O39">
+            <v>65.876999999999967</v>
+          </cell>
+          <cell r="P39">
+            <v>148.26612</v>
+          </cell>
+          <cell r="Q39">
+            <v>22.875800000000002</v>
+          </cell>
+          <cell r="R39">
+            <v>20.279680000000042</v>
+          </cell>
+          <cell r="U39">
+            <v>11</v>
+          </cell>
+          <cell r="V39">
+            <v>10.113487615733655</v>
+          </cell>
+          <cell r="W39">
+            <v>26.048400000000001</v>
+          </cell>
+          <cell r="X39">
+            <v>17.812999999999999</v>
+          </cell>
+          <cell r="Y39">
+            <v>16.4026</v>
+          </cell>
+          <cell r="Z39">
+            <v>19.106400000000001</v>
+          </cell>
+          <cell r="AA39">
+            <v>19.387799999999999</v>
+          </cell>
+          <cell r="AB39">
+            <v>20.0594</v>
+          </cell>
+          <cell r="AC39">
+            <v>19.186399999999999</v>
+          </cell>
+          <cell r="AD39">
+            <v>19.274799999999999</v>
+          </cell>
+          <cell r="AE39">
+            <v>18.097999999999999</v>
+          </cell>
+          <cell r="AF39">
+            <v>22.773399999999999</v>
+          </cell>
+          <cell r="AH39">
+            <v>20.279680000000042</v>
+          </cell>
+          <cell r="AJ39" t="str">
+            <v>SU002756</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v xml:space="preserve"> 301  Сосиски Сочинки по-баварски с сыром,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C40">
+            <v>88</v>
+          </cell>
+          <cell r="D40">
+            <v>18</v>
+          </cell>
+          <cell r="E40">
+            <v>83</v>
+          </cell>
+          <cell r="F40">
+            <v>19</v>
+          </cell>
+          <cell r="G40">
+            <v>0.4</v>
+          </cell>
+          <cell r="H40">
+            <v>40</v>
+          </cell>
+          <cell r="I40" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K40">
+            <v>111</v>
+          </cell>
+          <cell r="L40">
+            <v>-28</v>
+          </cell>
+          <cell r="O40">
+            <v>40</v>
+          </cell>
+          <cell r="P40">
+            <v>129.58000000000001</v>
+          </cell>
+          <cell r="Q40">
+            <v>16.600000000000001</v>
+          </cell>
+          <cell r="U40">
+            <v>11.360240963855421</v>
+          </cell>
+          <cell r="V40">
+            <v>11.360240963855421</v>
+          </cell>
+          <cell r="W40">
+            <v>22.6</v>
+          </cell>
+          <cell r="X40">
+            <v>13</v>
+          </cell>
+          <cell r="Y40">
+            <v>11.6</v>
+          </cell>
+          <cell r="Z40">
+            <v>15</v>
+          </cell>
+          <cell r="AA40">
+            <v>16.2</v>
+          </cell>
+          <cell r="AB40">
+            <v>23.2</v>
+          </cell>
+          <cell r="AC40">
+            <v>23.8</v>
+          </cell>
+          <cell r="AD40">
+            <v>28.6</v>
+          </cell>
+          <cell r="AE40">
+            <v>29.8</v>
+          </cell>
+          <cell r="AF40">
+            <v>29.6</v>
+          </cell>
+          <cell r="AH40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v xml:space="preserve"> 302  Сосиски Сочинки по-баварски,  0.4кг, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C41">
+            <v>206</v>
+          </cell>
+          <cell r="E41">
+            <v>184</v>
+          </cell>
+          <cell r="F41">
+            <v>4</v>
+          </cell>
+          <cell r="G41">
+            <v>0.4</v>
+          </cell>
+          <cell r="H41">
+            <v>45</v>
+          </cell>
+          <cell r="I41" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K41">
+            <v>184</v>
+          </cell>
+          <cell r="L41">
+            <v>0</v>
+          </cell>
+          <cell r="O41">
+            <v>46.800000000000011</v>
+          </cell>
+          <cell r="P41">
+            <v>201.32</v>
+          </cell>
+          <cell r="Q41">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="R41">
+            <v>152.67999999999995</v>
+          </cell>
+          <cell r="U41">
+            <v>11</v>
+          </cell>
+          <cell r="V41">
+            <v>6.8510869565217396</v>
+          </cell>
+          <cell r="W41">
+            <v>36.4</v>
+          </cell>
+          <cell r="X41">
+            <v>22.8</v>
+          </cell>
+          <cell r="Y41">
+            <v>18.2</v>
+          </cell>
+          <cell r="Z41">
+            <v>22.8</v>
+          </cell>
+          <cell r="AA41">
+            <v>27</v>
+          </cell>
+          <cell r="AB41">
+            <v>32.6</v>
+          </cell>
+          <cell r="AC41">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="AD41">
+            <v>37</v>
+          </cell>
+          <cell r="AE41">
+            <v>31.2</v>
+          </cell>
+          <cell r="AF41">
+            <v>53.6</v>
+          </cell>
+          <cell r="AH41">
+            <v>61.071999999999981</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v xml:space="preserve"> 305  Колбаса Сервелат Мясорубский с мелкорубленным окороком в/у  ТМ Стародворье ВЕС   ПОКОМ</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C42">
+            <v>2.1629999999999998</v>
+          </cell>
+          <cell r="D42">
+            <v>138.38399999999999</v>
+          </cell>
+          <cell r="E42">
+            <v>48.432000000000002</v>
+          </cell>
+          <cell r="F42">
+            <v>84.869</v>
+          </cell>
+          <cell r="G42">
+            <v>1</v>
+          </cell>
+          <cell r="H42">
+            <v>40</v>
+          </cell>
+          <cell r="I42" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K42">
+            <v>63.7</v>
+          </cell>
+          <cell r="L42">
+            <v>-15.268000000000001</v>
+          </cell>
+          <cell r="O42">
+            <v>46.929200000000023</v>
+          </cell>
+          <cell r="P42">
+            <v>100</v>
+          </cell>
+          <cell r="Q42">
+            <v>9.6864000000000008</v>
+          </cell>
+          <cell r="U42">
+            <v>23.930273372976544</v>
+          </cell>
+          <cell r="V42">
+            <v>23.930273372976544</v>
+          </cell>
+          <cell r="W42">
+            <v>12.0718</v>
+          </cell>
+          <cell r="X42">
+            <v>15.584199999999999</v>
+          </cell>
+          <cell r="Y42">
+            <v>14.6602</v>
+          </cell>
+          <cell r="Z42">
+            <v>15.516400000000001</v>
+          </cell>
+          <cell r="AA42">
+            <v>14.808999999999999</v>
+          </cell>
+          <cell r="AB42">
+            <v>10.6252</v>
+          </cell>
+          <cell r="AC42">
+            <v>12.2172</v>
+          </cell>
+          <cell r="AD42">
+            <v>18.568000000000001</v>
+          </cell>
+          <cell r="AE42">
+            <v>18.968</v>
+          </cell>
+          <cell r="AF42">
+            <v>15.6822</v>
+          </cell>
+          <cell r="AH42">
+            <v>0</v>
+          </cell>
+          <cell r="AJ42" t="str">
+            <v>SU002847</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v xml:space="preserve"> 307  Колбаса Сервелат Мясорубский с мелкорубленным окороком 0,35 кг срез ТМ Стародворье   Поком</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="D43">
+            <v>198</v>
+          </cell>
+          <cell r="E43">
+            <v>58</v>
+          </cell>
+          <cell r="F43">
+            <v>131</v>
+          </cell>
+          <cell r="G43">
+            <v>0.35</v>
+          </cell>
+          <cell r="H43">
+            <v>40</v>
+          </cell>
+          <cell r="I43" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K43">
+            <v>61</v>
+          </cell>
+          <cell r="L43">
+            <v>-3</v>
+          </cell>
+          <cell r="O43">
+            <v>33.199999999999989</v>
+          </cell>
+          <cell r="P43">
+            <v>0</v>
+          </cell>
+          <cell r="Q43">
+            <v>11.6</v>
+          </cell>
+          <cell r="U43">
+            <v>14.155172413793103</v>
+          </cell>
+          <cell r="V43">
+            <v>14.155172413793103</v>
+          </cell>
+          <cell r="W43">
+            <v>11.4</v>
+          </cell>
+          <cell r="X43">
+            <v>20.2</v>
+          </cell>
+          <cell r="Y43">
+            <v>21.2</v>
+          </cell>
+          <cell r="Z43">
+            <v>19</v>
+          </cell>
+          <cell r="AA43">
+            <v>14.8</v>
+          </cell>
+          <cell r="AB43">
+            <v>19</v>
+          </cell>
+          <cell r="AC43">
+            <v>22</v>
+          </cell>
+          <cell r="AD43">
+            <v>14.4</v>
+          </cell>
+          <cell r="AE43">
+            <v>13.4</v>
+          </cell>
+          <cell r="AF43">
+            <v>27.6</v>
+          </cell>
+          <cell r="AG43" t="str">
+            <v>ТМА май</v>
+          </cell>
+          <cell r="AH43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v xml:space="preserve"> 309  Сосиски Сочинки с сыром 0,4 кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C44">
+            <v>275</v>
+          </cell>
+          <cell r="D44">
+            <v>204</v>
+          </cell>
+          <cell r="E44">
+            <v>339</v>
+          </cell>
+          <cell r="F44">
+            <v>108</v>
+          </cell>
+          <cell r="G44">
+            <v>0.4</v>
+          </cell>
+          <cell r="H44">
+            <v>40</v>
+          </cell>
+          <cell r="I44" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K44">
+            <v>339</v>
+          </cell>
+          <cell r="L44">
+            <v>0</v>
+          </cell>
+          <cell r="P44">
+            <v>346.3</v>
+          </cell>
+          <cell r="Q44">
+            <v>67.8</v>
+          </cell>
+          <cell r="R44">
+            <v>150</v>
+          </cell>
+          <cell r="U44">
+            <v>8.9129793510324475</v>
+          </cell>
+          <cell r="V44">
+            <v>6.7005899705014755</v>
+          </cell>
+          <cell r="W44">
+            <v>71</v>
+          </cell>
+          <cell r="X44">
+            <v>50.6</v>
+          </cell>
+          <cell r="Y44">
+            <v>47</v>
+          </cell>
+          <cell r="Z44">
+            <v>28</v>
+          </cell>
+          <cell r="AA44">
+            <v>25.2</v>
+          </cell>
+          <cell r="AB44">
+            <v>60.6</v>
+          </cell>
+          <cell r="AC44">
+            <v>49.2</v>
+          </cell>
+          <cell r="AD44">
+            <v>31.8</v>
+          </cell>
+          <cell r="AE44">
+            <v>30</v>
+          </cell>
+          <cell r="AF44">
+            <v>39.799999999999997</v>
+          </cell>
+          <cell r="AG44" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH44">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v xml:space="preserve"> 312  Ветчина Филейская ВЕС ТМ  Вязанка ТС Столичная  ПОКОМ</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C45">
+            <v>43.21</v>
+          </cell>
+          <cell r="E45">
+            <v>29.117999999999999</v>
+          </cell>
+          <cell r="F45">
+            <v>12.064</v>
+          </cell>
+          <cell r="G45">
+            <v>1</v>
+          </cell>
+          <cell r="H45">
+            <v>50</v>
+          </cell>
+          <cell r="I45" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K45">
+            <v>30.15</v>
+          </cell>
+          <cell r="L45">
+            <v>-1.032</v>
+          </cell>
+          <cell r="O45">
+            <v>18.5108</v>
+          </cell>
+          <cell r="P45">
+            <v>30.351199999999992</v>
+          </cell>
+          <cell r="Q45">
+            <v>5.8235999999999999</v>
+          </cell>
+          <cell r="R45">
+            <v>4</v>
+          </cell>
+          <cell r="U45">
+            <v>11.148773954255098</v>
+          </cell>
+          <cell r="V45">
+            <v>10.461913592966548</v>
+          </cell>
+          <cell r="W45">
+            <v>6.4995999999999992</v>
+          </cell>
+          <cell r="X45">
+            <v>4.8727999999999998</v>
+          </cell>
+          <cell r="Y45">
+            <v>4.0528000000000004</v>
+          </cell>
+          <cell r="Z45">
+            <v>3.8360000000000012</v>
+          </cell>
+          <cell r="AA45">
+            <v>4.1020000000000003</v>
+          </cell>
+          <cell r="AB45">
+            <v>6.6579999999999986</v>
+          </cell>
+          <cell r="AC45">
+            <v>6.3883999999999999</v>
+          </cell>
+          <cell r="AD45">
+            <v>4.565199999999999</v>
+          </cell>
+          <cell r="AE45">
+            <v>5.3784000000000001</v>
+          </cell>
+          <cell r="AF45">
+            <v>6.6247999999999996</v>
+          </cell>
+          <cell r="AH45">
+            <v>4</v>
+          </cell>
+          <cell r="AJ45" t="str">
+            <v>SU002828</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v xml:space="preserve"> 315  Колбаса вареная Молокуша ТМ Вязанка ВЕС, ПОКОМ</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C46">
+            <v>20.292000000000002</v>
+          </cell>
+          <cell r="D46">
+            <v>113.245</v>
+          </cell>
+          <cell r="E46">
+            <v>75.557000000000002</v>
+          </cell>
+          <cell r="F46">
+            <v>45.85</v>
+          </cell>
+          <cell r="G46">
+            <v>1</v>
+          </cell>
+          <cell r="H46">
+            <v>50</v>
+          </cell>
+          <cell r="I46" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K46">
+            <v>78.849999999999994</v>
+          </cell>
+          <cell r="L46">
+            <v>-3.2929999999999922</v>
+          </cell>
+          <cell r="O46">
+            <v>21.621600000000011</v>
+          </cell>
+          <cell r="P46">
+            <v>82.222399999999993</v>
+          </cell>
+          <cell r="Q46">
+            <v>15.1114</v>
+          </cell>
+          <cell r="R46">
+            <v>16.531399999999998</v>
+          </cell>
+          <cell r="U46">
+            <v>11</v>
+          </cell>
+          <cell r="V46">
+            <v>9.9060312082269029</v>
+          </cell>
+          <cell r="W46">
+            <v>16.452200000000001</v>
+          </cell>
+          <cell r="X46">
+            <v>12.096</v>
+          </cell>
+          <cell r="Y46">
+            <v>12.368</v>
+          </cell>
+          <cell r="Z46">
+            <v>15.545199999999999</v>
+          </cell>
+          <cell r="AA46">
+            <v>16.883600000000001</v>
+          </cell>
+          <cell r="AB46">
+            <v>18.041599999999999</v>
+          </cell>
+          <cell r="AC46">
+            <v>18.314599999999999</v>
+          </cell>
+          <cell r="AD46">
+            <v>23.088200000000001</v>
+          </cell>
+          <cell r="AE46">
+            <v>24.970400000000001</v>
+          </cell>
+          <cell r="AF46">
+            <v>24.4754</v>
+          </cell>
+          <cell r="AG46" t="str">
+            <v>ТМА июнь</v>
+          </cell>
+          <cell r="AH46">
+            <v>16.531399999999998</v>
+          </cell>
+          <cell r="AJ46" t="str">
+            <v>SU002830</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v xml:space="preserve"> 318  Сосиски Датские ТМ Зареченские, ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C47">
+            <v>178.68899999999999</v>
+          </cell>
+          <cell r="D47">
+            <v>8.7469999999999999</v>
+          </cell>
+          <cell r="E47">
+            <v>155.43600000000001</v>
+          </cell>
+          <cell r="F47">
+            <v>2.1880000000000002</v>
+          </cell>
+          <cell r="G47">
+            <v>1</v>
+          </cell>
+          <cell r="H47">
+            <v>40</v>
+          </cell>
+          <cell r="I47" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K47">
+            <v>142.80000000000001</v>
+          </cell>
+          <cell r="L47">
+            <v>12.635999999999996</v>
+          </cell>
+          <cell r="O47">
+            <v>110.1604</v>
+          </cell>
+          <cell r="P47">
+            <v>232.69710000000001</v>
+          </cell>
+          <cell r="Q47">
+            <v>31.087200000000003</v>
+          </cell>
+          <cell r="U47">
+            <v>11.099278802851334</v>
+          </cell>
+          <cell r="V47">
+            <v>11.099278802851334</v>
+          </cell>
+          <cell r="W47">
+            <v>43.195</v>
+          </cell>
+          <cell r="X47">
+            <v>24.3354</v>
+          </cell>
+          <cell r="Y47">
+            <v>13.662599999999999</v>
+          </cell>
+          <cell r="Z47">
+            <v>14.385400000000001</v>
+          </cell>
+          <cell r="AA47">
+            <v>19.677600000000002</v>
+          </cell>
+          <cell r="AB47">
+            <v>30.799800000000001</v>
+          </cell>
+          <cell r="AC47">
+            <v>26.078800000000001</v>
+          </cell>
+          <cell r="AD47">
+            <v>24.7666</v>
+          </cell>
+          <cell r="AE47">
+            <v>32.336200000000012</v>
+          </cell>
+          <cell r="AF47">
+            <v>37.850999999999999</v>
+          </cell>
+          <cell r="AH47">
+            <v>0</v>
+          </cell>
+          <cell r="AJ47" t="str">
+            <v>SU002655</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v xml:space="preserve"> 322  Колбаса вареная Молокуша 0,45кг ТМ Вязанка  ПОКОМ</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C48">
+            <v>270</v>
+          </cell>
+          <cell r="D48">
+            <v>150</v>
+          </cell>
+          <cell r="E48">
+            <v>185</v>
+          </cell>
+          <cell r="F48">
+            <v>210</v>
+          </cell>
+          <cell r="G48">
+            <v>0.45</v>
+          </cell>
+          <cell r="H48">
+            <v>50</v>
+          </cell>
+          <cell r="I48" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K48">
+            <v>185</v>
+          </cell>
+          <cell r="L48">
+            <v>0</v>
+          </cell>
+          <cell r="P48">
+            <v>217.84</v>
+          </cell>
+          <cell r="Q48">
+            <v>37</v>
+          </cell>
+          <cell r="U48">
+            <v>11.563243243243244</v>
+          </cell>
+          <cell r="V48">
+            <v>11.563243243243244</v>
+          </cell>
+          <cell r="W48">
+            <v>48.8</v>
+          </cell>
+          <cell r="X48">
+            <v>27.2</v>
+          </cell>
+          <cell r="Y48">
+            <v>25.8</v>
+          </cell>
+          <cell r="Z48">
+            <v>38.6</v>
+          </cell>
+          <cell r="AA48">
+            <v>30.2</v>
+          </cell>
+          <cell r="AB48">
+            <v>45.6</v>
+          </cell>
+          <cell r="AC48">
+            <v>43.2</v>
+          </cell>
+          <cell r="AD48">
+            <v>10</v>
+          </cell>
+          <cell r="AE48">
+            <v>20.8</v>
+          </cell>
+          <cell r="AF48">
+            <v>42.2</v>
+          </cell>
+          <cell r="AH48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v xml:space="preserve"> 327  Сосиски Сочинки с сыром ТМ Стародворье, ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G49">
+            <v>1</v>
+          </cell>
+          <cell r="H49">
+            <v>40</v>
+          </cell>
+          <cell r="I49" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L49">
+            <v>0</v>
+          </cell>
+          <cell r="Q49">
+            <v>0</v>
+          </cell>
+          <cell r="R49">
+            <v>4</v>
+          </cell>
+          <cell r="U49" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V49" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W49">
+            <v>0</v>
+          </cell>
+          <cell r="X49">
+            <v>0</v>
+          </cell>
+          <cell r="Y49">
+            <v>0</v>
+          </cell>
+          <cell r="Z49">
+            <v>0</v>
+          </cell>
+          <cell r="AA49">
+            <v>0</v>
+          </cell>
+          <cell r="AB49">
+            <v>0</v>
+          </cell>
+          <cell r="AC49">
+            <v>0</v>
+          </cell>
+          <cell r="AD49">
+            <v>0</v>
+          </cell>
+          <cell r="AE49">
+            <v>0</v>
+          </cell>
+          <cell r="AF49">
+            <v>0</v>
+          </cell>
+          <cell r="AG49" t="str">
+            <v>нет в бланке</v>
+          </cell>
+          <cell r="AH49">
+            <v>4</v>
+          </cell>
+          <cell r="AJ49" t="str">
+            <v>SU002795</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v xml:space="preserve"> 328  Сардельки Сочинки Стародворье ТМ  0,4 кг ПОКОМ</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C50">
+            <v>216</v>
+          </cell>
+          <cell r="E50">
+            <v>127</v>
+          </cell>
+          <cell r="F50">
+            <v>86</v>
+          </cell>
+          <cell r="G50">
+            <v>0.4</v>
+          </cell>
+          <cell r="H50">
+            <v>40</v>
+          </cell>
+          <cell r="I50" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K50">
+            <v>133</v>
+          </cell>
+          <cell r="L50">
+            <v>-6</v>
+          </cell>
+          <cell r="P50">
+            <v>141.94</v>
+          </cell>
+          <cell r="Q50">
+            <v>25.4</v>
+          </cell>
+          <cell r="R50">
+            <v>51.45999999999998</v>
+          </cell>
+          <cell r="U50">
+            <v>11</v>
+          </cell>
+          <cell r="V50">
+            <v>8.9740157480314959</v>
+          </cell>
+          <cell r="W50">
+            <v>25.8</v>
+          </cell>
+          <cell r="X50">
+            <v>17</v>
+          </cell>
+          <cell r="Y50">
+            <v>18</v>
+          </cell>
+          <cell r="Z50">
+            <v>16.2</v>
+          </cell>
+          <cell r="AA50">
+            <v>16.2</v>
+          </cell>
+          <cell r="AB50">
+            <v>34.4</v>
+          </cell>
+          <cell r="AC50">
+            <v>36.799999999999997</v>
+          </cell>
+          <cell r="AD50">
+            <v>28.2</v>
+          </cell>
+          <cell r="AE50">
+            <v>26.2</v>
+          </cell>
+          <cell r="AF50">
+            <v>22.2</v>
+          </cell>
+          <cell r="AH50">
+            <v>20.583999999999993</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v xml:space="preserve"> 329  Сардельки Сочинки с сыром Стародворье ТМ, 0,4 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C51">
+            <v>280</v>
+          </cell>
+          <cell r="D51">
+            <v>2</v>
+          </cell>
+          <cell r="E51">
+            <v>152</v>
+          </cell>
+          <cell r="F51">
+            <v>95</v>
+          </cell>
+          <cell r="G51">
+            <v>0.4</v>
+          </cell>
+          <cell r="H51">
+            <v>40</v>
+          </cell>
+          <cell r="I51" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K51">
+            <v>175</v>
+          </cell>
+          <cell r="L51">
+            <v>-23</v>
+          </cell>
+          <cell r="P51">
+            <v>134.13999999999999</v>
+          </cell>
+          <cell r="Q51">
+            <v>30.4</v>
+          </cell>
+          <cell r="R51">
+            <v>105.25999999999999</v>
+          </cell>
+          <cell r="U51">
+            <v>11</v>
+          </cell>
+          <cell r="V51">
+            <v>7.5374999999999996</v>
+          </cell>
+          <cell r="W51">
+            <v>29.8</v>
+          </cell>
+          <cell r="X51">
+            <v>21.6</v>
+          </cell>
+          <cell r="Y51">
+            <v>19.399999999999999</v>
+          </cell>
+          <cell r="Z51">
+            <v>16.399999999999999</v>
+          </cell>
+          <cell r="AA51">
+            <v>20.6</v>
+          </cell>
+          <cell r="AB51">
+            <v>41.2</v>
+          </cell>
+          <cell r="AC51">
+            <v>42.2</v>
+          </cell>
+          <cell r="AD51">
+            <v>31.8</v>
+          </cell>
+          <cell r="AE51">
+            <v>27.8</v>
+          </cell>
+          <cell r="AF51">
+            <v>36.6</v>
+          </cell>
+          <cell r="AH51">
+            <v>42.103999999999999</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v xml:space="preserve"> 330  Колбаса вареная Филейская ТМ Вязанка ТС Классическая ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G52">
+            <v>0</v>
+          </cell>
+          <cell r="H52">
+            <v>50</v>
+          </cell>
+          <cell r="I52" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L52">
+            <v>0</v>
+          </cell>
+          <cell r="P52">
+            <v>0</v>
+          </cell>
+          <cell r="Q52">
+            <v>0</v>
+          </cell>
+          <cell r="U52" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V52" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W52">
+            <v>0</v>
+          </cell>
+          <cell r="X52">
+            <v>0</v>
+          </cell>
+          <cell r="Y52">
+            <v>0</v>
+          </cell>
+          <cell r="Z52">
+            <v>0</v>
+          </cell>
+          <cell r="AA52">
+            <v>0</v>
+          </cell>
+          <cell r="AB52">
+            <v>0</v>
+          </cell>
+          <cell r="AC52">
+            <v>0</v>
+          </cell>
+          <cell r="AD52">
+            <v>0</v>
+          </cell>
+          <cell r="AE52">
+            <v>0</v>
+          </cell>
+          <cell r="AF52">
+            <v>0</v>
+          </cell>
+          <cell r="AG52" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v xml:space="preserve"> 335  Колбаса Сливушка ТМ Вязанка. ВЕС.  ПОКОМ </v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C53">
+            <v>45.875999999999998</v>
+          </cell>
+          <cell r="D53">
+            <v>97.176000000000002</v>
+          </cell>
+          <cell r="E53">
+            <v>82.784000000000006</v>
+          </cell>
+          <cell r="F53">
+            <v>37.982999999999997</v>
+          </cell>
+          <cell r="G53">
+            <v>1</v>
+          </cell>
+          <cell r="H53">
+            <v>50</v>
+          </cell>
+          <cell r="I53" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K53">
+            <v>84.55</v>
+          </cell>
+          <cell r="L53">
+            <v>-1.7659999999999911</v>
+          </cell>
+          <cell r="O53">
+            <v>4</v>
+          </cell>
+          <cell r="P53">
+            <v>92.736000000000033</v>
+          </cell>
+          <cell r="Q53">
+            <v>16.556800000000003</v>
+          </cell>
+          <cell r="R53">
+            <v>47.405799999999992</v>
+          </cell>
+          <cell r="U53">
+            <v>11</v>
+          </cell>
+          <cell r="V53">
+            <v>8.1367776381909547</v>
+          </cell>
+          <cell r="W53">
+            <v>16.429200000000002</v>
+          </cell>
+          <cell r="X53">
+            <v>11.76</v>
+          </cell>
+          <cell r="Y53">
+            <v>11.516</v>
+          </cell>
+          <cell r="Z53">
+            <v>16.7742</v>
+          </cell>
+          <cell r="AA53">
+            <v>15.9406</v>
+          </cell>
+          <cell r="AB53">
+            <v>19.0016</v>
+          </cell>
+          <cell r="AC53">
+            <v>23.311599999999999</v>
+          </cell>
+          <cell r="AD53">
+            <v>21.872800000000002</v>
+          </cell>
+          <cell r="AE53">
+            <v>20.971</v>
+          </cell>
+          <cell r="AF53">
+            <v>22.407599999999999</v>
+          </cell>
+          <cell r="AG53" t="str">
+            <v>ТМА июнь</v>
+          </cell>
+          <cell r="AH53">
+            <v>47.405799999999992</v>
+          </cell>
+          <cell r="AJ53" t="str">
+            <v>SU002928</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v xml:space="preserve"> 336  Ветчина Сливушка с индейкой ТМ Вязанка. ВЕС  ПОКОМ</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C54">
+            <v>30.827999999999999</v>
+          </cell>
+          <cell r="E54">
+            <v>13.686</v>
+          </cell>
+          <cell r="F54">
+            <v>13.036</v>
+          </cell>
+          <cell r="G54">
+            <v>1</v>
+          </cell>
+          <cell r="H54">
+            <v>50</v>
+          </cell>
+          <cell r="I54" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K54">
+            <v>14.1</v>
+          </cell>
+          <cell r="L54">
+            <v>-0.4139999999999997</v>
+          </cell>
+          <cell r="O54">
+            <v>7.9283999999999999</v>
+          </cell>
+          <cell r="P54">
+            <v>7.771600000000003</v>
+          </cell>
+          <cell r="Q54">
+            <v>2.7372000000000001</v>
+          </cell>
+          <cell r="R54">
+            <v>4</v>
+          </cell>
+          <cell r="U54">
+            <v>11.959666812801403</v>
+          </cell>
+          <cell r="V54">
+            <v>10.498319450533392</v>
+          </cell>
+          <cell r="W54">
+            <v>3.5583999999999998</v>
+          </cell>
+          <cell r="X54">
+            <v>3.2744</v>
+          </cell>
+          <cell r="Y54">
+            <v>2.1772</v>
+          </cell>
+          <cell r="Z54">
+            <v>2.7320000000000002</v>
+          </cell>
+          <cell r="AA54">
+            <v>3.0015999999999998</v>
+          </cell>
+          <cell r="AB54">
+            <v>4.6284000000000001</v>
+          </cell>
+          <cell r="AC54">
+            <v>5.7159999999999993</v>
+          </cell>
+          <cell r="AD54">
+            <v>4.0683999999999996</v>
+          </cell>
+          <cell r="AE54">
+            <v>3.5272000000000001</v>
+          </cell>
+          <cell r="AF54">
+            <v>5.1657999999999999</v>
+          </cell>
+          <cell r="AH54">
+            <v>4</v>
+          </cell>
+          <cell r="AJ54" t="str">
+            <v>SU002833</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v xml:space="preserve"> 339  Колбаса вареная Филейская ТМ Вязанка ТС Классическая, 0,40 кг.  ПОКОМ</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G55">
+            <v>0</v>
+          </cell>
+          <cell r="H55">
+            <v>50</v>
+          </cell>
+          <cell r="I55" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L55">
+            <v>0</v>
+          </cell>
+          <cell r="P55">
+            <v>0</v>
+          </cell>
+          <cell r="Q55">
+            <v>0</v>
+          </cell>
+          <cell r="U55" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V55" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W55">
+            <v>0</v>
+          </cell>
+          <cell r="X55">
+            <v>0</v>
+          </cell>
+          <cell r="Y55">
+            <v>0</v>
+          </cell>
+          <cell r="Z55">
+            <v>0</v>
+          </cell>
+          <cell r="AA55">
+            <v>0</v>
+          </cell>
+          <cell r="AB55">
+            <v>0</v>
+          </cell>
+          <cell r="AC55">
+            <v>0</v>
+          </cell>
+          <cell r="AD55">
+            <v>0</v>
+          </cell>
+          <cell r="AE55">
+            <v>0</v>
+          </cell>
+          <cell r="AF55">
+            <v>0</v>
+          </cell>
+          <cell r="AG55" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v xml:space="preserve"> 342 Сосиски Сочинки Молочные ТМ Стародворье 0,4 кг ПОКОМ</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C56">
+            <v>319</v>
+          </cell>
+          <cell r="D56">
+            <v>432</v>
+          </cell>
+          <cell r="E56">
+            <v>496</v>
+          </cell>
+          <cell r="F56">
+            <v>207</v>
+          </cell>
+          <cell r="G56">
+            <v>0.4</v>
+          </cell>
+          <cell r="H56">
+            <v>40</v>
+          </cell>
+          <cell r="I56" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K56">
+            <v>500</v>
+          </cell>
+          <cell r="L56">
+            <v>-4</v>
+          </cell>
+          <cell r="O56">
+            <v>270.33999999999992</v>
+          </cell>
+          <cell r="P56">
+            <v>403.08</v>
+          </cell>
+          <cell r="Q56">
+            <v>99.2</v>
+          </cell>
+          <cell r="R56">
+            <v>210.7800000000002</v>
+          </cell>
+          <cell r="U56">
+            <v>11</v>
+          </cell>
+          <cell r="V56">
+            <v>8.8752016129032238</v>
+          </cell>
+          <cell r="W56">
+            <v>103.6</v>
+          </cell>
+          <cell r="X56">
+            <v>88.2</v>
+          </cell>
+          <cell r="Y56">
+            <v>83.8</v>
+          </cell>
+          <cell r="Z56">
+            <v>94.8</v>
+          </cell>
+          <cell r="AA56">
+            <v>96.4</v>
+          </cell>
+          <cell r="AB56">
+            <v>97</v>
+          </cell>
+          <cell r="AC56">
+            <v>92.2</v>
+          </cell>
+          <cell r="AD56">
+            <v>82.6</v>
+          </cell>
+          <cell r="AE56">
+            <v>82</v>
+          </cell>
+          <cell r="AF56">
+            <v>98.6</v>
+          </cell>
+          <cell r="AH56">
+            <v>84.312000000000083</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v xml:space="preserve"> 343 Сосиски Сочинки Сливочные ТМ Стародворье  0,4 кг</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C57">
+            <v>107</v>
+          </cell>
+          <cell r="D57">
+            <v>594</v>
+          </cell>
+          <cell r="E57">
+            <v>380</v>
+          </cell>
+          <cell r="F57">
+            <v>273</v>
+          </cell>
+          <cell r="G57">
+            <v>0.4</v>
+          </cell>
+          <cell r="H57">
+            <v>40</v>
+          </cell>
+          <cell r="I57" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K57">
+            <v>384</v>
+          </cell>
+          <cell r="L57">
+            <v>-4</v>
+          </cell>
+          <cell r="O57">
+            <v>97</v>
+          </cell>
+          <cell r="P57">
+            <v>313.04000000000002</v>
+          </cell>
+          <cell r="Q57">
+            <v>76</v>
+          </cell>
+          <cell r="R57">
+            <v>152.96000000000004</v>
+          </cell>
+          <cell r="U57">
+            <v>11</v>
+          </cell>
+          <cell r="V57">
+            <v>8.987368421052631</v>
+          </cell>
+          <cell r="W57">
+            <v>82.8</v>
+          </cell>
+          <cell r="X57">
+            <v>70.2</v>
+          </cell>
+          <cell r="Y57">
+            <v>72.8</v>
+          </cell>
+          <cell r="Z57">
+            <v>92.2</v>
+          </cell>
+          <cell r="AA57">
+            <v>87.4</v>
+          </cell>
+          <cell r="AB57">
+            <v>77</v>
+          </cell>
+          <cell r="AC57">
+            <v>75.400000000000006</v>
+          </cell>
+          <cell r="AD57">
+            <v>73.400000000000006</v>
+          </cell>
+          <cell r="AE57">
+            <v>71</v>
+          </cell>
+          <cell r="AF57">
+            <v>93.6</v>
+          </cell>
+          <cell r="AG57" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH57">
+            <v>61.184000000000019</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v xml:space="preserve"> 344  Колбаса Сочинка по-европейски с сочной грудинкой ТМ Стародворье, ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C58">
+            <v>-1.0509999999999999</v>
+          </cell>
+          <cell r="D58">
+            <v>336.75099999999998</v>
+          </cell>
+          <cell r="E58">
+            <v>89.009</v>
+          </cell>
+          <cell r="F58">
+            <v>204.89599999999999</v>
+          </cell>
+          <cell r="G58">
+            <v>1</v>
+          </cell>
+          <cell r="H58">
+            <v>40</v>
+          </cell>
+          <cell r="I58" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K58">
+            <v>92.2</v>
+          </cell>
+          <cell r="L58">
+            <v>-3.1910000000000025</v>
+          </cell>
+          <cell r="P58">
+            <v>0</v>
+          </cell>
+          <cell r="Q58">
+            <v>17.8018</v>
+          </cell>
+          <cell r="U58">
+            <v>11.509847318810456</v>
+          </cell>
+          <cell r="V58">
+            <v>11.509847318810456</v>
+          </cell>
+          <cell r="W58">
+            <v>13.7582</v>
+          </cell>
+          <cell r="X58">
+            <v>27.838999999999999</v>
+          </cell>
+          <cell r="Y58">
+            <v>31.811800000000002</v>
+          </cell>
+          <cell r="Z58">
+            <v>31.388000000000002</v>
+          </cell>
+          <cell r="AA58">
+            <v>32.826199999999993</v>
+          </cell>
+          <cell r="AB58">
+            <v>23.677800000000001</v>
+          </cell>
+          <cell r="AC58">
+            <v>25.561399999999999</v>
+          </cell>
+          <cell r="AD58">
+            <v>35.452800000000003</v>
+          </cell>
+          <cell r="AE58">
+            <v>33.5672</v>
+          </cell>
+          <cell r="AF58">
+            <v>18.768000000000001</v>
+          </cell>
+          <cell r="AH58">
+            <v>0</v>
+          </cell>
+          <cell r="AJ58" t="str">
+            <v>SU002941</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v xml:space="preserve"> 345  Колбаса Сочинка по-фински с сочным окроком ТМ Стародворье ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C59">
+            <v>-2.8519999999999999</v>
+          </cell>
+          <cell r="D59">
+            <v>292.39800000000002</v>
+          </cell>
+          <cell r="E59">
+            <v>95.903999999999996</v>
+          </cell>
+          <cell r="F59">
+            <v>160.16999999999999</v>
+          </cell>
+          <cell r="G59">
+            <v>1</v>
+          </cell>
+          <cell r="H59">
+            <v>40</v>
+          </cell>
+          <cell r="I59" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K59">
+            <v>94.1</v>
+          </cell>
+          <cell r="L59">
+            <v>1.804000000000002</v>
+          </cell>
+          <cell r="O59">
+            <v>7.1125999999999543</v>
+          </cell>
+          <cell r="P59">
+            <v>0</v>
+          </cell>
+          <cell r="Q59">
+            <v>19.180799999999998</v>
+          </cell>
+          <cell r="R59">
+            <v>43.706200000000024</v>
+          </cell>
+          <cell r="U59">
+            <v>11</v>
+          </cell>
+          <cell r="V59">
+            <v>8.721356773440105</v>
+          </cell>
+          <cell r="W59">
+            <v>16.3188</v>
+          </cell>
+          <cell r="X59">
+            <v>26.0106</v>
+          </cell>
+          <cell r="Y59">
+            <v>28.36</v>
+          </cell>
+          <cell r="Z59">
+            <v>33.883599999999987</v>
+          </cell>
+          <cell r="AA59">
+            <v>35.869800000000012</v>
+          </cell>
+          <cell r="AB59">
+            <v>16.998000000000001</v>
+          </cell>
+          <cell r="AC59">
+            <v>17.624999999999989</v>
+          </cell>
+          <cell r="AD59">
+            <v>32.520600000000002</v>
+          </cell>
+          <cell r="AE59">
+            <v>28.607800000000001</v>
+          </cell>
+          <cell r="AF59">
+            <v>18.065200000000001</v>
+          </cell>
+          <cell r="AH59">
+            <v>43.706200000000024</v>
+          </cell>
+          <cell r="AJ59" t="str">
+            <v>SU002943</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v xml:space="preserve"> 347  Колбаса Сочинка рубленая с сочным окороком ТМ Стародворье ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C60">
+            <v>27.103000000000002</v>
+          </cell>
+          <cell r="D60">
+            <v>101.047</v>
+          </cell>
+          <cell r="E60">
+            <v>52.417000000000002</v>
+          </cell>
+          <cell r="F60">
+            <v>60.963000000000001</v>
+          </cell>
+          <cell r="G60">
+            <v>1</v>
+          </cell>
+          <cell r="H60">
+            <v>40</v>
+          </cell>
+          <cell r="I60" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K60">
+            <v>108.9</v>
+          </cell>
+          <cell r="L60">
+            <v>-56.483000000000004</v>
+          </cell>
+          <cell r="O60">
+            <v>112.06140000000001</v>
+          </cell>
+          <cell r="P60">
+            <v>0</v>
+          </cell>
+          <cell r="Q60">
+            <v>10.4834</v>
+          </cell>
+          <cell r="U60">
+            <v>16.504607283896448</v>
+          </cell>
+          <cell r="V60">
+            <v>16.504607283896448</v>
+          </cell>
+          <cell r="W60">
+            <v>17.120999999999999</v>
+          </cell>
+          <cell r="X60">
+            <v>19.910399999999999</v>
+          </cell>
+          <cell r="Y60">
+            <v>13.8344</v>
+          </cell>
+          <cell r="Z60">
+            <v>0.74560000000000171</v>
+          </cell>
+          <cell r="AA60">
+            <v>0</v>
+          </cell>
+          <cell r="AB60">
+            <v>11.125</v>
+          </cell>
+          <cell r="AC60">
+            <v>11.125000000000011</v>
+          </cell>
+          <cell r="AD60">
+            <v>0</v>
+          </cell>
+          <cell r="AE60">
+            <v>0</v>
+          </cell>
+          <cell r="AF60">
+            <v>0</v>
+          </cell>
+          <cell r="AG60" t="str">
+            <v>заказываем с 19,06,25</v>
+          </cell>
+          <cell r="AH60">
+            <v>0</v>
+          </cell>
+          <cell r="AJ60" t="str">
+            <v>SU002947</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v xml:space="preserve"> 364  Сардельки Филейские Вязанка ВЕС NDX ТМ Вязанка  ПОКОМ</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C61">
+            <v>45.95</v>
+          </cell>
+          <cell r="D61">
+            <v>16.282</v>
+          </cell>
+          <cell r="E61">
+            <v>34.183</v>
+          </cell>
+          <cell r="F61">
+            <v>8.1280000000000001</v>
+          </cell>
+          <cell r="G61">
+            <v>1</v>
+          </cell>
+          <cell r="H61">
+            <v>30</v>
+          </cell>
+          <cell r="I61" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K61">
+            <v>37.799999999999997</v>
+          </cell>
+          <cell r="L61">
+            <v>-3.6169999999999973</v>
+          </cell>
+          <cell r="O61">
+            <v>20.02940000000002</v>
+          </cell>
+          <cell r="P61">
+            <v>24.73259999999998</v>
+          </cell>
+          <cell r="Q61">
+            <v>6.8365999999999998</v>
+          </cell>
+          <cell r="R61">
+            <v>22.312600000000007</v>
+          </cell>
+          <cell r="U61">
+            <v>11.000000000000002</v>
+          </cell>
+          <cell r="V61">
+            <v>7.7363016704209695</v>
+          </cell>
+          <cell r="W61">
+            <v>7.0462000000000007</v>
+          </cell>
+          <cell r="X61">
+            <v>5.8540000000000001</v>
+          </cell>
+          <cell r="Y61">
+            <v>5.8655999999999997</v>
+          </cell>
+          <cell r="Z61">
+            <v>6.8128000000000002</v>
+          </cell>
+          <cell r="AA61">
+            <v>8.4947999999999997</v>
+          </cell>
+          <cell r="AB61">
+            <v>8.9293999999999993</v>
+          </cell>
+          <cell r="AC61">
+            <v>7.9813999999999989</v>
+          </cell>
+          <cell r="AD61">
+            <v>8.0896000000000008</v>
+          </cell>
+          <cell r="AE61">
+            <v>9.7215999999999987</v>
+          </cell>
+          <cell r="AF61">
+            <v>10.597799999999999</v>
+          </cell>
+          <cell r="AH61">
+            <v>22.312600000000007</v>
+          </cell>
+          <cell r="AJ61" t="str">
+            <v>SU002835</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v xml:space="preserve"> 376  Колбаса Докторская Дугушка 0,6кг ГОСТ ТМ Стародворье  ПОКОМ </v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G62">
+            <v>0</v>
+          </cell>
+          <cell r="H62">
+            <v>60</v>
+          </cell>
+          <cell r="I62" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L62">
+            <v>0</v>
+          </cell>
+          <cell r="P62">
+            <v>0</v>
+          </cell>
+          <cell r="Q62">
+            <v>0</v>
+          </cell>
+          <cell r="U62" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V62" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W62">
+            <v>0</v>
+          </cell>
+          <cell r="X62">
+            <v>0</v>
+          </cell>
+          <cell r="Y62">
+            <v>0</v>
+          </cell>
+          <cell r="Z62">
+            <v>0</v>
+          </cell>
+          <cell r="AA62">
+            <v>0</v>
+          </cell>
+          <cell r="AB62">
+            <v>0</v>
+          </cell>
+          <cell r="AC62">
+            <v>0</v>
+          </cell>
+          <cell r="AD62">
+            <v>0</v>
+          </cell>
+          <cell r="AE62">
+            <v>0</v>
+          </cell>
+          <cell r="AF62">
+            <v>0</v>
+          </cell>
+          <cell r="AG62" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v xml:space="preserve"> 394 Ветчина Сочинка с сочным окороком ТМ Стародворье полиамид ф/в 0,35 кг  Поком</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G63">
+            <v>0</v>
+          </cell>
+          <cell r="H63">
+            <v>50</v>
+          </cell>
+          <cell r="I63" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L63">
+            <v>0</v>
+          </cell>
+          <cell r="P63">
+            <v>0</v>
+          </cell>
+          <cell r="Q63">
+            <v>0</v>
+          </cell>
+          <cell r="U63" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V63" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W63">
+            <v>0</v>
+          </cell>
+          <cell r="X63">
+            <v>0</v>
+          </cell>
+          <cell r="Y63">
+            <v>0</v>
+          </cell>
+          <cell r="Z63">
+            <v>0</v>
+          </cell>
+          <cell r="AA63">
+            <v>0</v>
+          </cell>
+          <cell r="AB63">
+            <v>0</v>
+          </cell>
+          <cell r="AC63">
+            <v>0</v>
+          </cell>
+          <cell r="AD63">
+            <v>0</v>
+          </cell>
+          <cell r="AE63">
+            <v>0</v>
+          </cell>
+          <cell r="AF63">
+            <v>0</v>
+          </cell>
+          <cell r="AG63" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v xml:space="preserve"> 395  Колбаса Докторская ГОСТ ТМ Вязанка в оболочке полиамид 0,37 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C64">
+            <v>207</v>
+          </cell>
+          <cell r="E64">
+            <v>146</v>
+          </cell>
+          <cell r="F64">
+            <v>50</v>
+          </cell>
+          <cell r="G64">
+            <v>0.37</v>
+          </cell>
+          <cell r="H64">
+            <v>50</v>
+          </cell>
+          <cell r="I64" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K64">
+            <v>146</v>
+          </cell>
+          <cell r="L64">
+            <v>0</v>
+          </cell>
+          <cell r="O64">
+            <v>99</v>
+          </cell>
+          <cell r="P64">
+            <v>231.32</v>
+          </cell>
+          <cell r="Q64">
+            <v>29.2</v>
+          </cell>
+          <cell r="U64">
+            <v>13.024657534246575</v>
+          </cell>
+          <cell r="V64">
+            <v>13.024657534246575</v>
+          </cell>
+          <cell r="W64">
+            <v>42.4</v>
+          </cell>
+          <cell r="X64">
+            <v>27</v>
+          </cell>
+          <cell r="Y64">
+            <v>20</v>
+          </cell>
+          <cell r="Z64">
+            <v>9.4</v>
+          </cell>
+          <cell r="AA64">
+            <v>2.6</v>
+          </cell>
+          <cell r="AB64">
+            <v>32</v>
+          </cell>
+          <cell r="AC64">
+            <v>32</v>
+          </cell>
+          <cell r="AD64">
+            <v>14</v>
+          </cell>
+          <cell r="AE64">
+            <v>14</v>
+          </cell>
+          <cell r="AF64">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="AG64" t="str">
+            <v>Мера / заказываем с 30,05,25</v>
+          </cell>
+          <cell r="AH64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v xml:space="preserve"> 396  Сардельки Филейские Вязанка ТМ Вязанка в оболочке NDX  0,4 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G65">
+            <v>0</v>
+          </cell>
+          <cell r="H65">
+            <v>30</v>
+          </cell>
+          <cell r="I65" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L65">
+            <v>0</v>
+          </cell>
+          <cell r="P65">
+            <v>0</v>
+          </cell>
+          <cell r="Q65">
+            <v>0</v>
+          </cell>
+          <cell r="U65" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V65" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W65">
+            <v>0</v>
+          </cell>
+          <cell r="X65">
+            <v>0</v>
+          </cell>
+          <cell r="Y65">
+            <v>0</v>
+          </cell>
+          <cell r="Z65">
+            <v>0</v>
+          </cell>
+          <cell r="AA65">
+            <v>0</v>
+          </cell>
+          <cell r="AB65">
+            <v>0</v>
+          </cell>
+          <cell r="AC65">
+            <v>0</v>
+          </cell>
+          <cell r="AD65">
+            <v>0</v>
+          </cell>
+          <cell r="AE65">
+            <v>0</v>
+          </cell>
+          <cell r="AF65">
+            <v>0</v>
+          </cell>
+          <cell r="AG65" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v xml:space="preserve"> 397  Ветчина Дугушка ТМ Стародворье ТС Дугушка в полиамидной оболочке 0,6 кг. ПОКОМ</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G66">
+            <v>0</v>
+          </cell>
+          <cell r="H66">
+            <v>55</v>
+          </cell>
+          <cell r="I66" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L66">
+            <v>0</v>
+          </cell>
+          <cell r="P66">
+            <v>0</v>
+          </cell>
+          <cell r="Q66">
+            <v>0</v>
+          </cell>
+          <cell r="U66" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V66" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W66">
+            <v>0</v>
+          </cell>
+          <cell r="X66">
+            <v>0</v>
+          </cell>
+          <cell r="Y66">
+            <v>0</v>
+          </cell>
+          <cell r="Z66">
+            <v>0</v>
+          </cell>
+          <cell r="AA66">
+            <v>0</v>
+          </cell>
+          <cell r="AB66">
+            <v>0</v>
+          </cell>
+          <cell r="AC66">
+            <v>0</v>
+          </cell>
+          <cell r="AD66">
+            <v>0</v>
+          </cell>
+          <cell r="AE66">
+            <v>0</v>
+          </cell>
+          <cell r="AF66">
+            <v>0</v>
+          </cell>
+          <cell r="AG66" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v xml:space="preserve"> 397 Сосиски Сливочные по-стародворски Бордо Фикс.вес 0,45 П/а мгс Стародворье  Поком</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G67">
+            <v>0</v>
+          </cell>
+          <cell r="H67">
+            <v>40</v>
+          </cell>
+          <cell r="I67" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L67">
+            <v>0</v>
+          </cell>
+          <cell r="P67">
+            <v>0</v>
+          </cell>
+          <cell r="Q67">
+            <v>0</v>
+          </cell>
+          <cell r="U67" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V67" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W67">
+            <v>0</v>
+          </cell>
+          <cell r="X67">
+            <v>0</v>
+          </cell>
+          <cell r="Y67">
+            <v>0</v>
+          </cell>
+          <cell r="Z67">
+            <v>0</v>
+          </cell>
+          <cell r="AA67">
+            <v>0</v>
+          </cell>
+          <cell r="AB67">
+            <v>0</v>
+          </cell>
+          <cell r="AC67">
+            <v>0</v>
+          </cell>
+          <cell r="AD67">
+            <v>0</v>
+          </cell>
+          <cell r="AE67">
+            <v>0</v>
+          </cell>
+          <cell r="AF67">
+            <v>0</v>
+          </cell>
+          <cell r="AG67" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v xml:space="preserve"> 408  Ветчина Сливушка с индейкой ТМ Вязанка, 0,4кг  ПОКОМ</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C68">
+            <v>4</v>
+          </cell>
+          <cell r="D68">
+            <v>180</v>
+          </cell>
+          <cell r="E68">
+            <v>97</v>
+          </cell>
+          <cell r="F68">
+            <v>73</v>
+          </cell>
+          <cell r="G68">
+            <v>0.4</v>
+          </cell>
+          <cell r="H68">
+            <v>50</v>
+          </cell>
+          <cell r="I68" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K68">
+            <v>101</v>
+          </cell>
+          <cell r="L68">
+            <v>-4</v>
+          </cell>
+          <cell r="O68">
+            <v>40.199999999999989</v>
+          </cell>
+          <cell r="P68">
+            <v>33.800000000000011</v>
+          </cell>
+          <cell r="Q68">
+            <v>19.399999999999999</v>
+          </cell>
+          <cell r="R68">
+            <v>66.399999999999977</v>
+          </cell>
+          <cell r="U68">
+            <v>11</v>
+          </cell>
+          <cell r="V68">
+            <v>7.5773195876288666</v>
+          </cell>
+          <cell r="W68">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="X68">
+            <v>19.2</v>
+          </cell>
+          <cell r="Y68">
+            <v>19.2</v>
+          </cell>
+          <cell r="Z68">
+            <v>19</v>
+          </cell>
+          <cell r="AA68">
+            <v>15.6</v>
+          </cell>
+          <cell r="AB68">
+            <v>17.2</v>
+          </cell>
+          <cell r="AC68">
+            <v>20.6</v>
+          </cell>
+          <cell r="AD68">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="AE68">
+            <v>17.600000000000001</v>
+          </cell>
+          <cell r="AF68">
+            <v>18.8</v>
+          </cell>
+          <cell r="AH68">
+            <v>26.559999999999992</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v xml:space="preserve"> 435  Колбаса Молочная Стародворская  с молоком в оболочке полиамид 0,4 кг.ТМ Стародворье ПОКОМ</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C69">
+            <v>43</v>
+          </cell>
+          <cell r="D69">
+            <v>100</v>
+          </cell>
+          <cell r="E69">
+            <v>63</v>
+          </cell>
+          <cell r="F69">
+            <v>55</v>
+          </cell>
+          <cell r="G69">
+            <v>0.4</v>
+          </cell>
+          <cell r="H69">
+            <v>55</v>
+          </cell>
+          <cell r="I69" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K69">
+            <v>65</v>
+          </cell>
+          <cell r="L69">
+            <v>-2</v>
+          </cell>
+          <cell r="P69">
+            <v>60</v>
+          </cell>
+          <cell r="Q69">
+            <v>12.6</v>
+          </cell>
+          <cell r="R69">
+            <v>23.599999999999994</v>
+          </cell>
+          <cell r="U69">
+            <v>11</v>
+          </cell>
+          <cell r="V69">
+            <v>9.1269841269841265</v>
+          </cell>
+          <cell r="W69">
+            <v>14</v>
+          </cell>
+          <cell r="X69">
+            <v>10.199999999999999</v>
+          </cell>
+          <cell r="Y69">
+            <v>7.8</v>
+          </cell>
+          <cell r="Z69">
+            <v>16</v>
+          </cell>
+          <cell r="AA69">
+            <v>16.2</v>
+          </cell>
+          <cell r="AB69">
+            <v>15.2</v>
+          </cell>
+          <cell r="AC69">
+            <v>14.6</v>
+          </cell>
+          <cell r="AD69">
+            <v>16.600000000000001</v>
+          </cell>
+          <cell r="AE69">
+            <v>19.600000000000001</v>
+          </cell>
+          <cell r="AF69">
+            <v>18.399999999999999</v>
+          </cell>
+          <cell r="AH69">
+            <v>9.4399999999999977</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v xml:space="preserve"> 436  Колбаса Молочная стародворская с молоком, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C70">
+            <v>10.041</v>
+          </cell>
+          <cell r="D70">
+            <v>11.55</v>
+          </cell>
+          <cell r="E70">
+            <v>5.2240000000000002</v>
+          </cell>
+          <cell r="F70">
+            <v>15.817</v>
+          </cell>
+          <cell r="G70">
+            <v>1</v>
+          </cell>
+          <cell r="H70">
+            <v>55</v>
+          </cell>
+          <cell r="I70" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K70">
+            <v>5.9</v>
+          </cell>
+          <cell r="L70">
+            <v>-0.67600000000000016</v>
+          </cell>
+          <cell r="O70">
+            <v>5.356600000000002</v>
+          </cell>
+          <cell r="P70">
+            <v>0</v>
+          </cell>
+          <cell r="Q70">
+            <v>1.0448</v>
+          </cell>
+          <cell r="U70">
+            <v>20.265696784073508</v>
+          </cell>
+          <cell r="V70">
+            <v>20.265696784073508</v>
+          </cell>
+          <cell r="W70">
+            <v>1.6252</v>
+          </cell>
+          <cell r="X70">
+            <v>1.7403999999999999</v>
+          </cell>
+          <cell r="Y70">
+            <v>0.87119999999999997</v>
+          </cell>
+          <cell r="Z70">
+            <v>0.86720000000000008</v>
+          </cell>
+          <cell r="AA70">
+            <v>2.3128000000000002</v>
+          </cell>
+          <cell r="AB70">
+            <v>2.0251999999999999</v>
+          </cell>
+          <cell r="AC70">
+            <v>1.7256</v>
+          </cell>
+          <cell r="AD70">
+            <v>1.7192000000000001</v>
+          </cell>
+          <cell r="AE70">
+            <v>0.85760000000000003</v>
+          </cell>
+          <cell r="AF70">
+            <v>1.8264</v>
+          </cell>
+          <cell r="AG70" t="str">
+            <v>нужно увеличить продажи</v>
+          </cell>
+          <cell r="AH70">
+            <v>0</v>
+          </cell>
+          <cell r="AJ70" t="str">
+            <v>SU003273</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v xml:space="preserve"> 445  Колбаса Краковюрст ТМ Баварушка рубленая в оболочке черева в в.у 0,2 кг ПОКОМ</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="G71">
+            <v>0</v>
+          </cell>
+          <cell r="H71">
+            <v>40</v>
+          </cell>
+          <cell r="I71" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L71">
+            <v>0</v>
+          </cell>
+          <cell r="P71">
+            <v>0</v>
+          </cell>
+          <cell r="Q71">
+            <v>0</v>
+          </cell>
+          <cell r="U71" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V71" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W71">
+            <v>0</v>
+          </cell>
+          <cell r="X71">
+            <v>0</v>
+          </cell>
+          <cell r="Y71">
+            <v>0</v>
+          </cell>
+          <cell r="Z71">
+            <v>0</v>
+          </cell>
+          <cell r="AA71">
+            <v>0</v>
+          </cell>
+          <cell r="AB71">
+            <v>0</v>
+          </cell>
+          <cell r="AC71">
+            <v>0</v>
+          </cell>
+          <cell r="AD71">
+            <v>0</v>
+          </cell>
+          <cell r="AE71">
+            <v>-0.4</v>
+          </cell>
+          <cell r="AF71">
+            <v>-0.4</v>
+          </cell>
+          <cell r="AG71" t="str">
+            <v>нет потребности / 13,06,25 в уценку 9 шт./ 26,04,25 списание 11шт (недостача)</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v xml:space="preserve"> 447  Колбаски Краковюрст ТМ Баварушка с изысканными пряностями в оболочке NDX в в.у 0,2 кг. ПОКОМ </v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C72">
+            <v>35</v>
+          </cell>
+          <cell r="D72">
+            <v>12</v>
+          </cell>
+          <cell r="E72">
+            <v>33</v>
+          </cell>
+          <cell r="F72">
+            <v>13</v>
+          </cell>
+          <cell r="G72">
+            <v>0.2</v>
+          </cell>
+          <cell r="H72">
+            <v>35</v>
+          </cell>
+          <cell r="I72" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K72">
+            <v>49</v>
+          </cell>
+          <cell r="L72">
+            <v>-16</v>
+          </cell>
+          <cell r="O72">
+            <v>32</v>
+          </cell>
+          <cell r="P72">
+            <v>46</v>
+          </cell>
+          <cell r="Q72">
+            <v>6.6</v>
+          </cell>
+          <cell r="U72">
+            <v>13.787878787878789</v>
+          </cell>
+          <cell r="V72">
+            <v>13.787878787878789</v>
+          </cell>
+          <cell r="W72">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="X72">
+            <v>7.6</v>
+          </cell>
+          <cell r="Y72">
+            <v>6</v>
+          </cell>
+          <cell r="Z72">
+            <v>1.4</v>
+          </cell>
+          <cell r="AA72">
+            <v>1.6</v>
+          </cell>
+          <cell r="AB72">
+            <v>8.6</v>
+          </cell>
+          <cell r="AC72">
+            <v>6.8</v>
+          </cell>
+          <cell r="AD72">
+            <v>-1</v>
+          </cell>
+          <cell r="AE72">
+            <v>0.8</v>
+          </cell>
+          <cell r="AF72">
+            <v>20</v>
+          </cell>
+          <cell r="AG72" t="str">
+            <v>Мера</v>
+          </cell>
+          <cell r="AH72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v xml:space="preserve"> 449  Колбаса Дугушка Стародворская ВЕС ТС Дугушка ПОКОМ</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C73">
+            <v>148.036</v>
+          </cell>
+          <cell r="E73">
+            <v>99.707999999999998</v>
+          </cell>
+          <cell r="F73">
+            <v>36.088000000000001</v>
+          </cell>
+          <cell r="G73">
+            <v>1</v>
+          </cell>
+          <cell r="H73">
+            <v>60</v>
+          </cell>
+          <cell r="I73" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K73">
+            <v>99.44</v>
+          </cell>
+          <cell r="L73">
+            <v>0.26800000000000068</v>
+          </cell>
+          <cell r="P73">
+            <v>124.508</v>
+          </cell>
+          <cell r="Q73">
+            <v>19.941600000000001</v>
+          </cell>
+          <cell r="R73">
+            <v>78.70320000000001</v>
+          </cell>
+          <cell r="U73">
+            <v>12</v>
+          </cell>
+          <cell r="V73">
+            <v>8.0533156817908296</v>
+          </cell>
+          <cell r="W73">
+            <v>18.091999999999999</v>
+          </cell>
+          <cell r="X73">
+            <v>12.376799999999999</v>
+          </cell>
+          <cell r="Y73">
+            <v>12.213200000000001</v>
+          </cell>
+          <cell r="Z73">
+            <v>14.264200000000001</v>
+          </cell>
+          <cell r="AA73">
+            <v>15.787800000000001</v>
+          </cell>
+          <cell r="AB73">
+            <v>15.267799999999999</v>
+          </cell>
+          <cell r="AC73">
+            <v>14.351599999999999</v>
+          </cell>
+          <cell r="AD73">
+            <v>23.482600000000001</v>
+          </cell>
+          <cell r="AE73">
+            <v>24.74</v>
+          </cell>
+          <cell r="AF73">
+            <v>14.577199999999999</v>
+          </cell>
+          <cell r="AG73" t="str">
+            <v>ТМА июль_август</v>
+          </cell>
+          <cell r="AH73">
+            <v>78.70320000000001</v>
+          </cell>
+          <cell r="AJ73" t="str">
+            <v>SU002634</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v xml:space="preserve"> 452  Колбаса Со шпиком ВЕС большой батон ТМ Особый рецепт  ПОКОМ</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C74">
+            <v>140.17699999999999</v>
+          </cell>
+          <cell r="D74">
+            <v>658.80499999999995</v>
+          </cell>
+          <cell r="E74">
+            <v>324.70100000000002</v>
+          </cell>
+          <cell r="F74">
+            <v>386.88</v>
+          </cell>
+          <cell r="G74">
+            <v>1</v>
+          </cell>
+          <cell r="H74">
+            <v>60</v>
+          </cell>
+          <cell r="I74" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K74">
+            <v>326</v>
+          </cell>
+          <cell r="L74">
+            <v>-1.2989999999999782</v>
+          </cell>
+          <cell r="O74">
+            <v>4</v>
+          </cell>
+          <cell r="P74">
+            <v>128.12664000000009</v>
+          </cell>
+          <cell r="Q74">
+            <v>64.940200000000004</v>
+          </cell>
+          <cell r="R74">
+            <v>195.33555999999999</v>
+          </cell>
+          <cell r="U74">
+            <v>11</v>
+          </cell>
+          <cell r="V74">
+            <v>7.9920702430851769</v>
+          </cell>
+          <cell r="W74">
+            <v>66.274799999999999</v>
+          </cell>
+          <cell r="X74">
+            <v>69.089399999999998</v>
+          </cell>
+          <cell r="Y74">
+            <v>72.679400000000001</v>
+          </cell>
+          <cell r="Z74">
+            <v>76.860199999999992</v>
+          </cell>
+          <cell r="AA74">
+            <v>100.41800000000001</v>
+          </cell>
+          <cell r="AB74">
+            <v>94.379600000000011</v>
+          </cell>
+          <cell r="AC74">
+            <v>80.987400000000008</v>
+          </cell>
+          <cell r="AD74">
+            <v>98.933199999999999</v>
+          </cell>
+          <cell r="AE74">
+            <v>119.5502</v>
+          </cell>
+          <cell r="AF74">
+            <v>120.8832</v>
+          </cell>
+          <cell r="AG74" t="str">
+            <v>ТМА июнь</v>
+          </cell>
+          <cell r="AH74">
+            <v>195.33555999999999</v>
+          </cell>
+          <cell r="AJ74" t="str">
+            <v>SU003423</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v xml:space="preserve"> 456  Колбаса Филейная ТМ Особый рецепт ВЕС большой батон  ПОКОМ</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C75">
+            <v>116.414</v>
+          </cell>
+          <cell r="D75">
+            <v>921.93499999999995</v>
+          </cell>
+          <cell r="E75">
+            <v>276.238</v>
+          </cell>
+          <cell r="F75">
+            <v>665.12099999999998</v>
+          </cell>
+          <cell r="G75">
+            <v>1</v>
+          </cell>
+          <cell r="H75">
+            <v>60</v>
+          </cell>
+          <cell r="I75" t="str">
+            <v>ВНИМАНИЕ / матрица</v>
+          </cell>
+          <cell r="K75">
+            <v>277</v>
+          </cell>
+          <cell r="L75">
+            <v>-0.76200000000000045</v>
+          </cell>
+          <cell r="P75">
+            <v>0</v>
+          </cell>
+          <cell r="Q75">
+            <v>55.247599999999998</v>
+          </cell>
+          <cell r="U75">
+            <v>12.038912097539079</v>
+          </cell>
+          <cell r="V75">
+            <v>12.038912097539079</v>
+          </cell>
+          <cell r="W75">
+            <v>67.212199999999996</v>
+          </cell>
+          <cell r="X75">
+            <v>78.841999999999999</v>
+          </cell>
+          <cell r="Y75">
+            <v>78.359400000000008</v>
+          </cell>
+          <cell r="Z75">
+            <v>81.408399999999887</v>
+          </cell>
+          <cell r="AA75">
+            <v>93.769199999999998</v>
+          </cell>
+          <cell r="AB75">
+            <v>91.756200000000007</v>
+          </cell>
+          <cell r="AC75">
+            <v>91.648599999999988</v>
+          </cell>
+          <cell r="AD75">
+            <v>114.00920000000001</v>
+          </cell>
+          <cell r="AE75">
+            <v>125.3982</v>
+          </cell>
+          <cell r="AF75">
+            <v>149.44499999999999</v>
+          </cell>
+          <cell r="AG75" t="str">
+            <v>ТМА август</v>
+          </cell>
+          <cell r="AH75">
+            <v>0</v>
+          </cell>
+          <cell r="AJ75" t="str">
+            <v>SU003420</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v xml:space="preserve"> 457  Колбаса Молочная ТМ Особый рецепт ВЕС большой батон  ПОКОМ</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C76">
+            <v>623.495</v>
+          </cell>
+          <cell r="D76">
+            <v>1041.2260000000001</v>
+          </cell>
+          <cell r="E76">
+            <v>646.90300000000002</v>
+          </cell>
+          <cell r="F76">
+            <v>899.702</v>
+          </cell>
+          <cell r="G76">
+            <v>1</v>
+          </cell>
+          <cell r="H76">
+            <v>60</v>
+          </cell>
+          <cell r="I76" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K76">
+            <v>657</v>
+          </cell>
+          <cell r="L76">
+            <v>-10.09699999999998</v>
+          </cell>
+          <cell r="O76">
+            <v>193.96500000000009</v>
+          </cell>
+          <cell r="P76">
+            <v>342.45740000000001</v>
+          </cell>
+          <cell r="Q76">
+            <v>129.38060000000002</v>
+          </cell>
+          <cell r="R76">
+            <v>116.44280000000003</v>
+          </cell>
+          <cell r="U76">
+            <v>12</v>
+          </cell>
+          <cell r="V76">
+            <v>11.099997990425148</v>
+          </cell>
+          <cell r="W76">
+            <v>152.09800000000001</v>
+          </cell>
+          <cell r="X76">
+            <v>158.20060000000001</v>
+          </cell>
+          <cell r="Y76">
+            <v>141.90180000000001</v>
+          </cell>
+          <cell r="Z76">
+            <v>150.96219999999991</v>
+          </cell>
+          <cell r="AA76">
+            <v>158.00399999999999</v>
+          </cell>
+          <cell r="AB76">
+            <v>130.19059999999999</v>
+          </cell>
+          <cell r="AC76">
+            <v>135.84559999999999</v>
+          </cell>
+          <cell r="AD76">
+            <v>174.24619999999999</v>
+          </cell>
+          <cell r="AE76">
+            <v>179.3938</v>
+          </cell>
+          <cell r="AF76">
+            <v>74.373199999999997</v>
+          </cell>
+          <cell r="AG76" t="str">
+            <v>ТМА июль_август</v>
+          </cell>
+          <cell r="AH76">
+            <v>116.44280000000003</v>
+          </cell>
+          <cell r="AJ76" t="str">
+            <v>SU003422</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v xml:space="preserve"> 460  Колбаса Стародворская Традиционная ВЕС ТМ Стародворье в оболочке полиамид. ПОКОМ</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C77">
+            <v>6.8029999999999999</v>
+          </cell>
+          <cell r="F77">
+            <v>6.8029999999999999</v>
+          </cell>
+          <cell r="G77">
+            <v>1</v>
+          </cell>
+          <cell r="H77">
+            <v>55</v>
+          </cell>
+          <cell r="I77" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L77">
+            <v>0</v>
+          </cell>
+          <cell r="O77">
+            <v>8.0206000000000017</v>
+          </cell>
+          <cell r="P77">
+            <v>0</v>
+          </cell>
+          <cell r="Q77">
+            <v>0</v>
+          </cell>
+          <cell r="U77" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V77" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W77">
+            <v>1.0791999999999999</v>
+          </cell>
+          <cell r="X77">
+            <v>1.3475999999999999</v>
+          </cell>
+          <cell r="Y77">
+            <v>0.53400000000000003</v>
+          </cell>
+          <cell r="Z77">
+            <v>-3.2000000000000002E-3</v>
+          </cell>
+          <cell r="AA77">
+            <v>0.5252</v>
+          </cell>
+          <cell r="AB77">
+            <v>1.3284</v>
+          </cell>
+          <cell r="AC77">
+            <v>1.0680000000000001</v>
+          </cell>
+          <cell r="AD77">
+            <v>1.0676000000000001</v>
+          </cell>
+          <cell r="AE77">
+            <v>0.8</v>
+          </cell>
+          <cell r="AF77">
+            <v>0.53520000000000001</v>
+          </cell>
+          <cell r="AG77" t="str">
+            <v>нужно увеличить продажи!!!</v>
+          </cell>
+          <cell r="AH77">
+            <v>0</v>
+          </cell>
+          <cell r="AJ77" t="str">
+            <v>SU003392</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v xml:space="preserve"> 463  Колбаса Молочная Традиционнаяв оболочке полиамид.ТМ Стародворье. ВЕС ПОКОМ</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C78">
+            <v>28.26</v>
+          </cell>
+          <cell r="E78">
+            <v>6.7160000000000002</v>
+          </cell>
+          <cell r="F78">
+            <v>21.544</v>
+          </cell>
+          <cell r="G78">
+            <v>1</v>
+          </cell>
+          <cell r="H78">
+            <v>55</v>
+          </cell>
+          <cell r="I78" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K78">
+            <v>7</v>
+          </cell>
+          <cell r="L78">
+            <v>-0.28399999999999981</v>
+          </cell>
+          <cell r="P78">
+            <v>0</v>
+          </cell>
+          <cell r="Q78">
+            <v>1.3431999999999999</v>
+          </cell>
+          <cell r="U78">
+            <v>16.039309112567004</v>
+          </cell>
+          <cell r="V78">
+            <v>16.039309112567004</v>
+          </cell>
+          <cell r="W78">
+            <v>0.80399999999999994</v>
+          </cell>
+          <cell r="X78">
+            <v>-8.0000000000000004E-4</v>
+          </cell>
+          <cell r="Y78">
+            <v>0.26960000000000001</v>
+          </cell>
+          <cell r="Z78">
+            <v>0.26960000000000001</v>
+          </cell>
+          <cell r="AA78">
+            <v>0.26640000000000003</v>
+          </cell>
+          <cell r="AB78">
+            <v>0.53839999999999999</v>
+          </cell>
+          <cell r="AC78">
+            <v>1.0788</v>
+          </cell>
+          <cell r="AD78">
+            <v>2.1507999999999998</v>
+          </cell>
+          <cell r="AE78">
+            <v>1.6120000000000001</v>
+          </cell>
+          <cell r="AF78">
+            <v>0.53600000000000003</v>
+          </cell>
+          <cell r="AG78" t="str">
+            <v>нужно увеличить продажи!!!</v>
+          </cell>
+          <cell r="AH78">
+            <v>0</v>
+          </cell>
+          <cell r="AJ78" t="str">
+            <v>SU003394</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v xml:space="preserve"> 464  Колбаса Стародворская Традиционная со шпиком оболочке полиамид ТМ Стародворье.</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C79">
+            <v>17.670000000000002</v>
+          </cell>
+          <cell r="F79">
+            <v>17.670000000000002</v>
+          </cell>
+          <cell r="G79">
+            <v>1</v>
+          </cell>
+          <cell r="H79">
+            <v>55</v>
+          </cell>
+          <cell r="I79" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L79">
+            <v>0</v>
+          </cell>
+          <cell r="P79">
+            <v>0</v>
+          </cell>
+          <cell r="Q79">
+            <v>0</v>
+          </cell>
+          <cell r="U79" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V79" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W79">
+            <v>0.53559999999999997</v>
+          </cell>
+          <cell r="X79">
+            <v>0.80600000000000005</v>
+          </cell>
+          <cell r="Y79">
+            <v>0.27039999999999997</v>
+          </cell>
+          <cell r="Z79">
+            <v>0</v>
+          </cell>
+          <cell r="AA79">
+            <v>0</v>
+          </cell>
+          <cell r="AB79">
+            <v>0</v>
+          </cell>
+          <cell r="AC79">
+            <v>0.80679999999999996</v>
+          </cell>
+          <cell r="AD79">
+            <v>1.0728</v>
+          </cell>
+          <cell r="AE79">
+            <v>0.26600000000000001</v>
+          </cell>
+          <cell r="AF79">
+            <v>0.79600000000000004</v>
+          </cell>
+          <cell r="AG79" t="str">
+            <v>нужно увеличить продажи!!!</v>
+          </cell>
+          <cell r="AH79">
+            <v>0</v>
+          </cell>
+          <cell r="AJ79" t="str">
+            <v>SU003396</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v xml:space="preserve"> 465  Колбаса Филейная оригинальная ТМ Особый рецепт в оболочке полиамид. ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="G80">
+            <v>0</v>
+          </cell>
+          <cell r="H80">
+            <v>60</v>
+          </cell>
+          <cell r="I80" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L80">
+            <v>0</v>
+          </cell>
+          <cell r="P80">
+            <v>0</v>
+          </cell>
+          <cell r="Q80">
+            <v>0</v>
+          </cell>
+          <cell r="U80" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V80" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W80">
+            <v>0</v>
+          </cell>
+          <cell r="X80">
+            <v>0</v>
+          </cell>
+          <cell r="Y80">
+            <v>0</v>
+          </cell>
+          <cell r="Z80">
+            <v>0</v>
+          </cell>
+          <cell r="AA80">
+            <v>0</v>
+          </cell>
+          <cell r="AB80">
+            <v>0</v>
+          </cell>
+          <cell r="AC80">
+            <v>0</v>
+          </cell>
+          <cell r="AD80">
+            <v>0</v>
+          </cell>
+          <cell r="AE80">
+            <v>0</v>
+          </cell>
+          <cell r="AF80">
+            <v>0</v>
+          </cell>
+          <cell r="AG80" t="str">
+            <v>нет потребности</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v xml:space="preserve"> 490  Колбаса Сервелат Филейский ТМ Вязанка  0,3 кг. срез  ПОКОМ</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C81">
+            <v>71</v>
+          </cell>
+          <cell r="D81">
+            <v>114</v>
+          </cell>
+          <cell r="E81">
+            <v>90</v>
+          </cell>
+          <cell r="F81">
+            <v>74</v>
+          </cell>
+          <cell r="G81">
+            <v>0.3</v>
+          </cell>
+          <cell r="H81">
+            <v>40</v>
+          </cell>
+          <cell r="I81" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K81">
+            <v>91</v>
+          </cell>
+          <cell r="L81">
+            <v>-1</v>
+          </cell>
+          <cell r="P81">
+            <v>65</v>
+          </cell>
+          <cell r="Q81">
+            <v>18</v>
+          </cell>
+          <cell r="R81">
+            <v>59</v>
+          </cell>
+          <cell r="U81">
+            <v>11</v>
+          </cell>
+          <cell r="V81">
+            <v>7.7222222222222223</v>
+          </cell>
+          <cell r="W81">
+            <v>17.2</v>
+          </cell>
+          <cell r="X81">
+            <v>5.2</v>
+          </cell>
+          <cell r="Y81">
+            <v>8.8000000000000007</v>
+          </cell>
+          <cell r="Z81">
+            <v>19</v>
+          </cell>
+          <cell r="AA81">
+            <v>15.8</v>
+          </cell>
+          <cell r="AB81">
+            <v>6.2</v>
+          </cell>
+          <cell r="AC81">
+            <v>6.4</v>
+          </cell>
+          <cell r="AD81">
+            <v>20.2</v>
+          </cell>
+          <cell r="AE81">
+            <v>18.600000000000001</v>
+          </cell>
+          <cell r="AF81">
+            <v>7.8</v>
+          </cell>
+          <cell r="AH81">
+            <v>17.7</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v xml:space="preserve"> 491  Колбаса Филейская Рубленая ТМ Вязанка  0,3 кг. срез.  ПОКОМ</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C82">
+            <v>108</v>
+          </cell>
+          <cell r="D82">
+            <v>6</v>
+          </cell>
+          <cell r="E82">
+            <v>105</v>
+          </cell>
+          <cell r="F82">
+            <v>4</v>
+          </cell>
+          <cell r="G82">
+            <v>0.3</v>
+          </cell>
+          <cell r="H82">
+            <v>40</v>
+          </cell>
+          <cell r="I82" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K82">
+            <v>113</v>
+          </cell>
+          <cell r="L82">
+            <v>-8</v>
+          </cell>
+          <cell r="P82">
+            <v>100</v>
+          </cell>
+          <cell r="Q82">
+            <v>21</v>
+          </cell>
+          <cell r="R82">
+            <v>127</v>
+          </cell>
+          <cell r="U82">
+            <v>11</v>
+          </cell>
+          <cell r="V82">
+            <v>4.9523809523809526</v>
+          </cell>
+          <cell r="W82">
+            <v>18</v>
+          </cell>
+          <cell r="X82">
+            <v>5.2</v>
+          </cell>
+          <cell r="Y82">
+            <v>4</v>
+          </cell>
+          <cell r="Z82">
+            <v>5.4</v>
+          </cell>
+          <cell r="AA82">
+            <v>9</v>
+          </cell>
+          <cell r="AB82">
+            <v>15</v>
+          </cell>
+          <cell r="AC82">
+            <v>9</v>
+          </cell>
+          <cell r="AD82">
+            <v>10.4</v>
+          </cell>
+          <cell r="AE82">
+            <v>12.6</v>
+          </cell>
+          <cell r="AF82">
+            <v>20.399999999999999</v>
+          </cell>
+          <cell r="AH82">
+            <v>38.1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v xml:space="preserve"> 498  Колбаса Сочинка рубленая с сочным окороком 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C83">
+            <v>37</v>
+          </cell>
+          <cell r="D83">
+            <v>54</v>
+          </cell>
+          <cell r="E83">
+            <v>60</v>
+          </cell>
+          <cell r="F83">
+            <v>23</v>
+          </cell>
+          <cell r="G83">
+            <v>0.3</v>
+          </cell>
+          <cell r="H83">
+            <v>40</v>
+          </cell>
+          <cell r="I83" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K83">
+            <v>63</v>
+          </cell>
+          <cell r="L83">
+            <v>-3</v>
+          </cell>
+          <cell r="O83">
+            <v>28.199999999999989</v>
+          </cell>
+          <cell r="P83">
+            <v>51.4</v>
+          </cell>
+          <cell r="Q83">
+            <v>12</v>
+          </cell>
+          <cell r="R83">
+            <v>29.400000000000006</v>
+          </cell>
+          <cell r="U83">
+            <v>11</v>
+          </cell>
+          <cell r="V83">
+            <v>8.5499999999999989</v>
+          </cell>
+          <cell r="W83">
+            <v>11.4</v>
+          </cell>
+          <cell r="X83">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="Y83">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="Z83">
+            <v>8.1999999999999993</v>
+          </cell>
+          <cell r="AA83">
+            <v>8.4</v>
+          </cell>
+          <cell r="AB83">
+            <v>10.6</v>
+          </cell>
+          <cell r="AC83">
+            <v>12.4</v>
+          </cell>
+          <cell r="AD83">
+            <v>10.4</v>
+          </cell>
+          <cell r="AE83">
+            <v>10.4</v>
+          </cell>
+          <cell r="AF83">
+            <v>12.8</v>
+          </cell>
+          <cell r="AH83">
+            <v>8.8200000000000021</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>090  Мини-салями со вкусом бекона,  0.05кг, ядрена копоть   ПОКОМ</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C84">
+            <v>1</v>
+          </cell>
+          <cell r="F84">
+            <v>1</v>
+          </cell>
+          <cell r="G84">
+            <v>0.05</v>
+          </cell>
+          <cell r="H84">
+            <v>120</v>
+          </cell>
+          <cell r="I84" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L84">
+            <v>0</v>
+          </cell>
+          <cell r="O84">
+            <v>8</v>
+          </cell>
+          <cell r="P84">
+            <v>5</v>
+          </cell>
+          <cell r="Q84">
+            <v>0</v>
+          </cell>
+          <cell r="R84">
+            <v>8</v>
+          </cell>
+          <cell r="U84" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V84" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W84">
+            <v>1.4</v>
+          </cell>
+          <cell r="X84">
+            <v>1.6</v>
+          </cell>
+          <cell r="Y84">
+            <v>1.4</v>
+          </cell>
+          <cell r="Z84">
+            <v>1.6</v>
+          </cell>
+          <cell r="AA84">
+            <v>1</v>
+          </cell>
+          <cell r="AB84">
+            <v>0.8</v>
+          </cell>
+          <cell r="AC84">
+            <v>2.6</v>
+          </cell>
+          <cell r="AD84">
+            <v>2.6</v>
+          </cell>
+          <cell r="AE84">
+            <v>1.8</v>
+          </cell>
+          <cell r="AF84">
+            <v>1.6</v>
+          </cell>
+          <cell r="AH84">
+            <v>0.4</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>255  Сосиски Молочные для завтрака ТМ Особый рецепт, п/а МГС, ВЕС, ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C85">
+            <v>395.27800000000002</v>
+          </cell>
+          <cell r="D85">
+            <v>330.04</v>
+          </cell>
+          <cell r="E85">
+            <v>504.88600000000002</v>
+          </cell>
+          <cell r="F85">
+            <v>163.15299999999999</v>
+          </cell>
+          <cell r="G85">
+            <v>1</v>
+          </cell>
+          <cell r="H85">
+            <v>40</v>
+          </cell>
+          <cell r="I85" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K85">
+            <v>455</v>
+          </cell>
+          <cell r="L85">
+            <v>49.886000000000024</v>
+          </cell>
+          <cell r="O85">
+            <v>141.3372</v>
+          </cell>
+          <cell r="P85">
+            <v>657.67190000000005</v>
+          </cell>
+          <cell r="Q85">
+            <v>100.97720000000001</v>
+          </cell>
+          <cell r="R85">
+            <v>249.56429999999997</v>
+          </cell>
+          <cell r="U85">
+            <v>11.999999999999998</v>
+          </cell>
+          <cell r="V85">
+            <v>9.5285084157611806</v>
+          </cell>
+          <cell r="W85">
+            <v>100.25700000000001</v>
+          </cell>
+          <cell r="X85">
+            <v>74.032200000000003</v>
+          </cell>
+          <cell r="Y85">
+            <v>68.753200000000007</v>
+          </cell>
+          <cell r="Z85">
+            <v>83.736999999999995</v>
+          </cell>
+          <cell r="AA85">
+            <v>89.46520000000001</v>
+          </cell>
+          <cell r="AB85">
+            <v>77.991399999999999</v>
+          </cell>
+          <cell r="AC85">
+            <v>82.013200000000012</v>
+          </cell>
+          <cell r="AD85">
+            <v>109.3326</v>
+          </cell>
+          <cell r="AE85">
+            <v>106.2696</v>
+          </cell>
+          <cell r="AF85">
+            <v>94.362200000000001</v>
+          </cell>
+          <cell r="AG85" t="str">
+            <v>ТМА июль_август</v>
+          </cell>
+          <cell r="AH85">
+            <v>249.56429999999997</v>
+          </cell>
+          <cell r="AJ85" t="str">
+            <v>SU002074</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>495  Колбаса Сочинка по-европейски с сочной грудинкой 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C86">
+            <v>4</v>
+          </cell>
+          <cell r="D86">
+            <v>144</v>
+          </cell>
+          <cell r="E86">
+            <v>120</v>
+          </cell>
+          <cell r="F86">
+            <v>24</v>
+          </cell>
+          <cell r="G86">
+            <v>0.3</v>
+          </cell>
+          <cell r="H86">
+            <v>40</v>
+          </cell>
+          <cell r="I86" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K86">
+            <v>131</v>
+          </cell>
+          <cell r="L86">
+            <v>-11</v>
+          </cell>
+          <cell r="P86">
+            <v>104</v>
+          </cell>
+          <cell r="Q86">
+            <v>24</v>
+          </cell>
+          <cell r="R86">
+            <v>136</v>
+          </cell>
+          <cell r="U86">
+            <v>11</v>
+          </cell>
+          <cell r="V86">
+            <v>5.333333333333333</v>
+          </cell>
+          <cell r="W86">
+            <v>17</v>
+          </cell>
+          <cell r="X86">
+            <v>5.8</v>
+          </cell>
+          <cell r="Y86">
+            <v>9.1999999999999993</v>
+          </cell>
+          <cell r="Z86">
+            <v>17.399999999999999</v>
+          </cell>
+          <cell r="AA86">
+            <v>16.2</v>
+          </cell>
+          <cell r="AB86">
+            <v>11.6</v>
+          </cell>
+          <cell r="AC86">
+            <v>10.6</v>
+          </cell>
+          <cell r="AD86">
+            <v>14.4</v>
+          </cell>
+          <cell r="AE86">
+            <v>13.2</v>
+          </cell>
+          <cell r="AF86">
+            <v>20</v>
+          </cell>
+          <cell r="AH86">
+            <v>40.799999999999997</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>496  Колбаса Сочинка по-фински с сочным окроком 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C87">
+            <v>25</v>
+          </cell>
+          <cell r="D87">
+            <v>72</v>
+          </cell>
+          <cell r="E87">
+            <v>24</v>
+          </cell>
+          <cell r="F87">
+            <v>71</v>
+          </cell>
+          <cell r="G87">
+            <v>0.3</v>
+          </cell>
+          <cell r="H87">
+            <v>40</v>
+          </cell>
+          <cell r="I87" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K87">
+            <v>37</v>
+          </cell>
+          <cell r="L87">
+            <v>-13</v>
+          </cell>
+          <cell r="O87">
+            <v>41.399999999999991</v>
+          </cell>
+          <cell r="P87">
+            <v>0</v>
+          </cell>
+          <cell r="Q87">
+            <v>4.8</v>
+          </cell>
+          <cell r="U87">
+            <v>23.416666666666664</v>
+          </cell>
+          <cell r="V87">
+            <v>23.416666666666664</v>
+          </cell>
+          <cell r="W87">
+            <v>7.6</v>
+          </cell>
+          <cell r="X87">
+            <v>11.2</v>
+          </cell>
+          <cell r="Y87">
+            <v>11.2</v>
+          </cell>
+          <cell r="Z87">
+            <v>3.4</v>
+          </cell>
+          <cell r="AA87">
+            <v>1.6</v>
+          </cell>
+          <cell r="AB87">
+            <v>6</v>
+          </cell>
+          <cell r="AC87">
+            <v>10.4</v>
+          </cell>
+          <cell r="AD87">
+            <v>11</v>
+          </cell>
+          <cell r="AE87">
+            <v>4.8</v>
+          </cell>
+          <cell r="AF87">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="AG87" t="str">
+            <v>23,01,25 в уценку 70шт.</v>
+          </cell>
+          <cell r="AH87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>501 Сосиски Филейские по-ганноверски ТМ Вязанка.в оболочке амицел в м.г.с ВЕС. ПОКОМ</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C88">
+            <v>40.130000000000003</v>
+          </cell>
+          <cell r="E88">
+            <v>11.675000000000001</v>
+          </cell>
+          <cell r="F88">
+            <v>28.1</v>
+          </cell>
+          <cell r="G88">
+            <v>1</v>
+          </cell>
+          <cell r="H88">
+            <v>45</v>
+          </cell>
+          <cell r="I88" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K88">
+            <v>12.5</v>
+          </cell>
+          <cell r="L88">
+            <v>-0.82499999999999929</v>
+          </cell>
+          <cell r="P88">
+            <v>0</v>
+          </cell>
+          <cell r="Q88">
+            <v>2.335</v>
+          </cell>
+          <cell r="U88">
+            <v>12.034261241970022</v>
+          </cell>
+          <cell r="V88">
+            <v>12.034261241970022</v>
+          </cell>
+          <cell r="W88">
+            <v>2.6394000000000002</v>
+          </cell>
+          <cell r="X88">
+            <v>1.3740000000000001</v>
+          </cell>
+          <cell r="Y88">
+            <v>0.54880000000000007</v>
+          </cell>
+          <cell r="Z88">
+            <v>1.8892</v>
+          </cell>
+          <cell r="AA88">
+            <v>2.9916</v>
+          </cell>
+          <cell r="AB88">
+            <v>1.6532</v>
+          </cell>
+          <cell r="AC88">
+            <v>2.4306000000000001</v>
+          </cell>
+          <cell r="AD88">
+            <v>4.1362000000000014</v>
+          </cell>
+          <cell r="AE88">
+            <v>2.5495999999999999</v>
+          </cell>
+          <cell r="AF88">
+            <v>2.2911999999999999</v>
+          </cell>
+          <cell r="AG88" t="str">
+            <v>нужно увеличить продажи</v>
+          </cell>
+          <cell r="AH88">
+            <v>0</v>
+          </cell>
+          <cell r="AJ88" t="str">
+            <v>SU003616</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89" t="str">
+            <v>503 Колбаса Филейская со шпиком ТМ Вязанка в оболочке полиамид.ПОКОМ</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C89">
+            <v>32.433999999999997</v>
+          </cell>
+          <cell r="E89">
+            <v>14.708</v>
+          </cell>
+          <cell r="F89">
+            <v>17.725999999999999</v>
+          </cell>
+          <cell r="G89">
+            <v>1</v>
+          </cell>
+          <cell r="H89">
+            <v>50</v>
+          </cell>
+          <cell r="I89" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K89">
+            <v>15.5</v>
+          </cell>
+          <cell r="L89">
+            <v>-0.79199999999999982</v>
+          </cell>
+          <cell r="P89">
+            <v>6.0480000000000018</v>
+          </cell>
+          <cell r="Q89">
+            <v>2.9416000000000002</v>
+          </cell>
+          <cell r="R89">
+            <v>8.5836000000000041</v>
+          </cell>
+          <cell r="U89">
+            <v>11.000000000000002</v>
+          </cell>
+          <cell r="V89">
+            <v>8.0819961925482726</v>
+          </cell>
+          <cell r="W89">
+            <v>2.6520000000000001</v>
+          </cell>
+          <cell r="X89">
+            <v>0.9456</v>
+          </cell>
+          <cell r="Y89">
+            <v>0.68320000000000003</v>
+          </cell>
+          <cell r="Z89">
+            <v>1.6319999999999999</v>
+          </cell>
+          <cell r="AA89">
+            <v>2.1743999999999999</v>
+          </cell>
+          <cell r="AB89">
+            <v>2.9912000000000001</v>
+          </cell>
+          <cell r="AC89">
+            <v>2.4575999999999998</v>
+          </cell>
+          <cell r="AD89">
+            <v>1.3460000000000001</v>
+          </cell>
+          <cell r="AE89">
+            <v>2.1179999999999999</v>
+          </cell>
+          <cell r="AF89">
+            <v>1.8572</v>
+          </cell>
+          <cell r="AH89">
+            <v>8.5836000000000041</v>
+          </cell>
+          <cell r="AJ89" t="str">
+            <v>SU003642</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90" t="str">
+            <v>504  Ветчина Мясорубская с окороком 0,33кг срез ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C90">
+            <v>7</v>
+          </cell>
+          <cell r="D90">
+            <v>24</v>
+          </cell>
+          <cell r="E90">
+            <v>8</v>
+          </cell>
+          <cell r="F90">
+            <v>21</v>
+          </cell>
+          <cell r="G90">
+            <v>0.33</v>
+          </cell>
+          <cell r="H90">
+            <v>40</v>
+          </cell>
+          <cell r="I90" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K90">
+            <v>9</v>
+          </cell>
+          <cell r="L90">
+            <v>-1</v>
+          </cell>
+          <cell r="O90">
+            <v>9.6000000000000014</v>
+          </cell>
+          <cell r="P90">
+            <v>0</v>
+          </cell>
+          <cell r="Q90">
+            <v>1.6</v>
+          </cell>
+          <cell r="U90">
+            <v>19.125</v>
+          </cell>
+          <cell r="V90">
+            <v>19.125</v>
+          </cell>
+          <cell r="W90">
+            <v>2.6</v>
+          </cell>
+          <cell r="X90">
+            <v>3.2</v>
+          </cell>
+          <cell r="Y90">
+            <v>3.4</v>
+          </cell>
+          <cell r="Z90">
+            <v>3.6</v>
+          </cell>
+          <cell r="AA90">
+            <v>3</v>
+          </cell>
+          <cell r="AB90">
+            <v>2.8</v>
+          </cell>
+          <cell r="AC90">
+            <v>1.6</v>
+          </cell>
+          <cell r="AD90">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="AE90">
+            <v>5</v>
+          </cell>
+          <cell r="AF90">
+            <v>5</v>
+          </cell>
+          <cell r="AH90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91" t="str">
+            <v>515  Колбаса Сервелат Мясорубский Делюкс 0,3кг ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C91">
+            <v>28</v>
+          </cell>
+          <cell r="E91">
+            <v>25</v>
+          </cell>
+          <cell r="F91">
+            <v>2</v>
+          </cell>
+          <cell r="G91">
+            <v>0.3</v>
+          </cell>
+          <cell r="H91">
+            <v>40</v>
+          </cell>
+          <cell r="I91" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K91">
+            <v>29</v>
+          </cell>
+          <cell r="L91">
+            <v>-4</v>
+          </cell>
+          <cell r="O91">
+            <v>18</v>
+          </cell>
+          <cell r="P91">
+            <v>34.799999999999997</v>
+          </cell>
+          <cell r="Q91">
+            <v>5</v>
+          </cell>
+          <cell r="U91">
+            <v>10.959999999999999</v>
+          </cell>
+          <cell r="V91">
+            <v>10.959999999999999</v>
+          </cell>
+          <cell r="W91">
+            <v>6.2</v>
+          </cell>
+          <cell r="X91">
+            <v>4</v>
+          </cell>
+          <cell r="Y91">
+            <v>3.4</v>
+          </cell>
+          <cell r="Z91">
+            <v>3.2</v>
+          </cell>
+          <cell r="AA91">
+            <v>3.2</v>
+          </cell>
+          <cell r="AB91">
+            <v>4.8</v>
+          </cell>
+          <cell r="AC91">
+            <v>6.6</v>
+          </cell>
+          <cell r="AD91">
+            <v>5</v>
+          </cell>
+          <cell r="AE91">
+            <v>2.4</v>
+          </cell>
+          <cell r="AF91">
+            <v>4.8</v>
+          </cell>
+          <cell r="AH91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
+            <v>519  Грудинка 0,12 кг нарезка ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>шт</v>
+          </cell>
+          <cell r="C92">
+            <v>8</v>
+          </cell>
+          <cell r="D92">
+            <v>19</v>
+          </cell>
+          <cell r="E92">
+            <v>7</v>
+          </cell>
+          <cell r="F92">
+            <v>15</v>
+          </cell>
+          <cell r="G92">
+            <v>0.12</v>
+          </cell>
+          <cell r="H92">
+            <v>45</v>
+          </cell>
+          <cell r="I92" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="K92">
+            <v>13</v>
+          </cell>
+          <cell r="L92">
+            <v>-6</v>
+          </cell>
+          <cell r="O92">
+            <v>24.6</v>
+          </cell>
+          <cell r="P92">
+            <v>4.3999999999999986</v>
+          </cell>
+          <cell r="Q92">
+            <v>1.4</v>
+          </cell>
+          <cell r="U92">
+            <v>31.428571428571431</v>
+          </cell>
+          <cell r="V92">
+            <v>31.428571428571431</v>
+          </cell>
+          <cell r="W92">
+            <v>4.4000000000000004</v>
+          </cell>
+          <cell r="X92">
+            <v>3.8</v>
+          </cell>
+          <cell r="Y92">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="Z92">
+            <v>2.8</v>
+          </cell>
+          <cell r="AA92">
+            <v>2.2000000000000002</v>
+          </cell>
+          <cell r="AB92">
+            <v>1</v>
+          </cell>
+          <cell r="AC92">
+            <v>0.6</v>
+          </cell>
+          <cell r="AD92">
+            <v>3.4</v>
+          </cell>
+          <cell r="AE92">
+            <v>4.2</v>
+          </cell>
+          <cell r="AF92">
+            <v>1.6</v>
+          </cell>
+          <cell r="AH92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>522  Колбаса Гвардейская с/к ТМ Стародворье  ПОКОМ</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>кг</v>
+          </cell>
+          <cell r="C93">
+            <v>-0.12</v>
+          </cell>
+          <cell r="F93">
+            <v>-0.12</v>
+          </cell>
+          <cell r="G93">
+            <v>1</v>
+          </cell>
+          <cell r="H93">
+            <v>180</v>
+          </cell>
+          <cell r="I93" t="str">
+            <v>матрица</v>
+          </cell>
+          <cell r="L93">
+            <v>0</v>
+          </cell>
+          <cell r="Q93">
+            <v>0</v>
+          </cell>
+          <cell r="R93">
+            <v>4</v>
+          </cell>
+          <cell r="U93" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="V93" t="e">
+            <v>#DIV/0!</v>
+          </cell>
+          <cell r="W93">
+            <v>0</v>
+          </cell>
+          <cell r="X93">
+            <v>0.44400000000000012</v>
+          </cell>
+          <cell r="Y93">
+            <v>0.74119999999999997</v>
+          </cell>
+          <cell r="Z93">
+            <v>0.74080000000000001</v>
+          </cell>
+          <cell r="AA93">
+            <v>0.58760000000000001</v>
+          </cell>
+          <cell r="AB93">
+            <v>0.21560000000000001</v>
+          </cell>
+          <cell r="AC93">
+            <v>1.0531999999999999</v>
+          </cell>
+          <cell r="AD93">
+            <v>1.7692000000000001</v>
+          </cell>
+          <cell r="AE93">
+            <v>0.8587999999999999</v>
+          </cell>
+          <cell r="AF93">
+            <v>0.85120000000000007</v>
+          </cell>
+          <cell r="AG93" t="str">
+            <v>нет в бланке</v>
+          </cell>
+          <cell r="AH93">
+            <v>4</v>
+          </cell>
+          <cell r="AJ93" t="str">
+            <v>SU003915</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1022,7 +8481,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S8" sqref="S8"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,9 +8500,11 @@
     <col min="19" max="19" width="21" customWidth="1"/>
     <col min="20" max="21" width="5" customWidth="1"/>
     <col min="22" max="31" width="6" customWidth="1"/>
-    <col min="32" max="32" width="48.42578125" customWidth="1"/>
+    <col min="32" max="32" width="26.28515625" customWidth="1"/>
     <col min="33" max="33" width="7" customWidth="1"/>
-    <col min="34" max="50" width="8" customWidth="1"/>
+    <col min="34" max="34" width="8" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="50" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -1551,8 +9012,14 @@
         <v>0</v>
       </c>
       <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
+      <c r="AI6" s="1" t="str">
+        <f>VLOOKUP(A6,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU000722</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f>(SUM(V6:AE6)+P6)/11*22</f>
+        <v>428.53680000000003</v>
+      </c>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
@@ -1663,8 +9130,14 @@
         <v>8.2210000000000036</v>
       </c>
       <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
+      <c r="AI7" s="1" t="str">
+        <f>VLOOKUP(A7,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU001523</v>
+      </c>
+      <c r="AJ7" s="1">
+        <f t="shared" ref="AJ7:AJ8" si="8">(SUM(V7:AE7)+P7)/11*22</f>
+        <v>219.3896</v>
+      </c>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
@@ -1778,8 +9251,14 @@
         <v>7.5354000000000099</v>
       </c>
       <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
+      <c r="AI8" s="1" t="str">
+        <f>VLOOKUP(A8,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU001721</v>
+      </c>
+      <c r="AJ8" s="1">
+        <f t="shared" si="8"/>
+        <v>250.864</v>
+      </c>
       <c r="AK8" s="1"/>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
@@ -2658,8 +10137,14 @@
         <v>32.811800000000034</v>
       </c>
       <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
+      <c r="AI16" s="1" t="str">
+        <f>VLOOKUP(A16,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002035</v>
+      </c>
+      <c r="AJ16" s="1">
+        <f t="shared" ref="AJ16:AJ24" si="9">(SUM(V16:AE16)+P16)/11*22</f>
+        <v>427.43200000000002</v>
+      </c>
       <c r="AK16" s="1"/>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
@@ -2772,8 +10257,14 @@
         <v>100.73927999999933</v>
       </c>
       <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
+      <c r="AI17" s="1" t="str">
+        <f>VLOOKUP(A17,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU000126</v>
+      </c>
+      <c r="AJ17" s="1">
+        <f t="shared" si="9"/>
+        <v>3316.1756</v>
+      </c>
       <c r="AK17" s="1"/>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
@@ -2884,8 +10375,14 @@
         <v>11.656600000000005</v>
       </c>
       <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
+      <c r="AI18" s="1" t="str">
+        <f>VLOOKUP(A18,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002011</v>
+      </c>
+      <c r="AJ18" s="1">
+        <f t="shared" si="9"/>
+        <v>100.44159999999999</v>
+      </c>
       <c r="AK18" s="1"/>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
@@ -2998,8 +10495,14 @@
         <v>64.114000000000146</v>
       </c>
       <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
+      <c r="AI19" s="1" t="str">
+        <f>VLOOKUP(A19,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU000251</v>
+      </c>
+      <c r="AJ19" s="1">
+        <f t="shared" si="9"/>
+        <v>1887.5175999999997</v>
+      </c>
       <c r="AK19" s="1"/>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
@@ -3107,8 +10610,13 @@
         <v>4</v>
       </c>
       <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
+      <c r="AI20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ20" s="1">
+        <f t="shared" si="9"/>
+        <v>74.260000000000005</v>
+      </c>
       <c r="AK20" s="1"/>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
@@ -3218,8 +10726,14 @@
         <v>0</v>
       </c>
       <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
+      <c r="AI21" s="1" t="str">
+        <f>VLOOKUP(A21,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002010</v>
+      </c>
+      <c r="AJ21" s="1">
+        <f t="shared" si="9"/>
+        <v>598.04999999999995</v>
+      </c>
       <c r="AK21" s="1"/>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
@@ -3329,8 +10843,14 @@
         <v>0</v>
       </c>
       <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
+      <c r="AI22" s="1" t="str">
+        <f>VLOOKUP(A22,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002150</v>
+      </c>
+      <c r="AJ22" s="1">
+        <f t="shared" si="9"/>
+        <v>267.68800000000005</v>
+      </c>
       <c r="AK22" s="1"/>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
@@ -3392,7 +10912,7 @@
         <v>12.1426</v>
       </c>
       <c r="Q23" s="19">
-        <f t="shared" ref="Q23:Q24" si="8">12*P23-O23-F23</f>
+        <f t="shared" ref="Q23:Q24" si="10">12*P23-O23-F23</f>
         <v>50.563999999999993</v>
       </c>
       <c r="R23" s="19"/>
@@ -3443,8 +10963,14 @@
         <v>50.563999999999993</v>
       </c>
       <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
+      <c r="AI23" s="1" t="str">
+        <f>VLOOKUP(A23,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002158</v>
+      </c>
+      <c r="AJ23" s="1">
+        <f t="shared" si="9"/>
+        <v>258.0224</v>
+      </c>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
@@ -3506,7 +11032,7 @@
         <v>13.26</v>
       </c>
       <c r="Q24" s="19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>41.194200000000009</v>
       </c>
       <c r="R24" s="19"/>
@@ -3557,8 +11083,14 @@
         <v>41.194200000000009</v>
       </c>
       <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
+      <c r="AI24" s="1" t="str">
+        <f>VLOOKUP(A24,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002151</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" si="9"/>
+        <v>278.34920000000005</v>
+      </c>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
@@ -3716,7 +11248,7 @@
         <v>13.452400000000001</v>
       </c>
       <c r="Q26" s="5">
-        <f t="shared" ref="Q26" si="9">11*P26-O26-F26</f>
+        <f t="shared" ref="Q26" si="11">11*P26-O26-F26</f>
         <v>86.512799999999999</v>
       </c>
       <c r="R26" s="5"/>
@@ -3765,8 +11297,14 @@
         <v>86.512799999999999</v>
       </c>
       <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
+      <c r="AI26" s="1" t="str">
+        <f>VLOOKUP(A26,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002287</v>
+      </c>
+      <c r="AJ26" s="1">
+        <f t="shared" ref="AJ26:AJ27" si="12">(SUM(V26:AE26)+P26)/11*22</f>
+        <v>315.9128</v>
+      </c>
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -3874,8 +11412,14 @@
         <v>0</v>
       </c>
       <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="AI27" s="1" t="str">
+        <f>VLOOKUP(A27,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU000227</v>
+      </c>
+      <c r="AJ27" s="1">
+        <f t="shared" si="12"/>
+        <v>426.13319999999999</v>
+      </c>
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -4073,12 +11617,18 @@
       </c>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1">
-        <f t="shared" ref="AG29:AG51" si="10">G29*Q29</f>
+        <f t="shared" ref="AG29:AG51" si="13">G29*Q29</f>
         <v>0</v>
       </c>
       <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
+      <c r="AI29" s="1" t="str">
+        <f>VLOOKUP(A29,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU000246</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" ref="AJ29:AJ32" si="14">(SUM(V29:AE29)+P29)/11*22</f>
+        <v>80.036400000000015</v>
+      </c>
       <c r="AK29" s="1"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
@@ -4182,12 +11732,18 @@
         <v>74</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
+      <c r="AI30" s="1" t="str">
+        <f>VLOOKUP(A30,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU001430</v>
+      </c>
+      <c r="AJ30" s="1">
+        <f t="shared" si="14"/>
+        <v>77.068799999999996</v>
+      </c>
       <c r="AK30" s="1"/>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
@@ -4289,12 +11845,18 @@
       </c>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
+      <c r="AI31" s="1" t="str">
+        <f>VLOOKUP(A31,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002612</v>
+      </c>
+      <c r="AJ31" s="1">
+        <f t="shared" si="14"/>
+        <v>306.94719999999995</v>
+      </c>
       <c r="AK31" s="1"/>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
@@ -4356,7 +11918,7 @@
         <v>10.803000000000001</v>
       </c>
       <c r="Q32" s="5">
-        <f t="shared" ref="Q32:Q51" si="11">11*P32-O32-F32</f>
+        <f t="shared" ref="Q32:Q51" si="15">11*P32-O32-F32</f>
         <v>25.10779999999999</v>
       </c>
       <c r="R32" s="5"/>
@@ -4401,12 +11963,18 @@
       </c>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.10779999999999</v>
       </c>
       <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
+      <c r="AI32" s="1" t="str">
+        <f>VLOOKUP(A32,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002614</v>
+      </c>
+      <c r="AJ32" s="1">
+        <f t="shared" si="14"/>
+        <v>197.98519999999996</v>
+      </c>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
@@ -4512,7 +12080,7 @@
         <v>42</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH33" s="1"/>
@@ -4579,7 +12147,7 @@
         <v>33.799999999999997</v>
       </c>
       <c r="Q34" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>93.759999999999962</v>
       </c>
       <c r="R34" s="5"/>
@@ -4626,7 +12194,7 @@
         <v>42</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>42.191999999999986</v>
       </c>
       <c r="AH34" s="1"/>
@@ -4737,7 +12305,7 @@
         <v>39</v>
       </c>
       <c r="AG35" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH35" s="1"/>
@@ -4844,12 +12412,17 @@
       </c>
       <c r="AF36" s="1"/>
       <c r="AG36" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
+      <c r="AI36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ36" s="1">
+        <f>(SUM(V36:AE36)+P36)/11*22</f>
+        <v>185.09839999999997</v>
+      </c>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
@@ -4949,7 +12522,7 @@
         <v>82</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="AH37" s="1"/>
@@ -5003,7 +12576,7 @@
         <v>117</v>
       </c>
       <c r="L38" s="1">
-        <f t="shared" ref="L38:L68" si="12">E38-K38</f>
+        <f t="shared" ref="L38:L68" si="16">E38-K38</f>
         <v>-42</v>
       </c>
       <c r="M38" s="1"/>
@@ -5016,7 +12589,7 @@
         <v>15</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.5999999999999943</v>
       </c>
       <c r="R38" s="5"/>
@@ -5063,7 +12636,7 @@
         <v>42</v>
       </c>
       <c r="AG38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>3.009999999999998</v>
       </c>
       <c r="AH38" s="1"/>
@@ -5117,7 +12690,7 @@
         <v>94.14</v>
       </c>
       <c r="L39" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-27.42</v>
       </c>
       <c r="M39" s="1"/>
@@ -5128,7 +12701,7 @@
         <v>13.343999999999999</v>
       </c>
       <c r="Q39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>44.508999999999986</v>
       </c>
       <c r="R39" s="5"/>
@@ -5173,12 +12746,18 @@
       </c>
       <c r="AF39" s="1"/>
       <c r="AG39" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>44.508999999999986</v>
       </c>
       <c r="AH39" s="1"/>
-      <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AI39" s="1" t="str">
+        <f>VLOOKUP(A39,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002756</v>
+      </c>
+      <c r="AJ39" s="1">
+        <f>(SUM(V39:AE39)+P39)/11*22</f>
+        <v>336.86919999999998</v>
+      </c>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
@@ -5227,7 +12806,7 @@
         <v>64</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-31</v>
       </c>
       <c r="M40" s="1"/>
@@ -5280,7 +12859,7 @@
       </c>
       <c r="AF40" s="1"/>
       <c r="AG40" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AH40" s="1"/>
@@ -5334,7 +12913,7 @@
         <v>136</v>
       </c>
       <c r="L41" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-11</v>
       </c>
       <c r="M41" s="1"/>
@@ -5347,7 +12926,7 @@
         <v>25</v>
       </c>
       <c r="Q41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>47.080000000000013</v>
       </c>
       <c r="R41" s="5"/>
@@ -5394,7 +12973,7 @@
         <v>42</v>
       </c>
       <c r="AG41" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>18.832000000000004</v>
       </c>
       <c r="AH41" s="1"/>
@@ -5448,7 +13027,7 @@
         <v>119.54</v>
       </c>
       <c r="L42" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-18.988</v>
       </c>
       <c r="M42" s="1"/>
@@ -5461,7 +13040,7 @@
         <v>20.110400000000002</v>
       </c>
       <c r="Q42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>41.430399999999992</v>
       </c>
       <c r="R42" s="5"/>
@@ -5506,12 +13085,18 @@
       </c>
       <c r="AF42" s="1"/>
       <c r="AG42" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>41.430399999999992</v>
       </c>
       <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
+      <c r="AI42" s="1" t="str">
+        <f>VLOOKUP(A42,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002847</v>
+      </c>
+      <c r="AJ42" s="1">
+        <f>(SUM(V42:AE42)+P42)/11*22</f>
+        <v>450.5444</v>
+      </c>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
@@ -5560,7 +13145,7 @@
         <v>101</v>
       </c>
       <c r="L43" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-8</v>
       </c>
       <c r="M43" s="1"/>
@@ -5573,7 +13158,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="Q43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>19.180000000000049</v>
       </c>
       <c r="R43" s="5"/>
@@ -5618,7 +13203,7 @@
       </c>
       <c r="AF43" s="1"/>
       <c r="AG43" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>6.713000000000017</v>
       </c>
       <c r="AH43" s="1"/>
@@ -5672,7 +13257,7 @@
         <v>355</v>
       </c>
       <c r="L44" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-121</v>
       </c>
       <c r="M44" s="1"/>
@@ -5685,7 +13270,7 @@
         <v>46.8</v>
       </c>
       <c r="Q44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>56.999999999999943</v>
       </c>
       <c r="R44" s="5"/>
@@ -5732,7 +13317,7 @@
         <v>42</v>
       </c>
       <c r="AG44" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.799999999999979</v>
       </c>
       <c r="AH44" s="1"/>
@@ -5786,7 +13371,7 @@
         <v>63.6</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-7.3250000000000028</v>
       </c>
       <c r="M45" s="1"/>
@@ -5797,7 +13382,7 @@
         <v>11.254999999999999</v>
       </c>
       <c r="Q45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>24.525999999999996</v>
       </c>
       <c r="R45" s="5"/>
@@ -5842,12 +13427,18 @@
       </c>
       <c r="AF45" s="1"/>
       <c r="AG45" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.525999999999996</v>
       </c>
       <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
+      <c r="AI45" s="1" t="str">
+        <f>VLOOKUP(A45,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002828</v>
+      </c>
+      <c r="AJ45" s="1">
+        <f t="shared" ref="AJ45:AJ47" si="17">(SUM(V45:AE45)+P45)/11*22</f>
+        <v>255.35519999999997</v>
+      </c>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
@@ -5896,7 +13487,7 @@
         <v>115.2</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-20.183999999999997</v>
       </c>
       <c r="M46" s="1"/>
@@ -5909,7 +13500,7 @@
         <v>19.0032</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>75.917200000000008</v>
       </c>
       <c r="R46" s="5"/>
@@ -5954,12 +13545,18 @@
       </c>
       <c r="AF46" s="1"/>
       <c r="AG46" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>75.917200000000008</v>
       </c>
       <c r="AH46" s="1"/>
-      <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
+      <c r="AI46" s="1" t="str">
+        <f>VLOOKUP(A46,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002830</v>
+      </c>
+      <c r="AJ46" s="1">
+        <f t="shared" si="17"/>
+        <v>490.21679999999998</v>
+      </c>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
@@ -6008,7 +13605,7 @@
         <v>80.599999999999994</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>7.4500000000000028</v>
       </c>
       <c r="M47" s="1"/>
@@ -6021,7 +13618,7 @@
         <v>17.61</v>
       </c>
       <c r="Q47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>57.93869999999999</v>
       </c>
       <c r="R47" s="5"/>
@@ -6066,12 +13663,18 @@
       </c>
       <c r="AF47" s="1"/>
       <c r="AG47" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>57.93869999999999</v>
       </c>
       <c r="AH47" s="1"/>
-      <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
+      <c r="AI47" s="1" t="str">
+        <f>VLOOKUP(A47,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002655</v>
+      </c>
+      <c r="AJ47" s="1">
+        <f t="shared" si="17"/>
+        <v>298.58199999999999</v>
+      </c>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
@@ -6120,7 +13723,7 @@
         <v>103</v>
       </c>
       <c r="L48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-16</v>
       </c>
       <c r="M48" s="1"/>
@@ -6133,7 +13736,7 @@
         <v>17.399999999999999</v>
       </c>
       <c r="Q48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>22.119999999999976</v>
       </c>
       <c r="R48" s="5"/>
@@ -6178,7 +13781,7 @@
       </c>
       <c r="AF48" s="1"/>
       <c r="AG48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.95399999999999</v>
       </c>
       <c r="AH48" s="1"/>
@@ -6222,7 +13825,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M49" s="1"/>
@@ -6279,12 +13882,18 @@
         <v>95</v>
       </c>
       <c r="AG49" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AH49" s="1"/>
-      <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
+      <c r="AI49" s="1" t="str">
+        <f>VLOOKUP(A49,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002795</v>
+      </c>
+      <c r="AJ49" s="1">
+        <f>(SUM(V49:AE49)+P49)/11*22</f>
+        <v>0</v>
+      </c>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
@@ -6333,7 +13942,7 @@
         <v>73</v>
       </c>
       <c r="L50" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-25</v>
       </c>
       <c r="M50" s="1"/>
@@ -6346,7 +13955,7 @@
         <v>9.6</v>
       </c>
       <c r="Q50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>25.599999999999994</v>
       </c>
       <c r="R50" s="5"/>
@@ -6393,7 +14002,7 @@
         <v>97</v>
       </c>
       <c r="AG50" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>10.239999999999998</v>
       </c>
       <c r="AH50" s="1"/>
@@ -6447,7 +14056,7 @@
         <v>65</v>
       </c>
       <c r="L51" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-20</v>
       </c>
       <c r="M51" s="1"/>
@@ -6460,7 +14069,7 @@
         <v>9</v>
       </c>
       <c r="Q51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="R51" s="5"/>
@@ -6505,7 +14114,7 @@
       </c>
       <c r="AF51" s="1"/>
       <c r="AG51" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>2.8000000000000003</v>
       </c>
       <c r="AH51" s="1"/>
@@ -6549,7 +14158,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="12"/>
       <c r="L52" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M52" s="12"/>
@@ -6655,7 +14264,7 @@
         <v>82.8</v>
       </c>
       <c r="L53" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-26.007999999999996</v>
       </c>
       <c r="M53" s="1"/>
@@ -6708,12 +14317,18 @@
       </c>
       <c r="AF53" s="1"/>
       <c r="AG53" s="1">
-        <f t="shared" ref="AG53:AG60" si="13">G53*Q53</f>
+        <f t="shared" ref="AG53:AG60" si="18">G53*Q53</f>
         <v>0</v>
       </c>
       <c r="AH53" s="1"/>
-      <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
+      <c r="AI53" s="1" t="str">
+        <f>VLOOKUP(A53,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002928</v>
+      </c>
+      <c r="AJ53" s="1">
+        <f t="shared" ref="AJ53:AJ54" si="19">(SUM(V53:AE53)+P53)/11*22</f>
+        <v>522.09640000000002</v>
+      </c>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
@@ -6760,7 +14375,7 @@
         <v>64.8</v>
       </c>
       <c r="L54" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-5.1729999999999947</v>
       </c>
       <c r="M54" s="1"/>
@@ -6773,7 +14388,7 @@
         <v>11.9254</v>
       </c>
       <c r="Q54" s="5">
-        <f t="shared" ref="Q54:Q60" si="14">11*P54-O54-F54</f>
+        <f t="shared" ref="Q54:Q60" si="20">11*P54-O54-F54</f>
         <v>59.620999999999995</v>
       </c>
       <c r="R54" s="5"/>
@@ -6818,12 +14433,18 @@
       </c>
       <c r="AF54" s="1"/>
       <c r="AG54" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>59.620999999999995</v>
       </c>
       <c r="AH54" s="1"/>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
+      <c r="AI54" s="1" t="str">
+        <f>VLOOKUP(A54,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002833</v>
+      </c>
+      <c r="AJ54" s="1">
+        <f t="shared" si="19"/>
+        <v>151.2116</v>
+      </c>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
@@ -6870,7 +14491,7 @@
         <v>98</v>
       </c>
       <c r="L55" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-24</v>
       </c>
       <c r="M55" s="1"/>
@@ -6883,7 +14504,7 @@
         <v>14.8</v>
       </c>
       <c r="Q55" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>23.000000000000014</v>
       </c>
       <c r="R55" s="5"/>
@@ -6928,7 +14549,7 @@
       </c>
       <c r="AF55" s="1"/>
       <c r="AG55" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>9.2000000000000064</v>
       </c>
       <c r="AH55" s="1"/>
@@ -6982,7 +14603,7 @@
         <v>527</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-110</v>
       </c>
       <c r="M56" s="1"/>
@@ -6995,7 +14616,7 @@
         <v>83.4</v>
       </c>
       <c r="Q56" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>112.58000000000015</v>
       </c>
       <c r="R56" s="5"/>
@@ -7040,7 +14661,7 @@
       </c>
       <c r="AF56" s="1"/>
       <c r="AG56" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>45.032000000000068</v>
       </c>
       <c r="AH56" s="1"/>
@@ -7094,7 +14715,7 @@
         <v>348</v>
       </c>
       <c r="L57" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-19</v>
       </c>
       <c r="M57" s="1"/>
@@ -7107,7 +14728,7 @@
         <v>65.8</v>
       </c>
       <c r="Q57" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>119.81999999999994</v>
       </c>
       <c r="R57" s="5"/>
@@ -7154,7 +14775,7 @@
         <v>42</v>
       </c>
       <c r="AG57" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>47.927999999999976</v>
       </c>
       <c r="AH57" s="1"/>
@@ -7208,7 +14829,7 @@
         <v>125.15</v>
       </c>
       <c r="L58" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>2.7879999999999967</v>
       </c>
       <c r="M58" s="1"/>
@@ -7221,7 +14842,7 @@
         <v>25.587600000000002</v>
       </c>
       <c r="Q58" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>57.129660000000086</v>
       </c>
       <c r="R58" s="5"/>
@@ -7266,12 +14887,18 @@
       </c>
       <c r="AF58" s="1"/>
       <c r="AG58" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>57.129660000000086</v>
       </c>
       <c r="AH58" s="1"/>
-      <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
+      <c r="AI58" s="1" t="str">
+        <f>VLOOKUP(A58,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002941</v>
+      </c>
+      <c r="AJ58" s="1">
+        <f t="shared" ref="AJ58:AJ60" si="21">(SUM(V58:AE58)+P58)/11*22</f>
+        <v>539.52839999999992</v>
+      </c>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
@@ -7320,7 +14947,7 @@
         <v>95.15</v>
       </c>
       <c r="L59" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-3.4939999999999998</v>
       </c>
       <c r="M59" s="1"/>
@@ -7375,12 +15002,18 @@
       </c>
       <c r="AF59" s="1"/>
       <c r="AG59" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="AH59" s="1"/>
-      <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
+      <c r="AI59" s="1" t="str">
+        <f>VLOOKUP(A59,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002943</v>
+      </c>
+      <c r="AJ59" s="1">
+        <f t="shared" si="21"/>
+        <v>540.23720000000003</v>
+      </c>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
@@ -7429,7 +15062,7 @@
         <v>214.45</v>
       </c>
       <c r="L60" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-36.058999999999997</v>
       </c>
       <c r="M60" s="1"/>
@@ -7442,7 +15075,7 @@
         <v>35.678199999999997</v>
       </c>
       <c r="Q60" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>125.75711999999993</v>
       </c>
       <c r="R60" s="5"/>
@@ -7487,12 +15120,18 @@
       </c>
       <c r="AF60" s="1"/>
       <c r="AG60" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>125.75711999999993</v>
       </c>
       <c r="AH60" s="1"/>
-      <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
+      <c r="AI60" s="1" t="str">
+        <f>VLOOKUP(A60,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002947</v>
+      </c>
+      <c r="AJ60" s="1">
+        <f t="shared" si="21"/>
+        <v>698.63119999999992</v>
+      </c>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
@@ -7531,7 +15170,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M61" s="12"/>
@@ -7627,7 +15266,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M62" s="12"/>
@@ -7723,7 +15362,7 @@
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M63" s="12"/>
@@ -7829,7 +15468,7 @@
         <v>61</v>
       </c>
       <c r="L64" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M64" s="1"/>
@@ -7933,7 +15572,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="12"/>
       <c r="L65" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M65" s="12"/>
@@ -8029,7 +15668,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="12"/>
       <c r="L66" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M66" s="12"/>
@@ -8125,7 +15764,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="12"/>
       <c r="L67" s="12">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M67" s="12"/>
@@ -8229,7 +15868,7 @@
         <v>65</v>
       </c>
       <c r="L68" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>-11</v>
       </c>
       <c r="M68" s="1"/>
@@ -8331,7 +15970,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="12"/>
       <c r="L69" s="12">
-        <f t="shared" ref="L69:L93" si="15">E69-K69</f>
+        <f t="shared" ref="L69:L93" si="22">E69-K69</f>
         <v>0</v>
       </c>
       <c r="M69" s="12"/>
@@ -8427,25 +16066,25 @@
       <c r="J70" s="12"/>
       <c r="K70" s="12"/>
       <c r="L70" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M70" s="12"/>
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
       <c r="P70" s="12">
-        <f t="shared" ref="P70:P93" si="16">E70/5</f>
+        <f t="shared" ref="P70:P93" si="23">E70/5</f>
         <v>0</v>
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="14"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12" t="e">
-        <f t="shared" ref="T70:T93" si="17">(F70+O70+Q70)/P70</f>
+        <f t="shared" ref="T70:T93" si="24">(F70+O70+Q70)/P70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U70" s="12" t="e">
-        <f t="shared" ref="U70:U93" si="18">(F70+O70)/P70</f>
+        <f t="shared" ref="U70:U93" si="25">(F70+O70)/P70</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V70" s="12">
@@ -8523,25 +16162,25 @@
       <c r="J71" s="12"/>
       <c r="K71" s="12"/>
       <c r="L71" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M71" s="12"/>
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q71" s="14"/>
       <c r="R71" s="14"/>
       <c r="S71" s="12"/>
       <c r="T71" s="12" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U71" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V71" s="12">
@@ -8629,25 +16268,25 @@
         <v>10</v>
       </c>
       <c r="L72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-5</v>
       </c>
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
       <c r="P72" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="1"/>
       <c r="T72" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>50</v>
       </c>
       <c r="U72" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>50</v>
       </c>
       <c r="V72" s="1">
@@ -8684,7 +16323,7 @@
         <v>146</v>
       </c>
       <c r="AG72" s="1">
-        <f t="shared" ref="AG72:AG78" si="19">G72*Q72</f>
+        <f t="shared" ref="AG72:AG78" si="26">G72*Q72</f>
         <v>0</v>
       </c>
       <c r="AH72" s="1"/>
@@ -8738,7 +16377,7 @@
         <v>57.6</v>
       </c>
       <c r="L73" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.1890000000000001</v>
       </c>
       <c r="M73" s="17"/>
@@ -8747,18 +16386,18 @@
         <v>58.2468</v>
       </c>
       <c r="P73" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>11.957800000000001</v>
       </c>
       <c r="Q73" s="19"/>
       <c r="R73" s="19"/>
       <c r="S73" s="17"/>
       <c r="T73" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>13.10490223954239</v>
       </c>
       <c r="U73" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>13.10490223954239</v>
       </c>
       <c r="V73" s="17">
@@ -8795,12 +16434,18 @@
         <v>58</v>
       </c>
       <c r="AG73" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH73" s="1"/>
-      <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
+      <c r="AI73" s="1" t="str">
+        <f>VLOOKUP(A73,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002634</v>
+      </c>
+      <c r="AJ73" s="1">
+        <f t="shared" ref="AJ73:AJ78" si="27">(SUM(V73:AE73)+P73)/11*22</f>
+        <v>312.72959999999995</v>
+      </c>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
@@ -8849,25 +16494,25 @@
         <v>390</v>
       </c>
       <c r="L74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-74.27800000000002</v>
       </c>
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
       <c r="O74" s="1"/>
       <c r="P74" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>63.144399999999997</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="1"/>
       <c r="T74" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11.140243632056048</v>
       </c>
       <c r="U74" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>11.140243632056048</v>
       </c>
       <c r="V74" s="1">
@@ -8902,12 +16547,18 @@
       </c>
       <c r="AF74" s="1"/>
       <c r="AG74" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
+      <c r="AI74" s="1" t="str">
+        <f>VLOOKUP(A74,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003423</v>
+      </c>
+      <c r="AJ74" s="1">
+        <f t="shared" si="27"/>
+        <v>2218.4276</v>
+      </c>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
@@ -8956,25 +16607,25 @@
         <v>199.5</v>
       </c>
       <c r="L75" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-4.414999999999992</v>
       </c>
       <c r="M75" s="17"/>
       <c r="N75" s="17"/>
       <c r="O75" s="17"/>
       <c r="P75" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>39.017000000000003</v>
       </c>
       <c r="Q75" s="19"/>
       <c r="R75" s="19"/>
       <c r="S75" s="17"/>
       <c r="T75" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>14.738472973319322</v>
       </c>
       <c r="U75" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>14.738472973319322</v>
       </c>
       <c r="V75" s="17">
@@ -9011,12 +16662,18 @@
         <v>61</v>
       </c>
       <c r="AG75" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH75" s="1"/>
-      <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
+      <c r="AI75" s="1" t="str">
+        <f>VLOOKUP(A75,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003420</v>
+      </c>
+      <c r="AJ75" s="1">
+        <f t="shared" si="27"/>
+        <v>1776.354</v>
+      </c>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
@@ -9065,7 +16722,7 @@
         <v>932.5</v>
       </c>
       <c r="L76" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-5.5460000000000491</v>
       </c>
       <c r="M76" s="17"/>
@@ -9074,21 +16731,21 @@
         <v>922.33122000000014</v>
       </c>
       <c r="P76" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>185.39079999999998</v>
       </c>
       <c r="Q76" s="19">
-        <f t="shared" ref="Q76" si="20">12*P76-O76-F76</f>
+        <f t="shared" ref="Q76" si="28">12*P76-O76-F76</f>
         <v>294.88737999999967</v>
       </c>
       <c r="R76" s="19"/>
       <c r="S76" s="17"/>
       <c r="T76" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>12</v>
       </c>
       <c r="U76" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10.409374251580985</v>
       </c>
       <c r="V76" s="17">
@@ -9125,12 +16782,18 @@
         <v>58</v>
       </c>
       <c r="AG76" s="17">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>294.88737999999967</v>
       </c>
       <c r="AH76" s="1"/>
-      <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
+      <c r="AI76" s="1" t="str">
+        <f>VLOOKUP(A76,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003422</v>
+      </c>
+      <c r="AJ76" s="1">
+        <f t="shared" si="27"/>
+        <v>3416.6947999999998</v>
+      </c>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
@@ -9177,25 +16840,25 @@
         <v>3.9</v>
       </c>
       <c r="L77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.988</v>
       </c>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
       <c r="P77" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.18240000000000001</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="1"/>
       <c r="T77" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>96.61184210526315</v>
       </c>
       <c r="U77" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>96.61184210526315</v>
       </c>
       <c r="V77" s="1">
@@ -9232,12 +16895,18 @@
         <v>147</v>
       </c>
       <c r="AG77" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH77" s="1"/>
-      <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
+      <c r="AI77" s="1" t="str">
+        <f>VLOOKUP(A77,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003392</v>
+      </c>
+      <c r="AJ77" s="1">
+        <f t="shared" si="27"/>
+        <v>19.652799999999999</v>
+      </c>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
@@ -9284,25 +16953,25 @@
         <v>2.6</v>
       </c>
       <c r="L78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0.10599999999999987</v>
       </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
       <c r="P78" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.54120000000000001</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>9.9482631189948272</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>9.9482631189948272</v>
       </c>
       <c r="V78" s="1">
@@ -9339,12 +17008,18 @@
         <v>148</v>
       </c>
       <c r="AG78" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
+      <c r="AI78" s="1" t="str">
+        <f>VLOOKUP(A78,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003394</v>
+      </c>
+      <c r="AJ78" s="1">
+        <f t="shared" si="27"/>
+        <v>17.085999999999999</v>
+      </c>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
@@ -9383,25 +17058,25 @@
       <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M79" s="12"/>
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
       <c r="P79" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q79" s="14"/>
       <c r="R79" s="14"/>
       <c r="S79" s="12"/>
       <c r="T79" s="12" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U79" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V79" s="12">
@@ -9479,25 +17154,25 @@
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="M80" s="12"/>
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="12">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q80" s="14"/>
       <c r="R80" s="14"/>
       <c r="S80" s="12"/>
       <c r="T80" s="12" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U80" s="12" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V80" s="12">
@@ -9583,25 +17258,25 @@
         <v>16</v>
       </c>
       <c r="L81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-11</v>
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
       <c r="P81" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="1"/>
       <c r="T81" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="U81" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>28</v>
       </c>
       <c r="V81" s="1">
@@ -9636,7 +17311,7 @@
       </c>
       <c r="AF81" s="1"/>
       <c r="AG81" s="1">
-        <f t="shared" ref="AG81:AG93" si="21">G81*Q81</f>
+        <f t="shared" ref="AG81:AG93" si="29">G81*Q81</f>
         <v>0</v>
       </c>
       <c r="AH81" s="1"/>
@@ -9690,25 +17365,25 @@
         <v>9</v>
       </c>
       <c r="L82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-5</v>
       </c>
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
       <c r="P82" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.8</v>
       </c>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="1"/>
       <c r="T82" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>67.5</v>
       </c>
       <c r="U82" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>67.5</v>
       </c>
       <c r="V82" s="1">
@@ -9743,7 +17418,7 @@
       </c>
       <c r="AF82" s="1"/>
       <c r="AG82" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH82" s="1"/>
@@ -9797,7 +17472,7 @@
         <v>78</v>
       </c>
       <c r="L83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="M83" s="1"/>
@@ -9806,21 +17481,21 @@
         <v>50.8</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="Q83" s="5">
-        <f t="shared" ref="Q83:Q91" si="22">11*P83-O83-F83</f>
+        <f t="shared" ref="Q83:Q91" si="30">11*P83-O83-F83</f>
         <v>25.200000000000003</v>
       </c>
       <c r="R83" s="5"/>
       <c r="S83" s="1"/>
       <c r="T83" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="U83" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>9.32</v>
       </c>
       <c r="V83" s="1">
@@ -9855,7 +17530,7 @@
       </c>
       <c r="AF83" s="1"/>
       <c r="AG83" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>7.5600000000000005</v>
       </c>
       <c r="AH83" s="1"/>
@@ -9909,7 +17584,7 @@
         <v>15</v>
       </c>
       <c r="L84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="M84" s="1"/>
@@ -9918,7 +17593,7 @@
         <v>9</v>
       </c>
       <c r="P84" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>2.8</v>
       </c>
       <c r="Q84" s="5">
@@ -9927,11 +17602,11 @@
       <c r="R84" s="5"/>
       <c r="S84" s="1"/>
       <c r="T84" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>12.142857142857144</v>
       </c>
       <c r="U84" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="V84" s="1">
@@ -9966,7 +17641,7 @@
       </c>
       <c r="AF84" s="1"/>
       <c r="AG84" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AH84" s="1"/>
@@ -10020,7 +17695,7 @@
         <v>399.75799999999998</v>
       </c>
       <c r="L85" s="17">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>8.8940000000000055</v>
       </c>
       <c r="M85" s="17"/>
@@ -10029,7 +17704,7 @@
         <v>541.94924000000015</v>
       </c>
       <c r="P85" s="17">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>81.730400000000003</v>
       </c>
       <c r="Q85" s="19">
@@ -10039,11 +17714,11 @@
       <c r="R85" s="19"/>
       <c r="S85" s="17"/>
       <c r="T85" s="17">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>12.000000000000002</v>
       </c>
       <c r="U85" s="17">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>11.249293286219084</v>
       </c>
       <c r="V85" s="17">
@@ -10080,12 +17755,18 @@
         <v>58</v>
       </c>
       <c r="AG85" s="17">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>61.355559999999912</v>
       </c>
       <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
+      <c r="AI85" s="1" t="str">
+        <f>VLOOKUP(A85,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU002074</v>
+      </c>
+      <c r="AJ85" s="1">
+        <f>(SUM(V85:AE85)+P85)/11*22</f>
+        <v>1712.7976000000001</v>
+      </c>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
@@ -10134,7 +17815,7 @@
         <v>72</v>
       </c>
       <c r="L86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-4</v>
       </c>
       <c r="M86" s="1"/>
@@ -10143,21 +17824,21 @@
         <v>22</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>13.6</v>
       </c>
       <c r="Q86" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>8.5999999999999943</v>
       </c>
       <c r="R86" s="5"/>
       <c r="S86" s="1"/>
       <c r="T86" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="U86" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10.367647058823529</v>
       </c>
       <c r="V86" s="1">
@@ -10192,7 +17873,7 @@
       </c>
       <c r="AF86" s="1"/>
       <c r="AG86" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2.5799999999999983</v>
       </c>
       <c r="AH86" s="1"/>
@@ -10246,14 +17927,14 @@
         <v>61</v>
       </c>
       <c r="L87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-8</v>
       </c>
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>10.6</v>
       </c>
       <c r="Q87" s="5">
@@ -10262,11 +17943,11 @@
       <c r="R87" s="5"/>
       <c r="S87" s="1"/>
       <c r="T87" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11.509433962264151</v>
       </c>
       <c r="U87" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10.943396226415095</v>
       </c>
       <c r="V87" s="1">
@@ -10301,7 +17982,7 @@
       </c>
       <c r="AF87" s="1"/>
       <c r="AG87" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="AH87" s="1"/>
@@ -10355,25 +18036,25 @@
         <v>6.5</v>
       </c>
       <c r="L88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-0.49399999999999977</v>
       </c>
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>1.2012</v>
       </c>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="1"/>
       <c r="T88" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>40.413752913752916</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>40.413752913752916</v>
       </c>
       <c r="V88" s="1">
@@ -10410,12 +18091,18 @@
         <v>139</v>
       </c>
       <c r="AG88" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH88" s="1"/>
-      <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
+      <c r="AI88" s="1" t="str">
+        <f>VLOOKUP(A88,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003616</v>
+      </c>
+      <c r="AJ88" s="1">
+        <f t="shared" ref="AJ88:AJ89" si="31">(SUM(V88:AE88)+P88)/11*22</f>
+        <v>66.736000000000004</v>
+      </c>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
@@ -10464,7 +18151,7 @@
         <v>45.8</v>
       </c>
       <c r="L89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-2.0159999999999982</v>
       </c>
       <c r="M89" s="1"/>
@@ -10473,21 +18160,21 @@
         <v>45.083800000000011</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>8.7568000000000001</v>
       </c>
       <c r="Q89" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>32.439999999999984</v>
       </c>
       <c r="R89" s="5"/>
       <c r="S89" s="1"/>
       <c r="T89" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="U89" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>7.2954503928375676</v>
       </c>
       <c r="V89" s="1">
@@ -10522,12 +18209,18 @@
       </c>
       <c r="AF89" s="1"/>
       <c r="AG89" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>32.439999999999984</v>
       </c>
       <c r="AH89" s="1"/>
-      <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
+      <c r="AI89" s="1" t="str">
+        <f>VLOOKUP(A89,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003642</v>
+      </c>
+      <c r="AJ89" s="1">
+        <f t="shared" si="31"/>
+        <v>105.92319999999999</v>
+      </c>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
@@ -10576,7 +18269,7 @@
         <v>68</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-4</v>
       </c>
       <c r="M90" s="1"/>
@@ -10585,21 +18278,21 @@
         <v>51.199999999999989</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>12.8</v>
       </c>
       <c r="Q90" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>63.600000000000023</v>
       </c>
       <c r="R90" s="5"/>
       <c r="S90" s="1"/>
       <c r="T90" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>6.0312499999999991</v>
       </c>
       <c r="V90" s="1">
@@ -10634,7 +18327,7 @@
       </c>
       <c r="AF90" s="1"/>
       <c r="AG90" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>20.98800000000001</v>
       </c>
       <c r="AH90" s="1"/>
@@ -10688,7 +18381,7 @@
         <v>63</v>
       </c>
       <c r="L91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-5</v>
       </c>
       <c r="M91" s="1"/>
@@ -10697,21 +18390,21 @@
         <v>56</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>11.6</v>
       </c>
       <c r="Q91" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>9.5999999999999943</v>
       </c>
       <c r="R91" s="5"/>
       <c r="S91" s="1"/>
       <c r="T91" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>11</v>
       </c>
       <c r="U91" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10.172413793103448</v>
       </c>
       <c r="V91" s="1">
@@ -10746,7 +18439,7 @@
       </c>
       <c r="AF91" s="1"/>
       <c r="AG91" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>2.8799999999999981</v>
       </c>
       <c r="AH91" s="1"/>
@@ -10798,7 +18491,7 @@
         <v>24</v>
       </c>
       <c r="L92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="M92" s="1"/>
@@ -10807,18 +18500,18 @@
         <v>16</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>4.2</v>
       </c>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="1"/>
       <c r="T92" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>10.952380952380953</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>10.952380952380953</v>
       </c>
       <c r="V92" s="1">
@@ -10853,7 +18546,7 @@
       </c>
       <c r="AF92" s="1"/>
       <c r="AG92" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH92" s="1"/>
@@ -10905,25 +18598,25 @@
         <v>1.06</v>
       </c>
       <c r="L93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="22"/>
         <v>2.2999999999999909E-2</v>
       </c>
       <c r="M93" s="1"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.21659999999999999</v>
       </c>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="1"/>
       <c r="T93" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="24"/>
         <v>120.30470914127424</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="25"/>
         <v>120.30470914127424</v>
       </c>
       <c r="V93" s="1">
@@ -10960,12 +18653,18 @@
         <v>145</v>
       </c>
       <c r="AG93" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
+      <c r="AI93" s="1" t="str">
+        <f>VLOOKUP(A93,[1]Sheet!$A:$AJ,36,0)</f>
+        <v>SU003915</v>
+      </c>
+      <c r="AJ93" s="1">
+        <f>(SUM(V93:AE93)+P93)/11*22</f>
+        <v>11.9956</v>
+      </c>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
